--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -127,10 +127,10 @@
     <t>AS Trencin</t>
   </si>
   <si>
-    <t>Slovan Bratislava</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>MFK Skalica</t>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5175255</v>
+        <v>5175104</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,73 +1334,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>1.285</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5175104</v>
+        <v>5175255</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,73 +1423,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>1.285</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5175260</v>
+        <v>5175262</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="L15">
+        <v>3.8</v>
+      </c>
+      <c r="M15">
+        <v>5.5</v>
+      </c>
+      <c r="N15">
+        <v>1.4</v>
+      </c>
+      <c r="O15">
         <v>4.5</v>
       </c>
-      <c r="M15">
-        <v>1.444</v>
-      </c>
-      <c r="N15">
-        <v>6.5</v>
-      </c>
-      <c r="O15">
-        <v>4.333</v>
-      </c>
       <c r="P15">
-        <v>1.45</v>
+        <v>8</v>
       </c>
       <c r="Q15">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X15">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5175262</v>
+        <v>5175263</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,58 +1865,58 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N16">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
         <v>4.5</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1925,13 +1925,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5175263</v>
+        <v>5175260</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="L17">
         <v>4.5</v>
       </c>
       <c r="M17">
+        <v>1.444</v>
+      </c>
+      <c r="N17">
         <v>6.5</v>
       </c>
-      <c r="N17">
-        <v>1.5</v>
-      </c>
       <c r="O17">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -2310,7 +2310,7 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2936,7 +2936,7 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3111,7 +3111,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6358397</v>
+        <v>6358395</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,76 +3378,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
+        <v>1.925</v>
+      </c>
+      <c r="S33">
         <v>1.875</v>
-      </c>
-      <c r="S33">
-        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.875</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6358396</v>
+        <v>6358397</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3467,10 +3467,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3482,43 +3482,43 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L34">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M34">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N34">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3527,7 +3527,7 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3536,7 +3536,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6358395</v>
+        <v>6358396</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,46 +3556,46 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
         <v>1.75</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q35">
         <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3607,25 +3607,25 @@
         <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4182,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6358401</v>
+        <v>6358378</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6358378</v>
+        <v>6358401</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48">
+        <v>3.1</v>
+      </c>
+      <c r="L48">
+        <v>3.2</v>
+      </c>
+      <c r="M48">
+        <v>2.2</v>
+      </c>
+      <c r="N48">
+        <v>2.75</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.625</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>42</v>
-      </c>
-      <c r="K48">
-        <v>4.2</v>
-      </c>
-      <c r="L48">
-        <v>3.5</v>
-      </c>
-      <c r="M48">
+      <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
+        <v>2.25</v>
+      </c>
+      <c r="U48">
+        <v>2.05</v>
+      </c>
+      <c r="V48">
         <v>1.75</v>
       </c>
-      <c r="N48">
-        <v>4</v>
-      </c>
-      <c r="O48">
-        <v>3.6</v>
-      </c>
-      <c r="P48">
-        <v>1.909</v>
-      </c>
-      <c r="Q48">
-        <v>0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.9</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>2.5</v>
-      </c>
-      <c r="U48">
-        <v>1.95</v>
-      </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
       <c r="W48">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4802,7 @@
         <v>45025.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -5247,7 +5247,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -5336,7 +5336,7 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -5695,7 +5695,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6048,7 +6048,7 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>35</v>
@@ -6318,7 +6318,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6358386</v>
+        <v>6358415</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,55 +6582,55 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="K69">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L69">
+        <v>3.4</v>
+      </c>
+      <c r="M69">
         <v>4.5</v>
       </c>
-      <c r="M69">
-        <v>7</v>
-      </c>
       <c r="N69">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O69">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q69">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6639,19 +6639,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6358415</v>
+        <v>6358413</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,76 +6671,76 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="L70">
+        <v>3.25</v>
+      </c>
+      <c r="M70">
+        <v>2.45</v>
+      </c>
+      <c r="N70">
         <v>3.4</v>
       </c>
-      <c r="M70">
-        <v>4.5</v>
-      </c>
-      <c r="N70">
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.1</v>
+      </c>
+      <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
         <v>1.8</v>
       </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>4.75</v>
-      </c>
-      <c r="Q70">
+      <c r="T70">
+        <v>2.5</v>
+      </c>
+      <c r="U70">
+        <v>1.9</v>
+      </c>
+      <c r="V70">
+        <v>1.9</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>2.4</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0.5</v>
+      </c>
+      <c r="AA70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.8</v>
-      </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>1.85</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>3.75</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
-      <c r="AA70">
-        <v>1</v>
-      </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6358413</v>
+        <v>6358386</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,76 +6760,76 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z71">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
@@ -6941,7 +6941,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6358417</v>
+        <v>6358388</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,73 +7116,73 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K75">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N75">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P75">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6358416</v>
+        <v>6358417</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,13 +7205,13 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7220,34 +7220,34 @@
         <v>42</v>
       </c>
       <c r="K76">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N76">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P76">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
         <v>1.925</v>
@@ -7256,7 +7256,7 @@
         <v>1.875</v>
       </c>
       <c r="W76">
-        <v>0.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7265,16 +7265,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6622389</v>
+        <v>6358416</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K77">
+        <v>1.55</v>
+      </c>
+      <c r="L77">
         <v>3.6</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
       <c r="M77">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R77">
         <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6358297</v>
+        <v>6622389</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,55 +7383,55 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>44</v>
       </c>
       <c r="K78">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N78">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7440,19 +7440,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.6000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB78">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6358388</v>
+        <v>6358297</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,49 +7472,49 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
       </c>
       <c r="K79">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L79">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N79">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
         <v>1.95</v>
@@ -7529,19 +7529,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6358298</v>
+        <v>6358390</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,28 +7561,28 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K80">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N80">
         <v>1.333</v>
@@ -7591,19 +7591,19 @@
         <v>5.25</v>
       </c>
       <c r="P80">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q80">
         <v>-1.5</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U80">
         <v>1.9</v>
@@ -7612,19 +7612,19 @@
         <v>1.9</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6358390</v>
+        <v>6358420</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,10 +7828,10 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7843,43 +7843,43 @@
         <v>42</v>
       </c>
       <c r="K83">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="L83">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W83">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7888,16 +7888,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6358420</v>
+        <v>6358421</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,19 +7917,19 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -7941,52 +7941,52 @@
         <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
+        <v>1.95</v>
+      </c>
+      <c r="S84">
         <v>1.85</v>
       </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6358421</v>
+        <v>6358298</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,55 +8006,55 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>1</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
       </c>
       <c r="J85" t="s">
         <v>44</v>
       </c>
       <c r="K85">
+        <v>1.3</v>
+      </c>
+      <c r="L85">
+        <v>5</v>
+      </c>
+      <c r="M85">
+        <v>8</v>
+      </c>
+      <c r="N85">
+        <v>1.333</v>
+      </c>
+      <c r="O85">
+        <v>5.25</v>
+      </c>
+      <c r="P85">
+        <v>8.5</v>
+      </c>
+      <c r="Q85">
+        <v>-1.5</v>
+      </c>
+      <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
         <v>1.95</v>
       </c>
-      <c r="L85">
-        <v>3.4</v>
-      </c>
-      <c r="M85">
-        <v>3.5</v>
-      </c>
-      <c r="N85">
-        <v>2.625</v>
-      </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
-      <c r="P85">
-        <v>2.55</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.95</v>
-      </c>
-      <c r="S85">
-        <v>1.85</v>
-      </c>
       <c r="T85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8063,19 +8063,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -8632,7 +8632,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
+        <v>1.85</v>
+      </c>
+      <c r="V93">
         <v>1.95</v>
       </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
       <c r="W93">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K94">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N94">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T94">
         <v>2.75</v>
       </c>
       <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9077,7 +9077,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9430,7 +9430,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6831642</v>
+        <v>6831731</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,49 +9519,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>1.65</v>
+      </c>
+      <c r="O102">
+        <v>4</v>
+      </c>
+      <c r="P102">
+        <v>5.25</v>
+      </c>
+      <c r="Q102">
+        <v>-0.75</v>
+      </c>
+      <c r="R102">
         <v>1.8</v>
       </c>
-      <c r="N102">
-        <v>4.2</v>
-      </c>
-      <c r="O102">
-        <v>3.5</v>
-      </c>
-      <c r="P102">
-        <v>1.909</v>
-      </c>
-      <c r="Q102">
-        <v>0.5</v>
-      </c>
-      <c r="R102">
-        <v>1.925</v>
-      </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9570,25 +9570,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA102">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832800</v>
+        <v>6832801</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,49 +9608,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
+        <v>3.2</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>2.15</v>
+      </c>
+      <c r="N103">
+        <v>3.75</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2</v>
+      </c>
+      <c r="Q103">
+        <v>0.5</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
         <v>1.95</v>
       </c>
-      <c r="L103">
-        <v>3.5</v>
-      </c>
-      <c r="M103">
-        <v>3.5</v>
-      </c>
-      <c r="N103">
-        <v>2.3</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>2.875</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.8</v>
-      </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
         <v>1.975</v>
@@ -9659,25 +9659,25 @@
         <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6831731</v>
+        <v>6832800</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,58 +9697,58 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>42</v>
       </c>
       <c r="K104">
+        <v>1.95</v>
+      </c>
+      <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>3.5</v>
+      </c>
+      <c r="N104">
+        <v>2.3</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
+        <v>2.875</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.8</v>
       </c>
-      <c r="L104">
-        <v>3.6</v>
-      </c>
-      <c r="M104">
-        <v>4</v>
-      </c>
-      <c r="N104">
-        <v>1.65</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>5.25</v>
-      </c>
-      <c r="Q104">
-        <v>-0.75</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9757,16 +9757,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832801</v>
+        <v>6831642</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,76 +9786,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O105">
         <v>3.5</v>
       </c>
       <c r="P105">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
         <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
         <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6832809</v>
+        <v>6831733</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N113">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
+        <v>1.825</v>
+      </c>
+      <c r="V113">
         <v>1.975</v>
       </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>1.975</v>
-      </c>
-      <c r="V113">
-        <v>1.825</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y113">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
+        <v>0.5</v>
+      </c>
+      <c r="AB113">
         <v>0.825</v>
       </c>
-      <c r="AB113">
-        <v>0</v>
-      </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6831733</v>
+        <v>6832809</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M114">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N114">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P114">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6832813</v>
+        <v>6832814</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,58 +10943,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>42</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11003,16 +11003,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6832814</v>
+        <v>6832813</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,58 +11032,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
         <v>1</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>42</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P119">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11092,16 +11092,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11477,7 +11477,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
@@ -11658,7 +11658,7 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12100,7 +12100,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
         <v>40</v>
@@ -12189,7 +12189,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12370,7 +12370,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12637,7 +12637,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13168,7 +13168,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867418</v>
+        <v>6867421</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,76 +13435,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K146">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N146">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867421</v>
+        <v>6867418</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,76 +13524,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L147">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -14061,7 +14061,7 @@
         <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14239,7 +14239,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14592,7 +14592,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
         <v>41</v>
@@ -14681,10 +14681,10 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F160" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" t="s">
         <v>37</v>
-      </c>
-      <c r="G160" t="s">
-        <v>38</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14862,7 +14862,7 @@
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15037,7 +15037,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
         <v>36</v>
@@ -15574,7 +15574,7 @@
         <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H170">
         <v>3</v>
@@ -15660,7 +15660,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -16016,10 +16016,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F175" t="s">
+        <v>37</v>
+      </c>
+      <c r="G175" t="s">
         <v>38</v>
-      </c>
-      <c r="G175" t="s">
-        <v>37</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16375,7 +16375,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6867454</v>
+        <v>6867456</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L180">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N180">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P180">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q180">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.45</v>
+      </c>
+      <c r="AA180">
+        <v>-0.5</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z180">
-        <v>-0.5</v>
-      </c>
-      <c r="AA180">
-        <v>0.475</v>
-      </c>
-      <c r="AB180">
-        <v>0.4375</v>
-      </c>
-      <c r="AC180">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6867456</v>
+        <v>7528661</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
         <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z181">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7528661</v>
+        <v>6867454</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,10 +16639,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16654,40 +16654,40 @@
         <v>44</v>
       </c>
       <c r="K182">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N182">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P182">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R182">
+        <v>1.75</v>
+      </c>
+      <c r="S182">
         <v>1.95</v>
       </c>
-      <c r="S182">
-        <v>1.85</v>
-      </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16696,19 +16696,19 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16817,7 +16817,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
         <v>33</v>
@@ -17087,7 +17087,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
         <v>39</v>
@@ -17799,7 +17799,7 @@
         <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17885,7 +17885,7 @@
         <v>45277.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
         <v>34</v>
@@ -17977,7 +17977,7 @@
         <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18612,31 +18612,31 @@
         <v>2.25</v>
       </c>
       <c r="N204">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q204">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T204">
         <v>3</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18659,7 +18659,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6867481</v>
+        <v>6867482</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18671,46 +18671,46 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K205">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L205">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O205">
         <v>3.3</v>
       </c>
       <c r="P205">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18733,7 +18733,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6867482</v>
+        <v>6867481</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18745,46 +18745,46 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K206">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="O206">
         <v>3.4</v>
       </c>
       <c r="P206">
+        <v>3.75</v>
+      </c>
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>2.025</v>
+      </c>
+      <c r="S206">
+        <v>1.775</v>
+      </c>
+      <c r="T206">
         <v>2.25</v>
       </c>
-      <c r="Q206">
-        <v>0.25</v>
-      </c>
-      <c r="R206">
-        <v>1.85</v>
-      </c>
-      <c r="S206">
-        <v>1.95</v>
-      </c>
-      <c r="T206">
-        <v>2.5</v>
-      </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18819,7 +18819,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18920,10 +18920,10 @@
         <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T208">
         <v>2.25</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>AS Trencin</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>Slovan Bratislava</t>
   </si>
   <si>
-    <t>Slovan Bratislava</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
     <t>MFK Skalica</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5175104</v>
+        <v>5175255</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,73 +1334,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>1.285</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M10">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5175255</v>
+        <v>5175104</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,73 +1423,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.285</v>
+        <v>4.5</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5175262</v>
+        <v>5175260</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="N15">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="O15">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>8</v>
+        <v>1.45</v>
       </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>1.975</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
         <v>1.85</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
-      <c r="V15">
-        <v>1.925</v>
-      </c>
       <c r="W15">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5175263</v>
+        <v>5175262</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,58 +1865,58 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O16">
         <v>4.5</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1925,13 +1925,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5175260</v>
+        <v>5175263</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="L17">
         <v>4.5</v>
       </c>
       <c r="M17">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N17">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P17">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="Q17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R17">
+        <v>1.775</v>
+      </c>
+      <c r="S17">
+        <v>2.025</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>1.975</v>
+      </c>
+      <c r="V17">
         <v>1.825</v>
       </c>
-      <c r="S17">
-        <v>1.975</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X17">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -2310,7 +2310,7 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2936,7 +2936,7 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3111,7 +3111,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6358395</v>
+        <v>6358397</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,76 +3378,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L33">
+        <v>3.2</v>
+      </c>
+      <c r="M33">
+        <v>2.55</v>
+      </c>
+      <c r="N33">
+        <v>2.2</v>
+      </c>
+      <c r="O33">
+        <v>3.25</v>
+      </c>
+      <c r="P33">
         <v>3.4</v>
       </c>
-      <c r="M33">
-        <v>3.8</v>
-      </c>
-      <c r="N33">
-        <v>1.75</v>
-      </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
-      <c r="P33">
-        <v>5</v>
-      </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
         <v>1.925</v>
-      </c>
-      <c r="S33">
-        <v>1.875</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6358397</v>
+        <v>6358396</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3467,10 +3467,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3482,43 +3482,43 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N34">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3527,7 +3527,7 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3536,7 +3536,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.4875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6358396</v>
+        <v>6358395</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,46 +3556,46 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N35">
         <v>1.75</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q35">
         <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3607,25 +3607,25 @@
         <v>1.95</v>
       </c>
       <c r="W35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4182,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6358378</v>
+        <v>6358401</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47">
+        <v>3.1</v>
+      </c>
+      <c r="L47">
+        <v>3.2</v>
+      </c>
+      <c r="M47">
+        <v>2.2</v>
+      </c>
+      <c r="N47">
+        <v>2.75</v>
+      </c>
+      <c r="O47">
+        <v>3.2</v>
+      </c>
+      <c r="P47">
+        <v>2.625</v>
+      </c>
+      <c r="Q47">
         <v>0</v>
       </c>
-      <c r="J47" t="s">
-        <v>42</v>
-      </c>
-      <c r="K47">
-        <v>4.2</v>
-      </c>
-      <c r="L47">
-        <v>3.5</v>
-      </c>
-      <c r="M47">
+      <c r="R47">
+        <v>1.825</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>2.05</v>
+      </c>
+      <c r="V47">
         <v>1.75</v>
       </c>
-      <c r="N47">
-        <v>4</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>1.909</v>
-      </c>
-      <c r="Q47">
-        <v>0.5</v>
-      </c>
-      <c r="R47">
-        <v>1.9</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
-      </c>
-      <c r="T47">
-        <v>2.5</v>
-      </c>
-      <c r="U47">
-        <v>1.95</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
       <c r="W47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6358401</v>
+        <v>6358378</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N48">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4802,7 +4802,7 @@
         <v>45025.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -5247,7 +5247,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -5336,7 +5336,7 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -5695,7 +5695,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6048,7 +6048,7 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>35</v>
@@ -6318,7 +6318,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6849,7 +6849,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>36</v>
@@ -6941,7 +6941,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6358388</v>
+        <v>6358417</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,73 +7116,73 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N75">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
+        <v>1.9</v>
+      </c>
+      <c r="S75">
+        <v>1.9</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
         <v>1.925</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.95</v>
-      </c>
-      <c r="V75">
-        <v>1.85</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6358417</v>
+        <v>6358416</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,13 +7205,13 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7220,34 +7220,34 @@
         <v>42</v>
       </c>
       <c r="K76">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N76">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O76">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
         <v>1.925</v>
@@ -7256,7 +7256,7 @@
         <v>1.875</v>
       </c>
       <c r="W76">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7265,16 +7265,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6358416</v>
+        <v>6622389</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N77">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
         <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6622389</v>
+        <v>6358297</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,55 +7383,55 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>44</v>
       </c>
       <c r="K78">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N78">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7440,19 +7440,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.05</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6358297</v>
+        <v>6358388</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,49 +7472,49 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
       </c>
       <c r="K79">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N79">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>1.95</v>
@@ -7529,19 +7529,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7828,7 +7828,7 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -8006,7 +8006,7 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8451,7 +8451,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -8632,7 +8632,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8985,7 +8985,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9077,7 +9077,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9430,7 +9430,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6831731</v>
+        <v>6831642</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,49 +9519,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K102">
+        <v>4.2</v>
+      </c>
+      <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
         <v>1.8</v>
       </c>
-      <c r="L102">
-        <v>3.6</v>
-      </c>
-      <c r="M102">
-        <v>4</v>
-      </c>
       <c r="N102">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9570,25 +9570,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z102">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6831642</v>
+        <v>6831731</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,49 +9786,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>1.65</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>5.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
         <v>1.8</v>
       </c>
-      <c r="N105">
-        <v>4.2</v>
-      </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
-      <c r="P105">
-        <v>1.909</v>
-      </c>
-      <c r="Q105">
-        <v>0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
         <v>1.95</v>
@@ -9837,25 +9837,25 @@
         <v>1.85</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6831733</v>
+        <v>6832809</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M113">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N113">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U113">
+        <v>1.975</v>
+      </c>
+      <c r="V113">
         <v>1.825</v>
       </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832809</v>
+        <v>6831733</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N114">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
         <v>1.975</v>
       </c>
-      <c r="S114">
-        <v>1.825</v>
-      </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y114">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
+        <v>0.5</v>
+      </c>
+      <c r="AB114">
         <v>0.825</v>
       </c>
-      <c r="AB114">
-        <v>0</v>
-      </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6832814</v>
+        <v>6832813</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,58 +10943,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
         <v>1</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>42</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11003,16 +11003,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6832813</v>
+        <v>6832814</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,58 +11032,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>42</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O119">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11092,16 +11092,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11477,7 +11477,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
@@ -11658,7 +11658,7 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867408</v>
+        <v>6867407</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N129">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
+        <v>1.95</v>
+      </c>
+      <c r="S129">
         <v>1.85</v>
       </c>
-      <c r="S129">
-        <v>1.95</v>
-      </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867407</v>
+        <v>6867406</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,55 +12011,55 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J130" t="s">
         <v>44</v>
       </c>
       <c r="K130">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N130">
+        <v>5.75</v>
+      </c>
+      <c r="O130">
         <v>4</v>
       </c>
-      <c r="O130">
-        <v>3.6</v>
-      </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12068,19 +12068,19 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867406</v>
+        <v>6867408</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N131">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="O131">
         <v>4</v>
       </c>
       <c r="P131">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q131">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y131">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12370,7 +12370,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12637,7 +12637,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13168,7 +13168,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
@@ -13524,7 +13524,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
         <v>36</v>
@@ -13616,7 +13616,7 @@
         <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -14061,7 +14061,7 @@
         <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14239,7 +14239,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14592,7 +14592,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
         <v>41</v>
@@ -14681,10 +14681,10 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F160" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160" t="s">
         <v>38</v>
-      </c>
-      <c r="G160" t="s">
-        <v>37</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14862,7 +14862,7 @@
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15037,7 +15037,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
         <v>36</v>
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6867445</v>
+        <v>6867443</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,76 +15482,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K169">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="L169">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="N169">
+        <v>1.615</v>
+      </c>
+      <c r="O169">
         <v>4.2</v>
       </c>
-      <c r="O169">
-        <v>3.75</v>
-      </c>
       <c r="P169">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q169">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>0.825</v>
       </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6867443</v>
+        <v>6867445</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="N170">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P170">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15660,7 +15660,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -16016,10 +16016,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F175" t="s">
+        <v>38</v>
+      </c>
+      <c r="G175" t="s">
         <v>37</v>
-      </c>
-      <c r="G175" t="s">
-        <v>38</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6867450</v>
+        <v>6867452</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,76 +16105,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176" t="s">
+        <v>44</v>
+      </c>
+      <c r="K176">
+        <v>2.45</v>
+      </c>
+      <c r="L176">
+        <v>3.3</v>
+      </c>
+      <c r="M176">
+        <v>2.625</v>
+      </c>
+      <c r="N176">
+        <v>2.625</v>
+      </c>
+      <c r="O176">
+        <v>3.4</v>
+      </c>
+      <c r="P176">
+        <v>2.55</v>
+      </c>
+      <c r="Q176">
         <v>0</v>
       </c>
-      <c r="J176" t="s">
-        <v>42</v>
-      </c>
-      <c r="K176">
-        <v>1.4</v>
-      </c>
-      <c r="L176">
-        <v>4.75</v>
-      </c>
-      <c r="M176">
-        <v>6</v>
-      </c>
-      <c r="N176">
-        <v>1.333</v>
-      </c>
-      <c r="O176">
-        <v>5.5</v>
-      </c>
-      <c r="P176">
-        <v>7</v>
-      </c>
-      <c r="Q176">
-        <v>-1.25</v>
-      </c>
       <c r="R176">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S176">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.55</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC176">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6867452</v>
+        <v>6867450</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,76 +16194,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
         <v>0</v>
       </c>
-      <c r="I177">
+      <c r="J177" t="s">
+        <v>42</v>
+      </c>
+      <c r="K177">
+        <v>1.4</v>
+      </c>
+      <c r="L177">
+        <v>4.75</v>
+      </c>
+      <c r="M177">
+        <v>6</v>
+      </c>
+      <c r="N177">
+        <v>1.333</v>
+      </c>
+      <c r="O177">
+        <v>5.5</v>
+      </c>
+      <c r="P177">
+        <v>7</v>
+      </c>
+      <c r="Q177">
+        <v>-1.25</v>
+      </c>
+      <c r="R177">
+        <v>1.7</v>
+      </c>
+      <c r="S177">
+        <v>2.1</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="J177" t="s">
-        <v>44</v>
-      </c>
-      <c r="K177">
-        <v>2.45</v>
-      </c>
-      <c r="L177">
-        <v>3.3</v>
-      </c>
-      <c r="M177">
-        <v>2.625</v>
-      </c>
-      <c r="N177">
-        <v>2.625</v>
-      </c>
-      <c r="O177">
-        <v>3.4</v>
-      </c>
-      <c r="P177">
-        <v>2.55</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>1.975</v>
-      </c>
-      <c r="S177">
-        <v>1.825</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>0.55</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6867456</v>
+        <v>6867454</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O180">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z180">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
+        <v>0.475</v>
+      </c>
+      <c r="AB180">
+        <v>0.4375</v>
+      </c>
+      <c r="AC180">
         <v>-0.5</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
-      </c>
-      <c r="AC180">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7528661</v>
+        <v>6867456</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L181">
+        <v>3.4</v>
+      </c>
+      <c r="M181">
+        <v>2.1</v>
+      </c>
+      <c r="N181">
+        <v>3.1</v>
+      </c>
+      <c r="O181">
         <v>3.5</v>
       </c>
-      <c r="M181">
-        <v>2.875</v>
-      </c>
-      <c r="N181">
+      <c r="P181">
         <v>2.2</v>
       </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
-      <c r="P181">
-        <v>3</v>
-      </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
         <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y181">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA181">
+        <v>-0.5</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB181">
-        <v>0</v>
-      </c>
-      <c r="AC181">
-        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6867454</v>
+        <v>7528661</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,10 +16639,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16654,41 +16654,41 @@
         <v>44</v>
       </c>
       <c r="K182">
+        <v>2.15</v>
+      </c>
+      <c r="L182">
+        <v>3.5</v>
+      </c>
+      <c r="M182">
+        <v>2.875</v>
+      </c>
+      <c r="N182">
+        <v>2.2</v>
+      </c>
+      <c r="O182">
         <v>3.6</v>
       </c>
-      <c r="L182">
-        <v>3.6</v>
-      </c>
-      <c r="M182">
+      <c r="P182">
+        <v>3</v>
+      </c>
+      <c r="Q182">
+        <v>-0.25</v>
+      </c>
+      <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
         <v>1.85</v>
       </c>
-      <c r="N182">
-        <v>3.75</v>
-      </c>
-      <c r="O182">
-        <v>3.8</v>
-      </c>
-      <c r="P182">
-        <v>1.85</v>
-      </c>
-      <c r="Q182">
-        <v>0.75</v>
-      </c>
-      <c r="R182">
+      <c r="T182">
+        <v>3</v>
+      </c>
+      <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
         <v>1.75</v>
       </c>
-      <c r="S182">
-        <v>1.95</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.875</v>
-      </c>
-      <c r="V182">
-        <v>1.925</v>
-      </c>
       <c r="W182">
         <v>-1</v>
       </c>
@@ -16696,19 +16696,19 @@
         <v>-1</v>
       </c>
       <c r="Y182">
+        <v>2</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z182">
-        <v>-0.5</v>
-      </c>
-      <c r="AA182">
-        <v>0.475</v>
-      </c>
       <c r="AB182">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16817,7 +16817,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>33</v>
@@ -17087,7 +17087,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
         <v>39</v>
@@ -17799,7 +17799,7 @@
         <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17885,7 +17885,7 @@
         <v>45277.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
         <v>34</v>
@@ -17977,7 +17977,7 @@
         <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6867479</v>
+        <v>6867480</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,49 +18594,49 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K204">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="L204">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M204">
-        <v>2.25</v>
+        <v>13</v>
       </c>
       <c r="N204">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="O204">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P204">
-        <v>1.833</v>
+        <v>17</v>
       </c>
       <c r="Q204">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18659,7 +18659,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6867482</v>
+        <v>6867478</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18668,49 +18668,49 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.5625</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K205">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L205">
         <v>3.4</v>
       </c>
       <c r="M205">
+        <v>3.6</v>
+      </c>
+      <c r="N205">
+        <v>1.85</v>
+      </c>
+      <c r="O205">
+        <v>3.4</v>
+      </c>
+      <c r="P205">
+        <v>4.5</v>
+      </c>
+      <c r="Q205">
+        <v>-0.5</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
         <v>2.25</v>
       </c>
-      <c r="N205">
-        <v>2.625</v>
-      </c>
-      <c r="O205">
-        <v>3.3</v>
-      </c>
-      <c r="P205">
-        <v>2.7</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-      <c r="R205">
-        <v>1.85</v>
-      </c>
-      <c r="S205">
-        <v>1.95</v>
-      </c>
-      <c r="T205">
-        <v>2.5</v>
-      </c>
       <c r="U205">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18725,228 +18725,6 @@
         <v>0</v>
       </c>
       <c r="AA205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>6867481</v>
-      </c>
-      <c r="C206" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" t="s">
-        <v>28</v>
-      </c>
-      <c r="E206" s="2">
-        <v>45339.45833333334</v>
-      </c>
-      <c r="F206" t="s">
-        <v>37</v>
-      </c>
-      <c r="G206" t="s">
-        <v>33</v>
-      </c>
-      <c r="K206">
-        <v>2.375</v>
-      </c>
-      <c r="L206">
-        <v>3.2</v>
-      </c>
-      <c r="M206">
-        <v>3</v>
-      </c>
-      <c r="N206">
-        <v>2.05</v>
-      </c>
-      <c r="O206">
-        <v>3.4</v>
-      </c>
-      <c r="P206">
-        <v>3.75</v>
-      </c>
-      <c r="Q206">
-        <v>-0.5</v>
-      </c>
-      <c r="R206">
-        <v>2.025</v>
-      </c>
-      <c r="S206">
-        <v>1.775</v>
-      </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
-      <c r="U206">
-        <v>2</v>
-      </c>
-      <c r="V206">
-        <v>1.8</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
-      <c r="AA206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>6867480</v>
-      </c>
-      <c r="C207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D207" t="s">
-        <v>28</v>
-      </c>
-      <c r="E207" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F207" t="s">
-        <v>38</v>
-      </c>
-      <c r="G207" t="s">
-        <v>31</v>
-      </c>
-      <c r="K207">
-        <v>1.142</v>
-      </c>
-      <c r="L207">
-        <v>8.5</v>
-      </c>
-      <c r="M207">
-        <v>13</v>
-      </c>
-      <c r="N207">
-        <v>1.142</v>
-      </c>
-      <c r="O207">
-        <v>8.5</v>
-      </c>
-      <c r="P207">
-        <v>17</v>
-      </c>
-      <c r="Q207">
-        <v>-2.25</v>
-      </c>
-      <c r="R207">
-        <v>1.875</v>
-      </c>
-      <c r="S207">
-        <v>1.925</v>
-      </c>
-      <c r="T207">
-        <v>3.5</v>
-      </c>
-      <c r="U207">
-        <v>1.875</v>
-      </c>
-      <c r="V207">
-        <v>1.925</v>
-      </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
-      <c r="AA207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>6867478</v>
-      </c>
-      <c r="C208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E208" s="2">
-        <v>45340.5625</v>
-      </c>
-      <c r="F208" t="s">
-        <v>35</v>
-      </c>
-      <c r="G208" t="s">
-        <v>34</v>
-      </c>
-      <c r="K208">
-        <v>2.05</v>
-      </c>
-      <c r="L208">
-        <v>3.4</v>
-      </c>
-      <c r="M208">
-        <v>3.6</v>
-      </c>
-      <c r="N208">
-        <v>1.85</v>
-      </c>
-      <c r="O208">
-        <v>3.4</v>
-      </c>
-      <c r="P208">
-        <v>4.5</v>
-      </c>
-      <c r="Q208">
-        <v>-0.5</v>
-      </c>
-      <c r="R208">
-        <v>1.825</v>
-      </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
-        <v>1.9</v>
-      </c>
-      <c r="V208">
-        <v>1.9</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -106,10 +106,10 @@
     <t>Dukla Banska Bystrica</t>
   </si>
   <si>
-    <t>FC Vion Zlate Moravce</t>
+    <t>MSK Zilina</t>
   </si>
   <si>
-    <t>MSK Zilina</t>
+    <t>FC Vion Zlate Moravce</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
@@ -124,10 +124,10 @@
     <t>FC Spartak Trnava</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>AS Trencin</t>
   </si>
   <si>
-    <t>AS Trencin</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
     <t>Slovan Bratislava</t>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5175252</v>
+        <v>5175253</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,73 +711,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5175253</v>
+        <v>5175252</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>2.8</v>
+      </c>
+      <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>2.2</v>
+      </c>
+      <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
+        <v>2.55</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4">
-        <v>1.666</v>
-      </c>
-      <c r="L4">
-        <v>3.6</v>
-      </c>
-      <c r="M4">
-        <v>4.2</v>
-      </c>
-      <c r="N4">
-        <v>1.833</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>4.2</v>
-      </c>
-      <c r="Q4">
-        <v>-0.5</v>
-      </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5175104</v>
+        <v>5175257</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1245,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5175257</v>
+        <v>5175104</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,73 +1334,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="M10">
+        <v>1.8</v>
+      </c>
+      <c r="N10">
         <v>3.75</v>
       </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>1.909</v>
-      </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5175263</v>
+        <v>5175262</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,58 +1776,58 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>42</v>
       </c>
       <c r="K15">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O15">
         <v>4.5</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
         <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1836,13 +1836,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5175259</v>
+        <v>5175263</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,58 +1865,58 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P16">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1925,16 +1925,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5175262</v>
+        <v>5175259</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,58 +2043,58 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
       </c>
-      <c r="S18">
-        <v>1.95</v>
-      </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2103,16 +2103,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>44983.5625</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5175267</v>
+        <v>5175264</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,31 +2310,31 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.3</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O21">
         <v>3.3</v>
@@ -2343,43 +2343,43 @@
         <v>2.9</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1.75</v>
+      </c>
+      <c r="S21">
         <v>2.05</v>
       </c>
-      <c r="S21">
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
         <v>1.75</v>
       </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>1.8</v>
-      </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y21">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5175265</v>
+        <v>5175106</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>2.05</v>
+      </c>
+      <c r="L22">
+        <v>3.3</v>
+      </c>
+      <c r="M22">
+        <v>3.3</v>
+      </c>
+      <c r="N22">
+        <v>2.15</v>
+      </c>
+      <c r="O22">
+        <v>3.4</v>
+      </c>
+      <c r="P22">
+        <v>3.3</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.875</v>
+      </c>
+      <c r="S22">
+        <v>1.925</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>2.4</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.4625</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>1.833</v>
-      </c>
-      <c r="L22">
-        <v>3.5</v>
-      </c>
-      <c r="M22">
-        <v>3.8</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>3.75</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.925</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.875</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.925</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.925</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5175266</v>
+        <v>5175267</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,10 +2488,10 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2503,40 +2503,40 @@
         <v>44</v>
       </c>
       <c r="K23">
+        <v>2.15</v>
+      </c>
+      <c r="L23">
         <v>3.3</v>
       </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
       <c r="M23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2545,16 +2545,16 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.909</v>
+        <v>1.9</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5175264</v>
+        <v>5175265</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5175106</v>
+        <v>5175266</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,40 +2666,40 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
         <v>1.875</v>
@@ -2708,34 +2708,34 @@
         <v>1.925</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>44995.5625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6358393</v>
+        <v>6358394</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,55 +2844,55 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M27">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2901,16 +2901,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6358394</v>
+        <v>6358372</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,40 +2933,40 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -2975,31 +2975,31 @@
         <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6358372</v>
+        <v>6358393</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,73 +3022,73 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N29">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3114,7 +3114,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6358396</v>
+        <v>6358397</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,10 +3378,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3393,43 +3393,43 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N33">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3438,7 +3438,7 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3447,7 +3447,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6358395</v>
+        <v>6358396</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3467,46 +3467,46 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N34">
         <v>1.75</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
         <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
         <v>2.25</v>
@@ -3518,25 +3518,25 @@
         <v>1.95</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X34">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6358397</v>
+        <v>6358395</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O35">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
         <v>1.875</v>
-      </c>
-      <c r="S35">
-        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
         <v>0.875</v>
       </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
       <c r="AB35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>45016.52083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>39</v>
@@ -3912,7 +3912,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6358376</v>
+        <v>6358398</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K40">
+        <v>2.9</v>
+      </c>
+      <c r="L40">
+        <v>3.3</v>
+      </c>
+      <c r="M40">
         <v>2.375</v>
       </c>
-      <c r="L40">
-        <v>3.4</v>
-      </c>
-      <c r="M40">
-        <v>2.9</v>
-      </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.35</v>
       </c>
       <c r="Z40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6358398</v>
+        <v>6358376</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K41">
+        <v>2.375</v>
+      </c>
+      <c r="L41">
+        <v>3.4</v>
+      </c>
+      <c r="M41">
         <v>2.9</v>
       </c>
-      <c r="L41">
+      <c r="N41">
+        <v>2.375</v>
+      </c>
+      <c r="O41">
         <v>3.3</v>
       </c>
-      <c r="M41">
-        <v>2.375</v>
-      </c>
-      <c r="N41">
-        <v>3.2</v>
-      </c>
-      <c r="O41">
-        <v>3.2</v>
-      </c>
       <c r="P41">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.35</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4446,7 +4446,7 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6358402</v>
+        <v>6358401</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,40 +4624,40 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N47">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>1.825</v>
@@ -4666,34 +4666,34 @@
         <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6358401</v>
+        <v>6358402</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,40 +4713,40 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>43</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N48">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
         <v>1.825</v>
@@ -4755,34 +4755,34 @@
         <v>1.975</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC48">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>45031.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>35</v>
@@ -5069,7 +5069,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>39</v>
@@ -5247,10 +5247,10 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5428,7 +5428,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -5517,7 +5517,7 @@
         <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>45039.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5959,7 +5959,7 @@
         <v>45044.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6140,7 +6140,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6229,7 +6229,7 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6315,7 +6315,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -6493,7 +6493,7 @@
         <v>45051.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>40</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6358386</v>
+        <v>6358414</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,40 +6582,40 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="K69">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q69">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.975</v>
@@ -6624,14 +6624,14 @@
         <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
+        <v>1.975</v>
+      </c>
+      <c r="V69">
         <v>1.825</v>
       </c>
-      <c r="V69">
-        <v>1.975</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
@@ -6651,7 +6651,7 @@
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6358414</v>
+        <v>6358413</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,76 +6760,76 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L71">
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N71">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y71">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA71">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6358413</v>
+        <v>6358386</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,76 +6849,76 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M72">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z72">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7027,10 +7027,10 @@
         <v>45058.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6622389</v>
+        <v>6358417</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N75">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6358297</v>
+        <v>6358388</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,49 +7205,49 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
       </c>
       <c r="K76">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N76">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
         <v>1.95</v>
@@ -7262,19 +7262,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6358417</v>
+        <v>6358416</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,13 +7294,13 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7309,34 +7309,34 @@
         <v>42</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L77">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
         <v>1.925</v>
@@ -7345,7 +7345,7 @@
         <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7354,16 +7354,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6358416</v>
+        <v>6358297</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,76 +7383,76 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K78">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="N78">
-        <v>1.55</v>
+        <v>5.5</v>
       </c>
       <c r="O78">
         <v>4</v>
       </c>
       <c r="P78">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R78">
+        <v>1.775</v>
+      </c>
+      <c r="S78">
+        <v>2.025</v>
+      </c>
+      <c r="T78">
+        <v>2.75</v>
+      </c>
+      <c r="U78">
         <v>1.95</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="T78">
-        <v>2.5</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
       <c r="W78">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6358388</v>
+        <v>6622389</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,16 +7472,16 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
@@ -7490,37 +7490,37 @@
         <v>3.6</v>
       </c>
       <c r="L79">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
         <v>1.909</v>
       </c>
       <c r="N79">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7529,19 +7529,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6358298</v>
+        <v>6358391</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,40 +7561,40 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K80">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M80">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="N80">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O80">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P80">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R80">
         <v>1.85</v>
@@ -7603,34 +7603,34 @@
         <v>1.95</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6358390</v>
+        <v>6358421</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,76 +7650,76 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81">
+        <v>1.95</v>
+      </c>
+      <c r="L81">
+        <v>3.4</v>
+      </c>
+      <c r="M81">
+        <v>3.5</v>
+      </c>
+      <c r="N81">
+        <v>2.625</v>
+      </c>
+      <c r="O81">
+        <v>3.6</v>
+      </c>
+      <c r="P81">
+        <v>2.55</v>
+      </c>
+      <c r="Q81">
         <v>0</v>
       </c>
-      <c r="J81" t="s">
-        <v>42</v>
-      </c>
-      <c r="K81">
-        <v>1.4</v>
-      </c>
-      <c r="L81">
-        <v>4.5</v>
-      </c>
-      <c r="M81">
-        <v>6</v>
-      </c>
-      <c r="N81">
-        <v>1.333</v>
-      </c>
-      <c r="O81">
-        <v>5.25</v>
-      </c>
-      <c r="P81">
-        <v>10</v>
-      </c>
-      <c r="Q81">
-        <v>-1.5</v>
-      </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6358391</v>
+        <v>6358419</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,58 +7739,58 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
       </c>
       <c r="K82">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
+        <v>1.85</v>
+      </c>
+      <c r="N82">
         <v>5.25</v>
       </c>
-      <c r="N82">
-        <v>1.444</v>
-      </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
         <v>1.85</v>
       </c>
-      <c r="S82">
-        <v>1.95</v>
-      </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
         <v>1.925</v>
       </c>
-      <c r="V82">
-        <v>1.875</v>
-      </c>
       <c r="W82">
-        <v>0.444</v>
+        <v>4.25</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7799,13 +7799,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6358419</v>
+        <v>6358390</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,58 +7828,58 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>42</v>
       </c>
       <c r="K83">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M83">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="N83">
+        <v>1.333</v>
+      </c>
+      <c r="O83">
         <v>5.25</v>
       </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
       <c r="P83">
-        <v>1.7</v>
+        <v>10</v>
       </c>
       <c r="Q83">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>4.25</v>
+        <v>0.333</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7888,16 +7888,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6358421</v>
+        <v>6358298</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,55 +7917,55 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>1</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
       </c>
       <c r="J84" t="s">
         <v>44</v>
       </c>
       <c r="K84">
+        <v>1.3</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>8</v>
+      </c>
+      <c r="N84">
+        <v>1.333</v>
+      </c>
+      <c r="O84">
+        <v>5.25</v>
+      </c>
+      <c r="P84">
+        <v>8.5</v>
+      </c>
+      <c r="Q84">
+        <v>-1.5</v>
+      </c>
+      <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
         <v>1.95</v>
       </c>
-      <c r="L84">
-        <v>3.4</v>
-      </c>
-      <c r="M84">
-        <v>3.5</v>
-      </c>
-      <c r="N84">
-        <v>2.625</v>
-      </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
-      <c r="P84">
-        <v>2.55</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>1.85</v>
-      </c>
       <c r="T84">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7974,19 +7974,19 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,10 +8006,10 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6678970</v>
+        <v>6677741</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,13 +8095,13 @@
         <v>45069.52083333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>3</v>
@@ -8110,40 +8110,40 @@
         <v>44</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.5</v>
+        <v>1.875</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6677741</v>
+        <v>6678970</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,13 +8184,13 @@
         <v>45069.52083333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>3</v>
@@ -8199,58 +8199,58 @@
         <v>44</v>
       </c>
       <c r="K87">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
+        <v>1.95</v>
+      </c>
+      <c r="O87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>3.5</v>
+      </c>
+      <c r="Q87">
+        <v>-0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
+        <v>1.85</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>1.75</v>
+      </c>
+      <c r="V87">
+        <v>1.95</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>2.5</v>
       </c>
-      <c r="O87">
-        <v>3.3</v>
-      </c>
-      <c r="P87">
-        <v>2.875</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.925</v>
-      </c>
-      <c r="V87">
-        <v>1.875</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>1.875</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8273,7 +8273,7 @@
         <v>45072.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,49 +8451,49 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
         <v>1.85</v>
@@ -8502,25 +8502,25 @@
         <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,49 +8540,49 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K91">
+        <v>1.909</v>
+      </c>
+      <c r="L91">
         <v>3.4</v>
       </c>
-      <c r="L91">
-        <v>3.3</v>
-      </c>
       <c r="M91">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N91">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
         <v>1.85</v>
@@ -8591,25 +8591,25 @@
         <v>1.95</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X91">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
+        <v>1.85</v>
+      </c>
+      <c r="V93">
         <v>1.95</v>
       </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
       <c r="W93">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45137.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K94">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N94">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T94">
         <v>2.75</v>
       </c>
       <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="V94">
-        <v>1.95</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6831641</v>
+        <v>6832796</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,40 +9074,40 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O97">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9116,34 +9116,34 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X97">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832796</v>
+        <v>6831641</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,40 +9163,40 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N98">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9205,34 +9205,34 @@
         <v>1.85</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9344,7 +9344,7 @@
         <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9430,7 +9430,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6831642</v>
+        <v>6831731</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,49 +9519,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>1.65</v>
+      </c>
+      <c r="O102">
+        <v>4</v>
+      </c>
+      <c r="P102">
+        <v>5.25</v>
+      </c>
+      <c r="Q102">
+        <v>-0.75</v>
+      </c>
+      <c r="R102">
         <v>1.8</v>
       </c>
-      <c r="N102">
-        <v>4.2</v>
-      </c>
-      <c r="O102">
-        <v>3.5</v>
-      </c>
-      <c r="P102">
-        <v>1.909</v>
-      </c>
-      <c r="Q102">
-        <v>0.5</v>
-      </c>
-      <c r="R102">
-        <v>1.925</v>
-      </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
         <v>1.95</v>
@@ -9570,25 +9570,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA102">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832800</v>
+        <v>6832801</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,49 +9608,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
+        <v>3.2</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>2.15</v>
+      </c>
+      <c r="N103">
+        <v>3.75</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2</v>
+      </c>
+      <c r="Q103">
+        <v>0.5</v>
+      </c>
+      <c r="R103">
+        <v>1.85</v>
+      </c>
+      <c r="S103">
         <v>1.95</v>
       </c>
-      <c r="L103">
-        <v>3.5</v>
-      </c>
-      <c r="M103">
-        <v>3.5</v>
-      </c>
-      <c r="N103">
-        <v>2.3</v>
-      </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>2.875</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.8</v>
-      </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
         <v>1.975</v>
@@ -9659,25 +9659,25 @@
         <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6831731</v>
+        <v>6832800</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,58 +9697,58 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>42</v>
       </c>
       <c r="K104">
+        <v>1.95</v>
+      </c>
+      <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>3.5</v>
+      </c>
+      <c r="N104">
+        <v>2.3</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
+        <v>2.875</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.8</v>
       </c>
-      <c r="L104">
-        <v>3.6</v>
-      </c>
-      <c r="M104">
-        <v>4</v>
-      </c>
-      <c r="N104">
-        <v>1.65</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>5.25</v>
-      </c>
-      <c r="Q104">
-        <v>-0.75</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9757,16 +9757,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6832801</v>
+        <v>6831642</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,76 +9786,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N105">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O105">
         <v>3.5</v>
       </c>
       <c r="P105">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
         <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
         <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10231,7 +10231,7 @@
         <v>45158.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10320,7 +10320,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6831733</v>
+        <v>6832810</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L112">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>0.4375</v>
+      </c>
+      <c r="AA112">
         <v>-0.5</v>
       </c>
-      <c r="AA112">
-        <v>0.5</v>
-      </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6832809</v>
+        <v>6831733</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N113">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
+        <v>1.825</v>
+      </c>
+      <c r="V113">
         <v>1.975</v>
       </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>1.975</v>
-      </c>
-      <c r="V113">
-        <v>1.825</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y113">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
+        <v>0.5</v>
+      </c>
+      <c r="AB113">
         <v>0.825</v>
       </c>
-      <c r="AB113">
-        <v>0</v>
-      </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832810</v>
+        <v>6832809</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>44</v>
+      </c>
+      <c r="K114">
+        <v>1.4</v>
+      </c>
+      <c r="L114">
+        <v>4.5</v>
+      </c>
+      <c r="M114">
+        <v>6.5</v>
+      </c>
+      <c r="N114">
+        <v>1.6</v>
+      </c>
+      <c r="O114">
+        <v>4.333</v>
+      </c>
+      <c r="P114">
+        <v>5.25</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.975</v>
+      </c>
+      <c r="S114">
+        <v>1.825</v>
+      </c>
+      <c r="T114">
         <v>3</v>
       </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
-      <c r="J114" t="s">
-        <v>42</v>
-      </c>
-      <c r="K114">
-        <v>1.6</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>5</v>
-      </c>
-      <c r="N114">
-        <v>1.7</v>
-      </c>
-      <c r="O114">
-        <v>4</v>
-      </c>
-      <c r="P114">
-        <v>4.75</v>
-      </c>
-      <c r="Q114">
-        <v>-0.75</v>
-      </c>
-      <c r="R114">
-        <v>1.875</v>
-      </c>
-      <c r="S114">
-        <v>1.925</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z114">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10943,7 +10943,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11035,7 +11035,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11124,7 +11124,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>35</v>
@@ -11477,7 +11477,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -11744,10 +11744,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11836,7 +11836,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11922,7 +11922,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867407</v>
+        <v>6867408</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N130">
+        <v>1.7</v>
+      </c>
+      <c r="O130">
         <v>4</v>
       </c>
-      <c r="O130">
-        <v>3.6</v>
-      </c>
       <c r="P130">
+        <v>5</v>
+      </c>
+      <c r="Q130">
+        <v>-0.75</v>
+      </c>
+      <c r="R130">
         <v>1.85</v>
       </c>
-      <c r="Q130">
-        <v>0.5</v>
-      </c>
-      <c r="R130">
+      <c r="S130">
         <v>1.95</v>
       </c>
-      <c r="S130">
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
         <v>1.85</v>
       </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.975</v>
-      </c>
-      <c r="V130">
-        <v>1.825</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.95</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
-      <c r="AC130">
-        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867408</v>
+        <v>6867407</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
         <v>1.85</v>
       </c>
-      <c r="S131">
-        <v>1.95</v>
-      </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12545,7 +12545,7 @@
         <v>45198.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -12637,7 +12637,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12723,7 +12723,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,40 +12901,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>44</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R140">
         <v>2</v>
@@ -12943,13 +12943,13 @@
         <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12958,7 +12958,7 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z140">
         <v>-1</v>
@@ -12967,10 +12967,10 @@
         <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,40 +12990,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>44</v>
       </c>
       <c r="K141">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N141">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
         <v>2</v>
@@ -13032,13 +13032,13 @@
         <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13047,7 +13047,7 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z141">
         <v>-1</v>
@@ -13056,10 +13056,10 @@
         <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6867422</v>
+        <v>6867419</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,67 +13168,67 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA143">
         <v>-1</v>
@@ -13237,7 +13237,7 @@
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6867419</v>
+        <v>6867422</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,67 +13257,67 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
         <v>3.3</v>
       </c>
-      <c r="L144">
+      <c r="M144">
         <v>3.4</v>
       </c>
-      <c r="M144">
-        <v>2</v>
-      </c>
       <c r="N144">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>1.75</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
         <v>1.875</v>
       </c>
-      <c r="S144">
+      <c r="V144">
         <v>1.925</v>
       </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.825</v>
-      </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA144">
         <v>-1</v>
@@ -13326,7 +13326,7 @@
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13613,10 +13613,10 @@
         <v>45219.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6867424</v>
+        <v>6867425</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,73 +13702,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>42</v>
+      </c>
+      <c r="K149">
+        <v>1.85</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
+        <v>3.8</v>
+      </c>
+      <c r="N149">
+        <v>1.6</v>
+      </c>
+      <c r="O149">
         <v>4</v>
       </c>
-      <c r="J149" t="s">
-        <v>44</v>
-      </c>
-      <c r="K149">
-        <v>2.5</v>
-      </c>
-      <c r="L149">
-        <v>3.4</v>
-      </c>
-      <c r="M149">
-        <v>2.6</v>
-      </c>
-      <c r="N149">
-        <v>2.5</v>
-      </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U149">
+        <v>1.975</v>
+      </c>
+      <c r="V149">
         <v>1.825</v>
       </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6867425</v>
+        <v>6867427</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N150">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P150">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
+        <v>1.825</v>
+      </c>
+      <c r="V150">
         <v>1.975</v>
       </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
       <c r="W150">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13868,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6867427</v>
+        <v>6867429</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13880,76 +13880,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H151">
+        <v>5</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>42</v>
+      </c>
+      <c r="K151">
+        <v>2.5</v>
+      </c>
+      <c r="L151">
+        <v>3.25</v>
+      </c>
+      <c r="M151">
+        <v>2.7</v>
+      </c>
+      <c r="N151">
+        <v>2.7</v>
+      </c>
+      <c r="O151">
+        <v>3.4</v>
+      </c>
+      <c r="P151">
+        <v>2.55</v>
+      </c>
+      <c r="Q151">
         <v>0</v>
       </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151" t="s">
-        <v>43</v>
-      </c>
-      <c r="K151">
-        <v>1.55</v>
-      </c>
-      <c r="L151">
-        <v>4</v>
-      </c>
-      <c r="M151">
-        <v>5.5</v>
-      </c>
-      <c r="N151">
-        <v>1.4</v>
-      </c>
-      <c r="O151">
-        <v>4.333</v>
-      </c>
-      <c r="P151">
-        <v>8.5</v>
-      </c>
-      <c r="Q151">
-        <v>-1.25</v>
-      </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X151">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6867429</v>
+        <v>6867424</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,73 +13969,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H152">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>2.5</v>
       </c>
       <c r="L152">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N152">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB152">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14239,7 +14239,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14328,7 +14328,7 @@
         <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14414,7 +14414,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
         <v>39</v>
@@ -14503,7 +14503,7 @@
         <v>45228.5625</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>35</v>
@@ -14684,7 +14684,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14847,7 +14847,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6867441</v>
+        <v>6867436</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14859,76 +14859,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L162">
+        <v>3.3</v>
+      </c>
+      <c r="M162">
+        <v>1.909</v>
+      </c>
+      <c r="N162">
+        <v>4.75</v>
+      </c>
+      <c r="O162">
         <v>3.75</v>
       </c>
-      <c r="M162">
-        <v>1.727</v>
-      </c>
-      <c r="N162">
-        <v>4.5</v>
-      </c>
-      <c r="O162">
-        <v>3.8</v>
-      </c>
       <c r="P162">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q162">
         <v>0.75</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y162">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14936,7 +14936,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6867436</v>
+        <v>6867439</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,46 +14948,46 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K163">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="L163">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M163">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N163">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P163">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="Q163">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
         <v>2.75</v>
@@ -14999,19 +14999,19 @@
         <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X163">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6867439</v>
+        <v>6867441</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,76 +15126,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K165">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L165">
+        <v>3.75</v>
+      </c>
+      <c r="M165">
+        <v>1.727</v>
+      </c>
+      <c r="N165">
         <v>4.5</v>
       </c>
-      <c r="M165">
-        <v>8</v>
-      </c>
-      <c r="N165">
-        <v>1.333</v>
-      </c>
       <c r="O165">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
         <v>1.95</v>
       </c>
-      <c r="S165">
-        <v>1.85</v>
-      </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15215,7 +15215,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>40</v>
@@ -15304,10 +15304,10 @@
         <v>45240.5625</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6867447</v>
+        <v>6867445</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,76 +15393,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N168">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q168">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V168">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6867445</v>
+        <v>6867443</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,76 +15482,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K169">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="L169">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="N169">
+        <v>1.615</v>
+      </c>
+      <c r="O169">
         <v>4.2</v>
       </c>
-      <c r="O169">
-        <v>3.75</v>
-      </c>
       <c r="P169">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q169">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>0.825</v>
       </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6867443</v>
+        <v>6867447</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K170">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M170">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N170">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="O170">
         <v>4.2</v>
       </c>
       <c r="P170">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q170">
         <v>-1</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867452</v>
+        <v>6867448</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,76 +15927,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H174">
+        <v>3</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
+      <c r="J174" t="s">
+        <v>42</v>
+      </c>
+      <c r="K174">
+        <v>1.285</v>
+      </c>
+      <c r="L174">
+        <v>5</v>
+      </c>
+      <c r="M174">
+        <v>8.5</v>
+      </c>
+      <c r="N174">
+        <v>1.333</v>
+      </c>
+      <c r="O174">
+        <v>5.5</v>
+      </c>
+      <c r="P174">
+        <v>7.5</v>
+      </c>
+      <c r="Q174">
+        <v>-1.5</v>
+      </c>
+      <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>1.9</v>
+      </c>
+      <c r="T174">
         <v>3</v>
       </c>
-      <c r="J174" t="s">
-        <v>44</v>
-      </c>
-      <c r="K174">
-        <v>2.45</v>
-      </c>
-      <c r="L174">
-        <v>3.3</v>
-      </c>
-      <c r="M174">
-        <v>2.625</v>
-      </c>
-      <c r="N174">
-        <v>2.625</v>
-      </c>
-      <c r="O174">
-        <v>3.4</v>
-      </c>
-      <c r="P174">
-        <v>2.55</v>
-      </c>
-      <c r="Q174">
+      <c r="U174">
+        <v>1.875</v>
+      </c>
+      <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
+        <v>0.333</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
         <v>0</v>
       </c>
-      <c r="R174">
-        <v>1.975</v>
-      </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.95</v>
-      </c>
-      <c r="V174">
-        <v>1.85</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>1.55</v>
-      </c>
-      <c r="Z174">
-        <v>-1</v>
-      </c>
-      <c r="AA174">
-        <v>0.825</v>
-      </c>
-      <c r="AB174">
-        <v>0.95</v>
-      </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16004,7 +16004,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6867451</v>
+        <v>6867452</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16016,49 +16016,49 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J175" t="s">
         <v>44</v>
       </c>
       <c r="K175">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L175">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N175">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="O175">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P175">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q175">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
         <v>1.95</v>
@@ -16073,19 +16073,19 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
+        <v>0.825</v>
+      </c>
+      <c r="AB175">
         <v>0.95</v>
       </c>
-      <c r="AB175">
-        <v>-1</v>
-      </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6867448</v>
+        <v>6867451</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,76 +16105,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K176">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="L176">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>8.5</v>
+        <v>1.444</v>
       </c>
       <c r="N176">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="O176">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P176">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
         <v>3</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16194,7 +16194,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>41</v>
@@ -16375,7 +16375,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6867456</v>
+        <v>7528661</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O180">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U180">
         <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7528661</v>
+        <v>6867454</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,10 +16550,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16565,40 +16565,40 @@
         <v>44</v>
       </c>
       <c r="K181">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R181">
+        <v>1.75</v>
+      </c>
+      <c r="S181">
         <v>1.95</v>
       </c>
-      <c r="S181">
-        <v>1.85</v>
-      </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16607,19 +16607,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6867454</v>
+        <v>6867456</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,76 +16639,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K182">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L182">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N182">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O182">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q182">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
         <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>0.45</v>
+      </c>
+      <c r="AA182">
+        <v>-0.5</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z182">
-        <v>-0.5</v>
-      </c>
-      <c r="AA182">
-        <v>0.475</v>
-      </c>
-      <c r="AB182">
-        <v>0.4375</v>
-      </c>
-      <c r="AC182">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16906,7 +16906,7 @@
         <v>45268.5625</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>35</v>
@@ -16983,7 +16983,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6867461</v>
+        <v>6867460</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16995,76 +16995,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>43</v>
+      </c>
+      <c r="K186">
+        <v>2.3</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>2.875</v>
+      </c>
+      <c r="N186">
+        <v>2.75</v>
+      </c>
+      <c r="O186">
+        <v>3.1</v>
+      </c>
+      <c r="P186">
+        <v>2.75</v>
+      </c>
+      <c r="Q186">
         <v>0</v>
       </c>
-      <c r="I186">
-        <v>6</v>
-      </c>
-      <c r="J186" t="s">
-        <v>44</v>
-      </c>
-      <c r="K186">
-        <v>3.25</v>
-      </c>
-      <c r="L186">
-        <v>3.5</v>
-      </c>
-      <c r="M186">
-        <v>2</v>
-      </c>
-      <c r="N186">
-        <v>3.5</v>
-      </c>
-      <c r="O186">
-        <v>3.75</v>
-      </c>
-      <c r="P186">
-        <v>2</v>
-      </c>
-      <c r="Q186">
-        <v>0.5</v>
-      </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U186">
+        <v>1.85</v>
+      </c>
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="V186">
-        <v>1.85</v>
-      </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17072,7 +17072,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6867460</v>
+        <v>6867464</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17084,10 +17084,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,61 +17099,61 @@
         <v>43</v>
       </c>
       <c r="K187">
+        <v>2.5</v>
+      </c>
+      <c r="L187">
+        <v>3.2</v>
+      </c>
+      <c r="M187">
+        <v>2.7</v>
+      </c>
+      <c r="N187">
+        <v>2.375</v>
+      </c>
+      <c r="O187">
+        <v>3.3</v>
+      </c>
+      <c r="P187">
+        <v>3.1</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.975</v>
+      </c>
+      <c r="S187">
+        <v>1.825</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>2.025</v>
+      </c>
+      <c r="V187">
+        <v>1.775</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
         <v>2.3</v>
       </c>
-      <c r="L187">
-        <v>3.3</v>
-      </c>
-      <c r="M187">
-        <v>2.875</v>
-      </c>
-      <c r="N187">
-        <v>2.75</v>
-      </c>
-      <c r="O187">
-        <v>3.1</v>
-      </c>
-      <c r="P187">
-        <v>2.75</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187">
-        <v>1.875</v>
-      </c>
-      <c r="S187">
-        <v>1.925</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.1</v>
-      </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA187">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6867464</v>
+        <v>6867461</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,76 +17173,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>6</v>
+      </c>
+      <c r="J188" t="s">
+        <v>44</v>
+      </c>
+      <c r="K188">
+        <v>3.25</v>
+      </c>
+      <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3.5</v>
+      </c>
+      <c r="O188">
+        <v>3.75</v>
+      </c>
+      <c r="P188">
+        <v>2</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.8</v>
+      </c>
+      <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>3</v>
+      </c>
+      <c r="U188">
+        <v>1.95</v>
+      </c>
+      <c r="V188">
+        <v>1.85</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1</v>
       </c>
-      <c r="I188">
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
         <v>1</v>
       </c>
-      <c r="J188" t="s">
-        <v>43</v>
-      </c>
-      <c r="K188">
-        <v>2.5</v>
-      </c>
-      <c r="L188">
-        <v>3.2</v>
-      </c>
-      <c r="M188">
-        <v>2.7</v>
-      </c>
-      <c r="N188">
-        <v>2.375</v>
-      </c>
-      <c r="O188">
-        <v>3.3</v>
-      </c>
-      <c r="P188">
-        <v>3.1</v>
-      </c>
-      <c r="Q188">
-        <v>-0.25</v>
-      </c>
-      <c r="R188">
-        <v>1.975</v>
-      </c>
-      <c r="S188">
-        <v>1.825</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.775</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.3</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>-0.5</v>
-      </c>
-      <c r="AA188">
-        <v>0.4125</v>
-      </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC188">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6867470</v>
+        <v>6867467</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,73 +17529,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K192">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M192">
+        <v>7</v>
+      </c>
+      <c r="N192">
+        <v>1.333</v>
+      </c>
+      <c r="O192">
+        <v>5</v>
+      </c>
+      <c r="P192">
+        <v>9</v>
+      </c>
+      <c r="Q192">
+        <v>-1.5</v>
+      </c>
+      <c r="R192">
+        <v>1.95</v>
+      </c>
+      <c r="S192">
+        <v>1.85</v>
+      </c>
+      <c r="T192">
         <v>2.75</v>
       </c>
-      <c r="N192">
-        <v>2.55</v>
-      </c>
-      <c r="O192">
-        <v>3.2</v>
-      </c>
-      <c r="P192">
-        <v>2.875</v>
-      </c>
-      <c r="Q192">
-        <v>0</v>
-      </c>
-      <c r="R192">
-        <v>1.775</v>
-      </c>
-      <c r="S192">
-        <v>2.025</v>
-      </c>
-      <c r="T192">
-        <v>2.25</v>
-      </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X192">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA192">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6867467</v>
+        <v>6867470</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,73 +17707,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K194">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L194">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M194">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N194">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="O194">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB194">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17799,7 +17799,7 @@
         <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45331.5625</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
         <v>38</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6867475</v>
+        <v>6867474</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,19 +18063,19 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>3.25</v>
@@ -18087,52 +18087,52 @@
         <v>2.1</v>
       </c>
       <c r="N198">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
+        <v>1.825</v>
+      </c>
+      <c r="V198">
         <v>1.975</v>
       </c>
-      <c r="V198">
-        <v>1.725</v>
-      </c>
       <c r="W198">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18229,7 +18229,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6867474</v>
+        <v>6867475</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18241,19 +18241,19 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
         <v>0</v>
       </c>
-      <c r="I200">
-        <v>2</v>
-      </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K200">
         <v>3.25</v>
@@ -18265,52 +18265,52 @@
         <v>2.1</v>
       </c>
       <c r="N200">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O200">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="Q200">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18419,7 +18419,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18511,7 +18511,7 @@
         <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6867479</v>
+        <v>6867481</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,76 +18597,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K204">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L204">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>2.1</v>
+      </c>
+      <c r="O204">
+        <v>3.3</v>
+      </c>
+      <c r="P204">
+        <v>3.75</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.775</v>
+      </c>
+      <c r="S204">
+        <v>2.025</v>
+      </c>
+      <c r="T204">
         <v>2.25</v>
       </c>
-      <c r="N204">
-        <v>4.2</v>
-      </c>
-      <c r="O204">
-        <v>3.8</v>
-      </c>
-      <c r="P204">
+      <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
         <v>1.8</v>
       </c>
-      <c r="Q204">
-        <v>0.75</v>
-      </c>
-      <c r="R204">
-        <v>1.825</v>
-      </c>
-      <c r="S204">
-        <v>1.975</v>
-      </c>
-      <c r="T204">
-        <v>3</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>1.85</v>
-      </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6867481</v>
+        <v>6867482</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,40 +18686,40 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K205">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L205">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N205">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O205">
         <v>3.3</v>
       </c>
       <c r="P205">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
         <v>1.775</v>
@@ -18731,31 +18731,31 @@
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y205">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC205">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6867482</v>
+        <v>6867479</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,16 +18775,16 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>43</v>
@@ -18799,52 +18799,52 @@
         <v>2.25</v>
       </c>
       <c r="N206">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P206">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R206">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -19057,10 +19057,10 @@
         <v>2.9</v>
       </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
         <v>3.1</v>
@@ -19069,19 +19069,19 @@
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S209">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19152,10 +19152,10 @@
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19190,10 +19190,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K211">
         <v>1.45</v>
@@ -19264,7 +19264,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
         <v>33</v>
@@ -19300,10 +19300,10 @@
         <v>2.25</v>
       </c>
       <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
         <v>1.85</v>
-      </c>
-      <c r="V212">
-        <v>1.95</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19338,7 +19338,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
         <v>38</v>
@@ -19374,10 +19374,10 @@
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19439,10 +19439,10 @@
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.75</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -109,13 +109,13 @@
     <t>MSK Zilina</t>
   </si>
   <si>
-    <t>FC Vion Zlate Moravce</t>
-  </si>
-  <si>
     <t>FK Tatran Liptovsky Mikulas</t>
   </si>
   <si>
     <t>MFK Ruzomberok</t>
+  </si>
+  <si>
+    <t>FC Vion Zlate Moravce</t>
   </si>
   <si>
     <t>Dunajska Streda</t>
@@ -145,10 +145,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5175252</v>
+        <v>5175249</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5175249</v>
+        <v>5175103</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,73 +889,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>1.666</v>
-      </c>
       <c r="N5">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.475</v>
+      </c>
+      <c r="AA5">
         <v>-0.5</v>
       </c>
-      <c r="AA5">
-        <v>0.3875</v>
-      </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5175103</v>
+        <v>5175252</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,73 +978,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
+        <v>2.2</v>
+      </c>
+      <c r="N6">
+        <v>2.7</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>3.75</v>
-      </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>1.666</v>
@@ -1245,7 +1245,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>4.5</v>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>1.285</v>
@@ -1512,7 +1512,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>1.75</v>
@@ -1954,7 +1954,7 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>6.5</v>
@@ -2046,7 +2046,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2135,7 +2135,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5175268</v>
+        <v>5175266</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,55 +2221,55 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
         <v>1.75</v>
       </c>
-      <c r="S20">
-        <v>2.05</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>1.825</v>
-      </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2278,19 +2278,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5175264</v>
+        <v>5175268</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,13 +2310,13 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2325,25 +2325,25 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L21">
         <v>3.3</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3.25</v>
+      </c>
+      <c r="P21">
         <v>2.45</v>
       </c>
-      <c r="O21">
-        <v>3.3</v>
-      </c>
-      <c r="P21">
-        <v>2.9</v>
-      </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
         <v>1.75</v>
@@ -2352,34 +2352,34 @@
         <v>2.05</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>2.05</v>
@@ -2500,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>2.15</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5175265</v>
+        <v>5175264</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5175266</v>
+        <v>5175265</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,73 +2666,73 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="O25">
         <v>3.6</v>
       </c>
       <c r="P25">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
         <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>0.925</v>
-      </c>
-      <c r="AB25">
-        <v>0.75</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2758,7 +2758,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.15</v>
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6358394</v>
+        <v>6358372</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,40 +2844,40 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2886,31 +2886,31 @@
         <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6358372</v>
+        <v>6358393</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,73 +2933,73 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N28">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O28">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6358393</v>
+        <v>6358394</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,55 +3022,55 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3079,16 +3079,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>1.3</v>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>3.75</v>
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6358397</v>
+        <v>6358395</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,76 +3378,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
+        <v>1.925</v>
+      </c>
+      <c r="S33">
         <v>1.875</v>
-      </c>
-      <c r="S33">
-        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.875</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3467,10 +3467,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
         <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6358395</v>
+        <v>6358397</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L35">
+        <v>3.2</v>
+      </c>
+      <c r="M35">
+        <v>2.55</v>
+      </c>
+      <c r="N35">
+        <v>2.2</v>
+      </c>
+      <c r="O35">
+        <v>3.25</v>
+      </c>
+      <c r="P35">
         <v>3.4</v>
       </c>
-      <c r="M35">
-        <v>3.8</v>
-      </c>
-      <c r="N35">
-        <v>1.75</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
-      <c r="P35">
-        <v>5</v>
-      </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
+        <v>1.875</v>
+      </c>
+      <c r="S35">
         <v>1.925</v>
-      </c>
-      <c r="S35">
-        <v>1.875</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3657,7 +3657,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>4.2</v>
@@ -3823,7 +3823,7 @@
         <v>45016.52083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>39</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>2.3</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3924,7 +3924,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>2.8</v>
@@ -4001,7 +4001,7 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>2.9</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>2.55</v>
@@ -4446,10 +4446,10 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s">
         <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>1.666</v>
@@ -4627,7 +4627,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>3.1</v>
@@ -4725,7 +4725,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>1.8</v>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>3.3</v>
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6358404</v>
+        <v>6358406</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,76 +5069,76 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
+        <v>0.4375</v>
+      </c>
+      <c r="AC52">
         <v>-0.5</v>
-      </c>
-      <c r="AC52">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6358405</v>
+        <v>6358404</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,76 +5158,76 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53">
+        <v>2.15</v>
+      </c>
+      <c r="L53">
+        <v>3.25</v>
+      </c>
+      <c r="M53">
+        <v>3.1</v>
+      </c>
+      <c r="N53">
+        <v>2.55</v>
+      </c>
+      <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
+        <v>2.9</v>
+      </c>
+      <c r="Q53">
         <v>0</v>
       </c>
-      <c r="J53" t="s">
-        <v>42</v>
-      </c>
-      <c r="K53">
-        <v>1.55</v>
-      </c>
-      <c r="L53">
-        <v>4</v>
-      </c>
-      <c r="M53">
-        <v>4.75</v>
-      </c>
-      <c r="N53">
-        <v>1.4</v>
-      </c>
-      <c r="O53">
-        <v>4.333</v>
-      </c>
-      <c r="P53">
-        <v>9</v>
-      </c>
-      <c r="Q53">
-        <v>-1.25</v>
-      </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6358406</v>
+        <v>6358405</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,58 +5247,58 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
         <v>31</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5307,16 +5307,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>45037.52083333334</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6358407</v>
+        <v>6358409</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,55 +5514,55 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5571,19 +5571,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6358409</v>
+        <v>6358382</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,40 +5603,40 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
+        <v>3.75</v>
+      </c>
+      <c r="N58">
+        <v>2.4</v>
+      </c>
+      <c r="O58">
         <v>3.5</v>
       </c>
-      <c r="N58">
-        <v>1.727</v>
-      </c>
-      <c r="O58">
-        <v>3.75</v>
-      </c>
       <c r="P58">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
         <v>2</v>
@@ -5645,13 +5645,13 @@
         <v>1.8</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5660,7 +5660,7 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="Z58">
         <v>-1</v>
@@ -5669,10 +5669,10 @@
         <v>0.8</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6358382</v>
+        <v>6358407</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,55 +5692,55 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N59">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5749,19 +5749,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5793,7 +5793,7 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>4.5</v>
@@ -5882,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>2.15</v>
@@ -5962,7 +5962,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5971,7 +5971,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>1.5</v>
@@ -6125,7 +6125,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6358410</v>
+        <v>6358412</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6137,58 +6137,58 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
       </c>
       <c r="K64">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N64">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>0.6659999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6197,16 +6197,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>2.2</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6358412</v>
+        <v>6358410</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,58 +6315,58 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>42</v>
       </c>
       <c r="K66">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L66">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N66">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O66">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>1.9</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6375,16 +6375,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>1.909</v>
@@ -6594,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6671,7 +6671,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>39</v>
@@ -6683,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.75</v>
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6358413</v>
+        <v>6358386</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,13 +6760,13 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6775,61 +6775,61 @@
         <v>43</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z71">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6358386</v>
+        <v>6358413</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,13 +6849,13 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6864,61 +6864,61 @@
         <v>44</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="L72">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N72">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y72">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2.625</v>
@@ -7027,7 +7027,7 @@
         <v>45058.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7039,7 +7039,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>2.45</v>
@@ -7119,7 +7119,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6358388</v>
+        <v>6358297</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,49 +7205,49 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
         <v>1.95</v>
@@ -7262,19 +7262,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6358297</v>
+        <v>6622389</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,55 +7383,55 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N78">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7440,19 +7440,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.6000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB78">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6622389</v>
+        <v>6358388</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,55 +7472,55 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>3.6</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
         <v>1.909</v>
       </c>
       <c r="N79">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
         <v>0.25</v>
       </c>
       <c r="R79">
+        <v>1.925</v>
+      </c>
+      <c r="S79">
+        <v>1.875</v>
+      </c>
+      <c r="T79">
+        <v>2.5</v>
+      </c>
+      <c r="U79">
         <v>1.95</v>
       </c>
-      <c r="S79">
-        <v>1.75</v>
-      </c>
-      <c r="T79">
-        <v>2.75</v>
-      </c>
-      <c r="U79">
-        <v>1.8</v>
-      </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7529,19 +7529,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6358391</v>
+        <v>6358421</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,73 +7561,73 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L80">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N80">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q80">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
         <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
       </c>
       <c r="T80">
         <v>3</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
       <c r="AB80">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6358421</v>
+        <v>6358420</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,19 +7650,19 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>1.95</v>
@@ -7674,52 +7674,52 @@
         <v>3.5</v>
       </c>
       <c r="N81">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
         <v>1.95</v>
       </c>
-      <c r="S81">
-        <v>1.85</v>
-      </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7739,10 +7739,10 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F82" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" t="s">
         <v>32</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6358390</v>
+        <v>6358391</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,58 +7828,58 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>42</v>
       </c>
       <c r="K83">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L83">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N83">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O83">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q83">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
-        <v>0.333</v>
+        <v>0.444</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7888,16 +7888,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6358298</v>
+        <v>6358390</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,28 +7917,28 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N84">
         <v>1.333</v>
@@ -7947,19 +7947,19 @@
         <v>5.25</v>
       </c>
       <c r="P84">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q84">
         <v>-1.5</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U84">
         <v>1.9</v>
@@ -7968,19 +7968,19 @@
         <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6358420</v>
+        <v>6358298</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,40 +8006,40 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M85">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P85">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R85">
         <v>1.85</v>
@@ -8048,34 +8048,34 @@
         <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>2.6</v>
@@ -8196,7 +8196,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8276,7 +8276,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -8374,7 +8374,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>2.5</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,49 +8451,49 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K90">
+        <v>1.909</v>
+      </c>
+      <c r="L90">
         <v>3.4</v>
       </c>
-      <c r="L90">
-        <v>3.3</v>
-      </c>
       <c r="M90">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
         <v>1.85</v>
@@ -8502,25 +8502,25 @@
         <v>1.95</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X90">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,49 +8540,49 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M91">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
         <v>1.85</v>
@@ -8591,25 +8591,25 @@
         <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>4.5</v>
@@ -8730,7 +8730,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>1.5</v>
@@ -8810,7 +8810,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8896,7 +8896,7 @@
         <v>45142.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6832797</v>
+        <v>6831641</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,73 +8985,73 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K96">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="M96">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
+        <v>5.5</v>
+      </c>
+      <c r="P96">
+        <v>7.5</v>
+      </c>
+      <c r="Q96">
+        <v>-1.5</v>
+      </c>
+      <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
+        <v>1.85</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>1.925</v>
+      </c>
+      <c r="V96">
+        <v>1.875</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>4.5</v>
       </c>
-      <c r="P96">
-        <v>6.5</v>
-      </c>
-      <c r="Q96">
-        <v>-1.25</v>
-      </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
-        <v>1.8</v>
-      </c>
-      <c r="T96">
-        <v>2.75</v>
-      </c>
-      <c r="U96">
-        <v>1.8</v>
-      </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
-      <c r="W96">
-        <v>0.5</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6832796</v>
+        <v>6832797</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,58 +9074,58 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N97">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O97">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9134,16 +9134,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6831641</v>
+        <v>6832796</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,40 +9163,40 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="L98">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O98">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P98">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9205,34 +9205,34 @@
         <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X98">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9264,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>4.333</v>
@@ -9442,7 +9442,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>2.35</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6831731</v>
+        <v>6832800</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,58 +9519,58 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
       </c>
       <c r="K102">
+        <v>1.95</v>
+      </c>
+      <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
+        <v>3.5</v>
+      </c>
+      <c r="N102">
+        <v>2.3</v>
+      </c>
+      <c r="O102">
+        <v>3.75</v>
+      </c>
+      <c r="P102">
+        <v>2.875</v>
+      </c>
+      <c r="Q102">
+        <v>-0.25</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
         <v>1.8</v>
       </c>
-      <c r="L102">
-        <v>3.6</v>
-      </c>
-      <c r="M102">
-        <v>4</v>
-      </c>
-      <c r="N102">
-        <v>1.65</v>
-      </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
-      <c r="P102">
-        <v>5.25</v>
-      </c>
-      <c r="Q102">
-        <v>-0.75</v>
-      </c>
-      <c r="R102">
-        <v>1.8</v>
-      </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9579,16 +9579,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832801</v>
+        <v>6831731</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s">
         <v>33</v>
-      </c>
-      <c r="G103" t="s">
-        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
+        <v>1.8</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="S103">
-        <v>1.95</v>
-      </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.975</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>0.4</v>
+      </c>
+      <c r="AA103">
+        <v>-0.5</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832800</v>
+        <v>6831642</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,73 +9697,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L104">
         <v>3.5</v>
       </c>
       <c r="M104">
+        <v>1.8</v>
+      </c>
+      <c r="N104">
+        <v>4.2</v>
+      </c>
+      <c r="O104">
         <v>3.5</v>
       </c>
-      <c r="N104">
-        <v>2.3</v>
-      </c>
-      <c r="O104">
-        <v>3.75</v>
-      </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6831642</v>
+        <v>6832801</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,76 +9786,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N105">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
         <v>3.5</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q105">
         <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
         <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y105">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>2.625</v>
@@ -10056,7 +10056,7 @@
         <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -10231,7 +10231,7 @@
         <v>45158.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10243,7 +10243,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>4.5</v>
@@ -10332,7 +10332,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>2.4</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6832810</v>
+        <v>6831733</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K112">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N112">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6831733</v>
+        <v>6832810</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,73 +10498,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>0.4375</v>
+      </c>
+      <c r="AA113">
         <v>-0.5</v>
       </c>
-      <c r="AA113">
-        <v>0.5</v>
-      </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10599,7 +10599,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>3.25</v>
@@ -10768,7 +10768,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10777,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2</v>
@@ -10857,7 +10857,7 @@
         <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>1.727</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867404</v>
+        <v>6867400</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,55 +11388,55 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
+        <v>1.909</v>
+      </c>
+      <c r="L123">
+        <v>3.5</v>
+      </c>
+      <c r="M123">
         <v>3.4</v>
       </c>
-      <c r="L123">
-        <v>3.3</v>
-      </c>
-      <c r="M123">
-        <v>2</v>
-      </c>
       <c r="N123">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11445,16 +11445,16 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.615</v>
+        <v>2.4</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867400</v>
+        <v>6867405</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
+        <v>3.1</v>
+      </c>
+      <c r="N124">
+        <v>2.15</v>
+      </c>
+      <c r="O124">
         <v>3.4</v>
-      </c>
-      <c r="N124">
-        <v>2.05</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
       </c>
       <c r="P124">
         <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867405</v>
+        <v>6867404</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11744,7 +11744,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>36</v>
@@ -11756,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>2.7</v>
@@ -11845,7 +11845,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>2.3</v>
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867406</v>
+        <v>6867408</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>44</v>
       </c>
       <c r="K129">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N129">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="O129">
         <v>4</v>
       </c>
       <c r="P129">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y129">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867408</v>
+        <v>6867406</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J130" t="s">
         <v>43</v>
       </c>
       <c r="K130">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N130">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="O130">
         <v>4</v>
       </c>
       <c r="P130">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>2.875</v>
@@ -12281,7 +12281,7 @@
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12290,7 +12290,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>1.727</v>
@@ -12367,7 +12367,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>38</v>
@@ -12379,7 +12379,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>3.6</v>
@@ -12634,7 +12634,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K137">
         <v>1.615</v>
@@ -12901,7 +12901,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -12913,7 +12913,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
         <v>5.5</v>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2</v>
@@ -13079,10 +13079,10 @@
         <v>45205.52083333334</v>
       </c>
       <c r="F142" t="s">
+        <v>32</v>
+      </c>
+      <c r="G142" t="s">
         <v>33</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6867419</v>
+        <v>6867422</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,67 +13168,67 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
         <v>3.3</v>
       </c>
-      <c r="L143">
+      <c r="M143">
         <v>3.4</v>
       </c>
-      <c r="M143">
-        <v>2</v>
-      </c>
       <c r="N143">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
         <v>1.875</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.925</v>
       </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
         <v>-1</v>
@@ -13237,7 +13237,7 @@
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6867422</v>
+        <v>6867419</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,67 +13257,67 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA144">
         <v>-1</v>
@@ -13326,7 +13326,7 @@
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.45</v>
@@ -13613,7 +13613,7 @@
         <v>45219.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>37</v>
@@ -13625,7 +13625,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
         <v>2.05</v>
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6867425</v>
+        <v>6867424</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,73 +13702,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I149">
+        <v>4</v>
+      </c>
+      <c r="J149" t="s">
+        <v>43</v>
+      </c>
+      <c r="K149">
+        <v>2.5</v>
+      </c>
+      <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>2.6</v>
+      </c>
+      <c r="N149">
+        <v>2.5</v>
+      </c>
+      <c r="O149">
+        <v>3.6</v>
+      </c>
+      <c r="P149">
+        <v>2.625</v>
+      </c>
+      <c r="Q149">
         <v>0</v>
       </c>
-      <c r="J149" t="s">
-        <v>42</v>
-      </c>
-      <c r="K149">
-        <v>1.85</v>
-      </c>
-      <c r="L149">
-        <v>3.6</v>
-      </c>
-      <c r="M149">
-        <v>3.8</v>
-      </c>
-      <c r="N149">
-        <v>1.6</v>
-      </c>
-      <c r="O149">
-        <v>4</v>
-      </c>
-      <c r="P149">
-        <v>5.75</v>
-      </c>
-      <c r="Q149">
-        <v>-1</v>
-      </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
+        <v>1.825</v>
+      </c>
+      <c r="V149">
         <v>1.975</v>
       </c>
-      <c r="V149">
-        <v>1.825</v>
-      </c>
       <c r="W149">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z149">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6867427</v>
+        <v>6867425</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
+        <v>3.8</v>
+      </c>
+      <c r="N150">
+        <v>1.6</v>
+      </c>
+      <c r="O150">
         <v>4</v>
       </c>
-      <c r="M150">
-        <v>5.5</v>
-      </c>
-      <c r="N150">
-        <v>1.4</v>
-      </c>
-      <c r="O150">
-        <v>4.333</v>
-      </c>
       <c r="P150">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R150">
+        <v>2.025</v>
+      </c>
+      <c r="S150">
+        <v>1.775</v>
+      </c>
+      <c r="T150">
+        <v>3</v>
+      </c>
+      <c r="U150">
         <v>1.975</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.825</v>
       </c>
-      <c r="T150">
-        <v>2.5</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X150">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13868,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6867429</v>
+        <v>6867427</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13880,76 +13880,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K151">
+        <v>1.55</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>5.5</v>
+      </c>
+      <c r="N151">
+        <v>1.4</v>
+      </c>
+      <c r="O151">
+        <v>4.333</v>
+      </c>
+      <c r="P151">
+        <v>8.5</v>
+      </c>
+      <c r="Q151">
+        <v>-1.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
         <v>2.5</v>
       </c>
-      <c r="L151">
-        <v>3.25</v>
-      </c>
-      <c r="M151">
-        <v>2.7</v>
-      </c>
-      <c r="N151">
-        <v>2.7</v>
-      </c>
-      <c r="O151">
-        <v>3.4</v>
-      </c>
-      <c r="P151">
-        <v>2.55</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>1.95</v>
-      </c>
-      <c r="S151">
-        <v>1.85</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
       <c r="U151">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB151">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6867424</v>
+        <v>6867429</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,73 +13969,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K152">
         <v>2.5</v>
       </c>
       <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>2.7</v>
+      </c>
+      <c r="N152">
+        <v>2.7</v>
+      </c>
+      <c r="O152">
         <v>3.4</v>
       </c>
-      <c r="M152">
-        <v>2.6</v>
-      </c>
-      <c r="N152">
-        <v>2.5</v>
-      </c>
-      <c r="O152">
-        <v>3.6</v>
-      </c>
       <c r="P152">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14070,7 +14070,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K153">
         <v>2.6</v>
@@ -14159,7 +14159,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>1.9</v>
@@ -14325,7 +14325,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>30</v>
@@ -14337,7 +14337,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>2.25</v>
@@ -14414,7 +14414,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
         <v>39</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>2.5</v>
@@ -14515,7 +14515,7 @@
         <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.5</v>
@@ -14782,7 +14782,7 @@
         <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>4.333</v>
@@ -14847,7 +14847,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6867436</v>
+        <v>6867441</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14859,76 +14859,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
         <v>43</v>
       </c>
       <c r="K162">
+        <v>4</v>
+      </c>
+      <c r="L162">
         <v>3.75</v>
       </c>
-      <c r="L162">
-        <v>3.3</v>
-      </c>
       <c r="M162">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N162">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q162">
         <v>0.75</v>
       </c>
       <c r="R162">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S162">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14936,7 +14936,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6867439</v>
+        <v>6867440</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,10 +14948,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,43 +14963,43 @@
         <v>42</v>
       </c>
       <c r="K163">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L163">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N163">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O163">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q163">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
         <v>1.95</v>
       </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W163">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15008,16 +15008,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6867440</v>
+        <v>6867439</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,7 +15037,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
         <v>33</v>
@@ -15052,43 +15052,43 @@
         <v>42</v>
       </c>
       <c r="K164">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M164">
+        <v>8</v>
+      </c>
+      <c r="N164">
+        <v>1.333</v>
+      </c>
+      <c r="O164">
+        <v>5.25</v>
+      </c>
+      <c r="P164">
+        <v>9</v>
+      </c>
+      <c r="Q164">
+        <v>-1.5</v>
+      </c>
+      <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
         <v>2.75</v>
       </c>
-      <c r="N164">
-        <v>2.7</v>
-      </c>
-      <c r="O164">
-        <v>3.1</v>
-      </c>
-      <c r="P164">
-        <v>2.75</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>1.85</v>
-      </c>
-      <c r="S164">
-        <v>1.95</v>
-      </c>
-      <c r="T164">
-        <v>2</v>
-      </c>
       <c r="U164">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,16 +15097,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6867441</v>
+        <v>6867436</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,76 +15126,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>44</v>
       </c>
       <c r="K165">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L165">
+        <v>3.3</v>
+      </c>
+      <c r="M165">
+        <v>1.909</v>
+      </c>
+      <c r="N165">
+        <v>4.75</v>
+      </c>
+      <c r="O165">
         <v>3.75</v>
       </c>
-      <c r="M165">
-        <v>1.727</v>
-      </c>
-      <c r="N165">
-        <v>4.5</v>
-      </c>
-      <c r="O165">
-        <v>3.8</v>
-      </c>
       <c r="P165">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q165">
         <v>0.75</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y165">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K167">
         <v>2</v>
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,76 +15393,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>44</v>
       </c>
       <c r="K168">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N168">
+        <v>1.55</v>
+      </c>
+      <c r="O168">
         <v>4.2</v>
       </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
       <c r="P168">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q168">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6867443</v>
+        <v>6867445</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,76 +15482,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K169">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="N169">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6867447</v>
+        <v>6867443</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K170">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L170">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N170">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O170">
         <v>4.2</v>
       </c>
       <c r="P170">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q170">
         <v>-1</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X170">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>4.75</v>
@@ -15838,7 +15838,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867448</v>
+        <v>6867452</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,76 +15927,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
         <v>3</v>
       </c>
-      <c r="I174">
+      <c r="J174" t="s">
+        <v>43</v>
+      </c>
+      <c r="K174">
+        <v>2.45</v>
+      </c>
+      <c r="L174">
+        <v>3.3</v>
+      </c>
+      <c r="M174">
+        <v>2.625</v>
+      </c>
+      <c r="N174">
+        <v>2.625</v>
+      </c>
+      <c r="O174">
+        <v>3.4</v>
+      </c>
+      <c r="P174">
+        <v>2.55</v>
+      </c>
+      <c r="Q174">
         <v>0</v>
       </c>
-      <c r="J174" t="s">
-        <v>42</v>
-      </c>
-      <c r="K174">
-        <v>1.285</v>
-      </c>
-      <c r="L174">
-        <v>5</v>
-      </c>
-      <c r="M174">
-        <v>8.5</v>
-      </c>
-      <c r="N174">
-        <v>1.333</v>
-      </c>
-      <c r="O174">
-        <v>5.5</v>
-      </c>
-      <c r="P174">
-        <v>7.5</v>
-      </c>
-      <c r="Q174">
-        <v>-1.5</v>
-      </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16004,7 +16004,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6867452</v>
+        <v>6867451</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16016,49 +16016,49 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175" t="s">
+        <v>43</v>
+      </c>
+      <c r="K175">
+        <v>6</v>
+      </c>
+      <c r="L175">
+        <v>4.5</v>
+      </c>
+      <c r="M175">
+        <v>1.444</v>
+      </c>
+      <c r="N175">
+        <v>7.5</v>
+      </c>
+      <c r="O175">
+        <v>4.75</v>
+      </c>
+      <c r="P175">
+        <v>1.4</v>
+      </c>
+      <c r="Q175">
+        <v>1.5</v>
+      </c>
+      <c r="R175">
+        <v>1.75</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
         <v>3</v>
-      </c>
-      <c r="J175" t="s">
-        <v>44</v>
-      </c>
-      <c r="K175">
-        <v>2.45</v>
-      </c>
-      <c r="L175">
-        <v>3.3</v>
-      </c>
-      <c r="M175">
-        <v>2.625</v>
-      </c>
-      <c r="N175">
-        <v>2.625</v>
-      </c>
-      <c r="O175">
-        <v>3.4</v>
-      </c>
-      <c r="P175">
-        <v>2.55</v>
-      </c>
-      <c r="Q175">
-        <v>0</v>
-      </c>
-      <c r="R175">
-        <v>1.975</v>
-      </c>
-      <c r="S175">
-        <v>1.825</v>
-      </c>
-      <c r="T175">
-        <v>2.5</v>
       </c>
       <c r="U175">
         <v>1.95</v>
@@ -16073,19 +16073,19 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6867451</v>
+        <v>6867448</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,76 +16105,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
         <v>0</v>
       </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K176">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="L176">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M176">
-        <v>1.444</v>
+        <v>8.5</v>
       </c>
       <c r="N176">
+        <v>1.333</v>
+      </c>
+      <c r="O176">
+        <v>5.5</v>
+      </c>
+      <c r="P176">
         <v>7.5</v>
       </c>
-      <c r="O176">
-        <v>4.75</v>
-      </c>
-      <c r="P176">
-        <v>1.4</v>
-      </c>
       <c r="Q176">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
         <v>3</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K178">
         <v>1.95</v>
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7528661</v>
+        <v>6867454</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,10 +16461,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16473,43 +16473,43 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R180">
+        <v>1.75</v>
+      </c>
+      <c r="S180">
         <v>1.95</v>
       </c>
-      <c r="S180">
-        <v>1.85</v>
-      </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16518,19 +16518,19 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6867454</v>
+        <v>7528661</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,10 +16550,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16562,44 +16562,44 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
+        <v>2.15</v>
+      </c>
+      <c r="L181">
+        <v>3.5</v>
+      </c>
+      <c r="M181">
+        <v>2.875</v>
+      </c>
+      <c r="N181">
+        <v>2.2</v>
+      </c>
+      <c r="O181">
         <v>3.6</v>
       </c>
-      <c r="L181">
-        <v>3.6</v>
-      </c>
-      <c r="M181">
+      <c r="P181">
+        <v>3</v>
+      </c>
+      <c r="Q181">
+        <v>-0.25</v>
+      </c>
+      <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
         <v>1.85</v>
       </c>
-      <c r="N181">
-        <v>3.75</v>
-      </c>
-      <c r="O181">
-        <v>3.8</v>
-      </c>
-      <c r="P181">
-        <v>1.85</v>
-      </c>
-      <c r="Q181">
-        <v>0.75</v>
-      </c>
-      <c r="R181">
+      <c r="T181">
+        <v>3</v>
+      </c>
+      <c r="U181">
+        <v>1.95</v>
+      </c>
+      <c r="V181">
         <v>1.75</v>
       </c>
-      <c r="S181">
-        <v>1.95</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.875</v>
-      </c>
-      <c r="V181">
-        <v>1.925</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
@@ -16607,19 +16607,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
+        <v>2</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z181">
-        <v>-0.5</v>
-      </c>
-      <c r="AA181">
-        <v>0.475</v>
-      </c>
       <c r="AB181">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16651,7 +16651,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K182">
         <v>3.1</v>
@@ -16820,7 +16820,7 @@
         <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16829,7 +16829,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K184">
         <v>1.285</v>
@@ -16983,7 +16983,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6867460</v>
+        <v>6867461</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16995,76 +16995,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J186" t="s">
         <v>43</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N186">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O186">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
         <v>1.85</v>
       </c>
-      <c r="V186">
-        <v>1.95</v>
-      </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>2.5</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6867461</v>
+        <v>6867460</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,76 +17173,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>44</v>
       </c>
       <c r="K188">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N188">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O188">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
         <v>1.95</v>
       </c>
-      <c r="V188">
-        <v>1.85</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
         <v>29</v>
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K190">
         <v>1.7</v>
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,13 +17529,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -17544,43 +17544,43 @@
         <v>42</v>
       </c>
       <c r="K192">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L192">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N192">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O192">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q192">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W192">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17589,13 +17589,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>0.8</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
         <v>0.95</v>
-      </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
-      <c r="AB192">
-        <v>0.8</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6867471</v>
+        <v>6867470</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,73 +17618,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K193">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L193">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M193">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N193">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O193">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P193">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6867470</v>
+        <v>6867467</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,73 +17707,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>33</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K194">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L194">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M194">
+        <v>7</v>
+      </c>
+      <c r="N194">
+        <v>1.333</v>
+      </c>
+      <c r="O194">
+        <v>5</v>
+      </c>
+      <c r="P194">
+        <v>9</v>
+      </c>
+      <c r="Q194">
+        <v>-1.5</v>
+      </c>
+      <c r="R194">
+        <v>1.95</v>
+      </c>
+      <c r="S194">
+        <v>1.85</v>
+      </c>
+      <c r="T194">
         <v>2.75</v>
       </c>
-      <c r="N194">
-        <v>2.55</v>
-      </c>
-      <c r="O194">
-        <v>3.2</v>
-      </c>
-      <c r="P194">
-        <v>2.875</v>
-      </c>
-      <c r="Q194">
-        <v>0</v>
-      </c>
-      <c r="R194">
-        <v>1.775</v>
-      </c>
-      <c r="S194">
-        <v>2.025</v>
-      </c>
-      <c r="T194">
-        <v>2.25</v>
-      </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X194">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17986,7 +17986,7 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>3.1</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6867474</v>
+        <v>6867473</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
         <v>0</v>
       </c>
-      <c r="I198">
-        <v>2</v>
-      </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K198">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M198">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N198">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P198">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="Q198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6867473</v>
+        <v>6867474</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L199">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N199">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O199">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18241,7 +18241,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
         <v>35</v>
@@ -18520,7 +18520,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K203">
         <v>2.5</v>
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6867481</v>
+        <v>6867482</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,13 +18597,13 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -18612,25 +18612,25 @@
         <v>44</v>
       </c>
       <c r="K204">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N204">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O204">
         <v>3.3</v>
       </c>
       <c r="P204">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
         <v>1.775</v>
@@ -18642,31 +18642,31 @@
         <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y204">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC204">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6867482</v>
+        <v>6867481</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,13 +18686,13 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -18701,25 +18701,25 @@
         <v>43</v>
       </c>
       <c r="K205">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N205">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
         <v>3.3</v>
       </c>
       <c r="P205">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
         <v>1.775</v>
@@ -18731,31 +18731,31 @@
         <v>2.25</v>
       </c>
       <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
         <v>1.8</v>
       </c>
-      <c r="V205">
-        <v>2</v>
-      </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K206">
         <v>3.1</v>
@@ -18867,7 +18867,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -18965,7 +18965,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K208">
         <v>2.05</v>
@@ -19057,31 +19057,31 @@
         <v>2.9</v>
       </c>
       <c r="N209">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19131,13 +19131,13 @@
         <v>4.5</v>
       </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O210">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
@@ -19205,22 +19205,22 @@
         <v>5.75</v>
       </c>
       <c r="N211">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O211">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P211">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q211">
         <v>-1.25</v>
       </c>
       <c r="R211">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T211">
         <v>3</v>
@@ -19264,10 +19264,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K212">
         <v>2.75</v>
@@ -19279,22 +19279,22 @@
         <v>2.5</v>
       </c>
       <c r="N212">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O212">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q212">
         <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S212">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T212">
         <v>2.25</v>
@@ -19353,31 +19353,31 @@
         <v>1.833</v>
       </c>
       <c r="N213">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q213">
         <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19427,22 +19427,22 @@
         <v>2.7</v>
       </c>
       <c r="N214">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
         <v>2.75</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -109,13 +109,13 @@
     <t>MSK Zilina</t>
   </si>
   <si>
+    <t>MFK Ruzomberok</t>
+  </si>
+  <si>
     <t>FC Vion Zlate Moravce</t>
   </si>
   <si>
     <t>FK Tatran Liptovsky Mikulas</t>
-  </si>
-  <si>
-    <t>MFK Ruzomberok</t>
   </si>
   <si>
     <t>Dunajska Streda</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC214"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5175252</v>
+        <v>5175103</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X4">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5175249</v>
+        <v>5175252</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,73 +889,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>2.2</v>
+      </c>
+      <c r="N5">
+        <v>2.7</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>1.666</v>
-      </c>
-      <c r="N5">
-        <v>5.75</v>
-      </c>
-      <c r="O5">
-        <v>3.8</v>
-      </c>
       <c r="P5">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y5">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5175103</v>
+        <v>5175249</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,73 +978,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="N6">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z6">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1776,7 +1776,7 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -2046,7 +2046,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2135,7 +2135,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2488,7 +2488,7 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5175106</v>
+        <v>5175267</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,46 +2577,46 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2.4</v>
+      </c>
+      <c r="O24">
         <v>3.3</v>
       </c>
-      <c r="N24">
-        <v>2.15</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
       <c r="P24">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2631,22 +2631,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5175267</v>
+        <v>5175106</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,46 +2666,46 @@
         <v>44989.52083333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
         <v>3.3</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N25">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
         <v>3.3</v>
-      </c>
-      <c r="P25">
-        <v>2.9</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.25</v>
@@ -2720,22 +2720,22 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6358394</v>
+        <v>6358372</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,40 +2844,40 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2886,31 +2886,31 @@
         <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6358393</v>
+        <v>6358394</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,52 +2936,52 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2990,16 +2990,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6358372</v>
+        <v>6358393</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,73 +3022,73 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N29">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3467,10 +3467,10 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3559,7 +3559,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         <v>45016.52083333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>39</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4001,7 +4001,7 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4446,10 +4446,10 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6358404</v>
+        <v>6358405</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,76 +5069,76 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6358405</v>
+        <v>6358406</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,58 +5158,58 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
       </c>
       <c r="K53">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="L53">
+        <v>3.6</v>
+      </c>
+      <c r="M53">
         <v>4</v>
       </c>
-      <c r="M53">
-        <v>4.75</v>
-      </c>
       <c r="N53">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O53">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q53">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5218,16 +5218,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6358406</v>
+        <v>6358404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,76 +5247,76 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>1.975</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
+        <v>1.825</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>2.2</v>
+      </c>
+      <c r="Y54">
+        <v>-1</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>-0</v>
+      </c>
+      <c r="AB54">
         <v>-0.5</v>
       </c>
-      <c r="R54">
-        <v>1.925</v>
-      </c>
-      <c r="S54">
-        <v>1.875</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.875</v>
-      </c>
-      <c r="V54">
-        <v>1.925</v>
-      </c>
-      <c r="W54">
-        <v>0.909</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>0.925</v>
-      </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
-      <c r="AB54">
-        <v>0.4375</v>
-      </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>45037.52083333334</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>38</v>
@@ -5606,7 +5606,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>37</v>
@@ -5962,7 +5962,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6226,10 +6226,10 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
         <v>31</v>
-      </c>
-      <c r="G65" t="s">
-        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6582,7 +6582,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6760,10 +6760,10 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
         <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7027,7 +7027,7 @@
         <v>45058.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7383,7 +7383,7 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7475,7 +7475,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7653,7 +7653,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7828,10 +7828,10 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8187,7 +8187,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -8454,7 +8454,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8721,7 +8721,7 @@
         <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8896,7 +8896,7 @@
         <v>45142.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6832796</v>
+        <v>6832797</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,58 +8985,58 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
       </c>
       <c r="K96">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N96">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9045,16 +9045,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6831641</v>
+        <v>6832796</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,40 +9074,40 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O97">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9116,34 +9116,34 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X97">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832797</v>
+        <v>6831641</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,73 +9163,73 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="M98">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="N98">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O98">
+        <v>5.5</v>
+      </c>
+      <c r="P98">
+        <v>7.5</v>
+      </c>
+      <c r="Q98">
+        <v>-1.5</v>
+      </c>
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>1.925</v>
+      </c>
+      <c r="V98">
+        <v>1.875</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>4.5</v>
       </c>
-      <c r="P98">
-        <v>6.5</v>
-      </c>
-      <c r="Q98">
-        <v>-1.25</v>
-      </c>
-      <c r="R98">
-        <v>2</v>
-      </c>
-      <c r="S98">
-        <v>1.8</v>
-      </c>
-      <c r="T98">
-        <v>2.75</v>
-      </c>
-      <c r="U98">
-        <v>1.8</v>
-      </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
-      <c r="W98">
-        <v>0.5</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9252,7 +9252,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9519,7 +9519,7 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9700,7 +9700,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -10056,7 +10056,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -10231,7 +10231,7 @@
         <v>45158.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10412,7 +10412,7 @@
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10768,7 +10768,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10857,7 +10857,7 @@
         <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11388,7 +11388,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>41</v>
@@ -11744,7 +11744,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>38</v>
@@ -11925,7 +11925,7 @@
         <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12281,7 +12281,7 @@
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12367,7 +12367,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>36</v>
@@ -12723,7 +12723,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12990,7 +12990,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
         <v>36</v>
@@ -13079,10 +13079,10 @@
         <v>45205.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6867418</v>
+        <v>6867421</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,76 +13435,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K146">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N146">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6867421</v>
+        <v>6867418</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,76 +13524,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L147">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13613,7 +13613,7 @@
         <v>45219.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>37</v>
@@ -13868,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6867427</v>
+        <v>6867425</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13880,76 +13880,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K151">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>3.8</v>
+      </c>
+      <c r="N151">
+        <v>1.6</v>
+      </c>
+      <c r="O151">
         <v>4</v>
       </c>
-      <c r="M151">
-        <v>5.5</v>
-      </c>
-      <c r="N151">
-        <v>1.4</v>
-      </c>
-      <c r="O151">
-        <v>4.333</v>
-      </c>
       <c r="P151">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q151">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R151">
+        <v>2.025</v>
+      </c>
+      <c r="S151">
+        <v>1.775</v>
+      </c>
+      <c r="T151">
+        <v>3</v>
+      </c>
+      <c r="U151">
         <v>1.975</v>
       </c>
-      <c r="S151">
+      <c r="V151">
         <v>1.825</v>
       </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.825</v>
-      </c>
-      <c r="V151">
-        <v>1.975</v>
-      </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X151">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6867425</v>
+        <v>6867427</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K152">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N152">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P152">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
+        <v>1.825</v>
+      </c>
+      <c r="V152">
         <v>1.975</v>
       </c>
-      <c r="V152">
-        <v>1.825</v>
-      </c>
       <c r="W152">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC152">
-        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>30</v>
@@ -14414,7 +14414,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
         <v>39</v>
@@ -14951,7 +14951,7 @@
         <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15040,7 +15040,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,76 +15393,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F168" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
         <v>31</v>
       </c>
-      <c r="G168" t="s">
-        <v>40</v>
-      </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N168">
+        <v>1.55</v>
+      </c>
+      <c r="O168">
         <v>4.2</v>
       </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
       <c r="P168">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q168">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
         <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6867443</v>
+        <v>6867445</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,76 +15482,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K169">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="N169">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6867447</v>
+        <v>6867443</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K170">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L170">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N170">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O170">
         <v>4.2</v>
       </c>
       <c r="P170">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q170">
         <v>-1</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X170">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15838,7 +15838,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>38</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6867451</v>
+        <v>6867450</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,76 +15927,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>2</v>
-      </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K174">
+        <v>1.4</v>
+      </c>
+      <c r="L174">
+        <v>4.75</v>
+      </c>
+      <c r="M174">
         <v>6</v>
       </c>
-      <c r="L174">
-        <v>4.5</v>
-      </c>
-      <c r="M174">
-        <v>1.444</v>
-      </c>
       <c r="N174">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="O174">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P174">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q174">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R174">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T174">
         <v>3</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16004,7 +16004,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6867448</v>
+        <v>6867451</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16016,76 +16016,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K175">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="L175">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M175">
-        <v>8.5</v>
+        <v>1.444</v>
       </c>
       <c r="N175">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="O175">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P175">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q175">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
         <v>3</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6867450</v>
+        <v>6867448</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,13 +16105,13 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16120,13 +16120,13 @@
         <v>42</v>
       </c>
       <c r="K176">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="L176">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M176">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="N176">
         <v>1.333</v>
@@ -16135,25 +16135,25 @@
         <v>5.5</v>
       </c>
       <c r="P176">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q176">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
         <v>3</v>
       </c>
       <c r="U176">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
         <v>0.333</v>
@@ -16165,16 +16165,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>1.075</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16461,7 +16461,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
         <v>30</v>
@@ -16820,7 +16820,7 @@
         <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17084,7 +17084,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>41</v>
@@ -17262,7 +17262,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>29</v>
@@ -17621,7 +17621,7 @@
         <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H194">
         <v>4</v>
@@ -18063,7 +18063,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
         <v>35</v>
@@ -18241,7 +18241,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
         <v>29</v>
@@ -18778,7 +18778,7 @@
         <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18867,7 +18867,7 @@
         <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -19119,7 +19119,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6867489</v>
+        <v>6867484</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19128,49 +19128,49 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45346.45833333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K210">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L210">
+        <v>3.6</v>
+      </c>
+      <c r="M210">
+        <v>1.833</v>
+      </c>
+      <c r="N210">
         <v>3.75</v>
       </c>
-      <c r="M210">
-        <v>4.5</v>
-      </c>
-      <c r="N210">
-        <v>1.6</v>
-      </c>
       <c r="O210">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q210">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19193,7 +19193,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6867488</v>
+        <v>6867485</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19202,49 +19202,49 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45346.45833333334</v>
+        <v>45347.5625</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K211">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L211">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M211">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N211">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O211">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P211">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q211">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S211">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
+        <v>1.875</v>
+      </c>
+      <c r="V211">
         <v>1.925</v>
-      </c>
-      <c r="V211">
-        <v>1.875</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19259,228 +19259,6 @@
         <v>0</v>
       </c>
       <c r="AA211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>6867487</v>
-      </c>
-      <c r="C212" t="s">
-        <v>28</v>
-      </c>
-      <c r="D212" t="s">
-        <v>28</v>
-      </c>
-      <c r="E212" s="2">
-        <v>45346.45833333334</v>
-      </c>
-      <c r="F212" t="s">
-        <v>31</v>
-      </c>
-      <c r="G212" t="s">
-        <v>33</v>
-      </c>
-      <c r="K212">
-        <v>2.75</v>
-      </c>
-      <c r="L212">
-        <v>3.1</v>
-      </c>
-      <c r="M212">
-        <v>2.5</v>
-      </c>
-      <c r="N212">
-        <v>2.9</v>
-      </c>
-      <c r="O212">
-        <v>3.2</v>
-      </c>
-      <c r="P212">
-        <v>2.625</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>2.025</v>
-      </c>
-      <c r="S212">
-        <v>1.775</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <v>0</v>
-      </c>
-      <c r="Y212">
-        <v>0</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:29">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>6867484</v>
-      </c>
-      <c r="C213" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" t="s">
-        <v>28</v>
-      </c>
-      <c r="E213" s="2">
-        <v>45347.45833333334</v>
-      </c>
-      <c r="F213" t="s">
-        <v>38</v>
-      </c>
-      <c r="G213" t="s">
-        <v>36</v>
-      </c>
-      <c r="K213">
-        <v>4</v>
-      </c>
-      <c r="L213">
-        <v>3.6</v>
-      </c>
-      <c r="M213">
-        <v>1.833</v>
-      </c>
-      <c r="N213">
-        <v>4</v>
-      </c>
-      <c r="O213">
-        <v>3.6</v>
-      </c>
-      <c r="P213">
-        <v>1.909</v>
-      </c>
-      <c r="Q213">
-        <v>0.5</v>
-      </c>
-      <c r="R213">
-        <v>1.925</v>
-      </c>
-      <c r="S213">
-        <v>1.875</v>
-      </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>1.975</v>
-      </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
-      <c r="Y213">
-        <v>0</v>
-      </c>
-      <c r="Z213">
-        <v>0</v>
-      </c>
-      <c r="AA213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>6867485</v>
-      </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
-        <v>45347.5625</v>
-      </c>
-      <c r="F214" t="s">
-        <v>40</v>
-      </c>
-      <c r="G214" t="s">
-        <v>34</v>
-      </c>
-      <c r="K214">
-        <v>2.3</v>
-      </c>
-      <c r="L214">
-        <v>3.4</v>
-      </c>
-      <c r="M214">
-        <v>2.7</v>
-      </c>
-      <c r="N214">
-        <v>2.3</v>
-      </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>2.9</v>
-      </c>
-      <c r="Q214">
-        <v>-0.25</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
-      <c r="S214">
-        <v>1.8</v>
-      </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
-      <c r="U214">
-        <v>1.825</v>
-      </c>
-      <c r="V214">
-        <v>1.975</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6867471</v>
+        <v>6867467</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,13 +17618,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -17633,43 +17633,43 @@
         <v>42</v>
       </c>
       <c r="K193">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L193">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M193">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N193">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O193">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P193">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W193">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17678,13 +17678,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
+        <v>0.95</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
         <v>0.8</v>
-      </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
-      <c r="AB193">
-        <v>0.95</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,13 +17707,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -17722,43 +17722,43 @@
         <v>42</v>
       </c>
       <c r="K194">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L194">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N194">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O194">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P194">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17767,13 +17767,13 @@
         <v>-1</v>
       </c>
       <c r="Z194">
+        <v>0.8</v>
+      </c>
+      <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
         <v>0.95</v>
-      </c>
-      <c r="AA194">
-        <v>-1</v>
-      </c>
-      <c r="AB194">
-        <v>0.8</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -19425,19 +19425,19 @@
         <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19487,22 +19487,22 @@
         <v>2.7</v>
       </c>
       <c r="N214">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O214">
         <v>3.6</v>
       </c>
       <c r="P214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T214">
         <v>2.75</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -106,10 +106,10 @@
     <t>Dukla Banska Bystrica</t>
   </si>
   <si>
-    <t>MFK Skalica</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>MFK Skalica</t>
   </si>
   <si>
     <t>FC Kosice</t>
@@ -124,10 +124,10 @@
     <t>MFK Ruzomberok</t>
   </si>
   <si>
-    <t>Dunajska Streda</t>
+    <t>AS Trencin</t>
   </si>
   <si>
-    <t>AS Trencin</t>
+    <t>Dunajska Streda</t>
   </si>
   <si>
     <t>Slovan Bratislava</t>
@@ -142,10 +142,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -720,34 +720,34 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>1.85</v>
@@ -756,25 +756,25 @@
         <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -809,34 +809,34 @@
         <v>43</v>
       </c>
       <c r="K4">
+        <v>1.909</v>
+      </c>
+      <c r="L4">
         <v>3.4</v>
       </c>
-      <c r="L4">
-        <v>3.3</v>
-      </c>
       <c r="M4">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -845,25 +845,25 @@
         <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X4">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.3</v>
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6832797</v>
+        <v>6832796</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,55 +1242,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1.571</v>
+      </c>
+      <c r="O9">
         <v>4.333</v>
       </c>
-      <c r="M9">
-        <v>6.5</v>
-      </c>
-      <c r="N9">
-        <v>1.5</v>
-      </c>
-      <c r="O9">
-        <v>4.5</v>
-      </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832796</v>
+        <v>6832797</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,55 +1331,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>1.181</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>4.333</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6831642</v>
+        <v>6832800</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
         <v>3.5</v>
       </c>
       <c r="M15">
+        <v>3.5</v>
+      </c>
+      <c r="N15">
+        <v>2.3</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.875</v>
+      </c>
+      <c r="Q15">
+        <v>-0.25</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
         <v>1.8</v>
       </c>
-      <c r="N15">
-        <v>4.2</v>
-      </c>
-      <c r="O15">
-        <v>3.5</v>
-      </c>
-      <c r="P15">
-        <v>1.909</v>
-      </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.925</v>
-      </c>
-      <c r="S15">
-        <v>1.875</v>
-      </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6831731</v>
+        <v>6832801</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N16">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832801</v>
+        <v>6831731</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>1.95</v>
+      </c>
+      <c r="V17">
         <v>1.85</v>
       </c>
-      <c r="S17">
-        <v>1.95</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.975</v>
-      </c>
-      <c r="V17">
-        <v>1.825</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.4</v>
+      </c>
+      <c r="AA17">
+        <v>-0.5</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
-        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832800</v>
+        <v>6831642</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,73 +2040,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
         <v>3.5</v>
       </c>
       <c r="M18">
+        <v>1.8</v>
+      </c>
+      <c r="N18">
+        <v>4.2</v>
+      </c>
+      <c r="O18">
         <v>3.5</v>
       </c>
-      <c r="N18">
-        <v>2.3</v>
-      </c>
-      <c r="O18">
-        <v>3.75</v>
-      </c>
       <c r="P18">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2307,7 +2307,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>1.727</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832809</v>
+        <v>6831733</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
         <v>36</v>
       </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.825</v>
+      </c>
+      <c r="V25">
         <v>1.975</v>
       </c>
-      <c r="S25">
-        <v>1.825</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.825</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y25">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.5</v>
+      </c>
+      <c r="AB25">
         <v>0.825</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832810</v>
+        <v>6832809</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>1.4</v>
+      </c>
+      <c r="L26">
+        <v>4.5</v>
+      </c>
+      <c r="M26">
+        <v>6.5</v>
+      </c>
+      <c r="N26">
+        <v>1.6</v>
+      </c>
+      <c r="O26">
+        <v>4.333</v>
+      </c>
+      <c r="P26">
+        <v>5.25</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26">
-        <v>1.6</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="N26">
-        <v>1.7</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-      <c r="P26">
-        <v>4.75</v>
-      </c>
-      <c r="Q26">
-        <v>-0.75</v>
-      </c>
-      <c r="R26">
-        <v>1.875</v>
-      </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6831733</v>
+        <v>6832810</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,13 +2841,13 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2856,58 +2856,58 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X27">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.4375</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.5</v>
-      </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>45165.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>3.25</v>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3197,10 +3197,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
         <v>37</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>3.1</v>
@@ -3286,10 +3286,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
         <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>1.8</v>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>1.571</v>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>2.15</v>
@@ -3731,7 +3731,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -3909,7 +3909,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>1.727</v>
@@ -4265,10 +4265,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>40</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4802,7 +4802,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>1.727</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6867416</v>
+        <v>6867413</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,13 +4888,13 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4903,61 +4903,61 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N50">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X50">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6867413</v>
+        <v>6867416</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,13 +4977,13 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4992,61 +4992,61 @@
         <v>42</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N51">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N54">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>1.727</v>
@@ -5422,7 +5422,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5434,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>3.3</v>
@@ -5511,7 +5511,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5600,7 +5600,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5781,7 +5781,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5870,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867429</v>
+        <v>6867424</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,73 +5956,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
         <v>2.5</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N62">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867427</v>
+        <v>6867425</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,13 +6045,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6060,61 +6060,61 @@
         <v>43</v>
       </c>
       <c r="K63">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>3.8</v>
+      </c>
+      <c r="N63">
+        <v>1.6</v>
+      </c>
+      <c r="O63">
         <v>4</v>
       </c>
-      <c r="M63">
-        <v>5.5</v>
-      </c>
-      <c r="N63">
-        <v>1.4</v>
-      </c>
-      <c r="O63">
-        <v>4.333</v>
-      </c>
       <c r="P63">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
+        <v>2.025</v>
+      </c>
+      <c r="S63">
+        <v>1.775</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
         <v>1.975</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X63">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6867425</v>
+        <v>6867429</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,58 +6134,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>5</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
+        <v>2.5</v>
+      </c>
+      <c r="L64">
+        <v>3.25</v>
+      </c>
+      <c r="M64">
+        <v>2.7</v>
+      </c>
+      <c r="N64">
+        <v>2.7</v>
+      </c>
+      <c r="O64">
+        <v>3.4</v>
+      </c>
+      <c r="P64">
+        <v>2.55</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
         <v>1.85</v>
       </c>
-      <c r="L64">
-        <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>3.8</v>
-      </c>
-      <c r="N64">
-        <v>1.6</v>
-      </c>
-      <c r="O64">
-        <v>4</v>
-      </c>
-      <c r="P64">
-        <v>5.75</v>
-      </c>
-      <c r="Q64">
-        <v>-1</v>
-      </c>
-      <c r="R64">
-        <v>2.025</v>
-      </c>
-      <c r="S64">
-        <v>1.775</v>
-      </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>0.6000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6194,13 +6194,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867424</v>
+        <v>6867427</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,46 +6223,46 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>42</v>
+      </c>
+      <c r="K65">
+        <v>1.55</v>
+      </c>
+      <c r="L65">
         <v>4</v>
       </c>
-      <c r="J65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K65">
-        <v>2.5</v>
-      </c>
-      <c r="L65">
-        <v>3.4</v>
-      </c>
       <c r="M65">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N65">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>2.5</v>
@@ -6277,22 +6277,22 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y65">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>1.9</v>
@@ -6490,10 +6490,10 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6867431</v>
+        <v>6867430</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,55 +6579,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6636,19 +6636,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6867430</v>
+        <v>6867431</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,55 +6668,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
+        <v>2.5</v>
+      </c>
+      <c r="L70">
+        <v>3.2</v>
+      </c>
+      <c r="M70">
+        <v>2.6</v>
+      </c>
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
+        <v>3.25</v>
+      </c>
+      <c r="P70">
+        <v>3.2</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>2.025</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
         <v>2.25</v>
       </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>2.8</v>
-      </c>
-      <c r="N70">
-        <v>2.875</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
-      <c r="P70">
-        <v>2.45</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.725</v>
-      </c>
-      <c r="S70">
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.75</v>
-      </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6725,19 +6725,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>45228.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.25</v>
@@ -6938,7 +6938,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>1.2</v>
@@ -7027,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867441</v>
+        <v>6867440</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,40 +7113,40 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>1.85</v>
@@ -7155,34 +7155,34 @@
         <v>1.95</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,10 +7202,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
         <v>3.75</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867440</v>
+        <v>6867439</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,10 +7291,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7303,46 +7303,46 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
+        <v>8</v>
+      </c>
+      <c r="N77">
+        <v>1.333</v>
+      </c>
+      <c r="O77">
+        <v>5.25</v>
+      </c>
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <v>-1.5</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.75</v>
       </c>
-      <c r="N77">
-        <v>2.7</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
-        <v>2.75</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.85</v>
-      </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
-        <v>2</v>
-      </c>
       <c r="U77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7351,16 +7351,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867439</v>
+        <v>6867441</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L78">
+        <v>3.75</v>
+      </c>
+      <c r="M78">
+        <v>1.727</v>
+      </c>
+      <c r="N78">
         <v>4.5</v>
       </c>
-      <c r="M78">
-        <v>8</v>
-      </c>
-      <c r="N78">
-        <v>1.333</v>
-      </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
+        <v>1.85</v>
+      </c>
+      <c r="S78">
         <v>1.95</v>
       </c>
-      <c r="S78">
-        <v>1.85</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7558,7 +7558,7 @@
         <v>45240.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867443</v>
+        <v>6867447</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,13 +7647,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -7662,61 +7662,61 @@
         <v>42</v>
       </c>
       <c r="K81">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M81">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N81">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="O81">
         <v>4.2</v>
       </c>
       <c r="P81">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q81">
         <v>-1</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867447</v>
+        <v>6867443</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,13 +7825,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -7840,61 +7840,61 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L83">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N83">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O83">
         <v>4.2</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q83">
         <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6867448</v>
+        <v>6867450</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,28 +8181,28 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M87">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="N87">
         <v>1.333</v>
@@ -8211,25 +8211,25 @@
         <v>5.5</v>
       </c>
       <c r="P87">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q87">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="W87">
         <v>0.333</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867450</v>
+        <v>6867452</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L88">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O88">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.55</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>38</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6867452</v>
+        <v>6867448</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+      <c r="K90">
+        <v>1.285</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>8.5</v>
+      </c>
+      <c r="N90">
+        <v>1.333</v>
+      </c>
+      <c r="O90">
+        <v>5.5</v>
+      </c>
+      <c r="P90">
+        <v>7.5</v>
+      </c>
+      <c r="Q90">
+        <v>-1.5</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.9</v>
+      </c>
+      <c r="T90">
         <v>3</v>
       </c>
-      <c r="J90" t="s">
-        <v>41</v>
-      </c>
-      <c r="K90">
-        <v>2.45</v>
-      </c>
-      <c r="L90">
-        <v>3.3</v>
-      </c>
-      <c r="M90">
-        <v>2.625</v>
-      </c>
-      <c r="N90">
-        <v>2.625</v>
-      </c>
-      <c r="O90">
-        <v>3.4</v>
-      </c>
-      <c r="P90">
-        <v>2.55</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.975</v>
-      </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6867454</v>
+        <v>7528661</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,10 +8715,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8730,41 +8730,41 @@
         <v>41</v>
       </c>
       <c r="K93">
+        <v>2.15</v>
+      </c>
+      <c r="L93">
+        <v>3.5</v>
+      </c>
+      <c r="M93">
+        <v>2.875</v>
+      </c>
+      <c r="N93">
+        <v>2.2</v>
+      </c>
+      <c r="O93">
         <v>3.6</v>
       </c>
-      <c r="L93">
-        <v>3.6</v>
-      </c>
-      <c r="M93">
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>-0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.85</v>
       </c>
-      <c r="N93">
-        <v>3.75</v>
-      </c>
-      <c r="O93">
-        <v>3.8</v>
-      </c>
-      <c r="P93">
-        <v>1.85</v>
-      </c>
-      <c r="Q93">
-        <v>0.75</v>
-      </c>
-      <c r="R93">
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
         <v>1.75</v>
       </c>
-      <c r="S93">
-        <v>1.95</v>
-      </c>
-      <c r="T93">
-        <v>2.75</v>
-      </c>
-      <c r="U93">
-        <v>1.875</v>
-      </c>
-      <c r="V93">
-        <v>1.925</v>
-      </c>
       <c r="W93">
         <v>-1</v>
       </c>
@@ -8772,19 +8772,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
+        <v>2</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z93">
-        <v>-0.5</v>
-      </c>
-      <c r="AA93">
-        <v>0.475</v>
-      </c>
       <c r="AB93">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6867456</v>
+        <v>6867454</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N94">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
         <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z94">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
+        <v>0.475</v>
+      </c>
+      <c r="AB94">
+        <v>0.4375</v>
+      </c>
+      <c r="AC94">
         <v>-0.5</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
-      <c r="AC94">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7528661</v>
+        <v>6867456</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
         <v>37</v>
       </c>
-      <c r="G95" t="s">
-        <v>40</v>
-      </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>2.1</v>
+      </c>
+      <c r="N95">
+        <v>3.1</v>
+      </c>
+      <c r="O95">
         <v>3.5</v>
       </c>
-      <c r="M95">
-        <v>2.875</v>
-      </c>
-      <c r="N95">
+      <c r="P95">
         <v>2.2</v>
       </c>
-      <c r="O95">
-        <v>3.6</v>
-      </c>
-      <c r="P95">
-        <v>3</v>
-      </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y95">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
-      <c r="AC95">
-        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.285</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>2.4</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6867460</v>
+        <v>6867464</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,10 +9249,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9261,64 +9261,64 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
+        <v>2.5</v>
+      </c>
+      <c r="L99">
+        <v>3.2</v>
+      </c>
+      <c r="M99">
+        <v>2.7</v>
+      </c>
+      <c r="N99">
+        <v>2.375</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
+        <v>3.1</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.825</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>2.025</v>
+      </c>
+      <c r="V99">
+        <v>1.775</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
         <v>2.3</v>
       </c>
-      <c r="L99">
-        <v>3.3</v>
-      </c>
-      <c r="M99">
-        <v>2.875</v>
-      </c>
-      <c r="N99">
-        <v>2.75</v>
-      </c>
-      <c r="O99">
-        <v>3.1</v>
-      </c>
-      <c r="P99">
-        <v>2.75</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
-      <c r="S99">
-        <v>1.925</v>
-      </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.85</v>
-      </c>
-      <c r="V99">
-        <v>1.95</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.1</v>
-      </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867464</v>
+        <v>6867461</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>3.25</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3.5</v>
+      </c>
+      <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
+        <v>1.85</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>1</v>
       </c>
-      <c r="I100">
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
         <v>1</v>
       </c>
-      <c r="J100" t="s">
-        <v>43</v>
-      </c>
-      <c r="K100">
-        <v>2.5</v>
-      </c>
-      <c r="L100">
-        <v>3.2</v>
-      </c>
-      <c r="M100">
-        <v>2.7</v>
-      </c>
-      <c r="N100">
-        <v>2.375</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>3.1</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.975</v>
-      </c>
-      <c r="S100">
-        <v>1.825</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
-      <c r="V100">
-        <v>1.775</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.3</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>-0.5</v>
-      </c>
-      <c r="AA100">
-        <v>0.4125</v>
-      </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867461</v>
+        <v>6867460</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N101">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U101">
+        <v>1.85</v>
+      </c>
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9605,11 +9605,11 @@
         <v>45270.5625</v>
       </c>
       <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
         <v>36</v>
       </c>
-      <c r="G103" t="s">
-        <v>37</v>
-      </c>
       <c r="H103">
         <v>0</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9694,7 +9694,7 @@
         <v>45275.5625</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.8</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867471</v>
+        <v>6867467</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N105">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P105">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.95</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.8</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9884,7 +9884,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>2.625</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,58 +9961,58 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N107">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.95</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.8</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10053,7 +10053,7 @@
         <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>1.285</v>
@@ -10142,7 +10142,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>1.666</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867473</v>
+        <v>6867475</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,10 +10317,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10329,46 +10329,46 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O111">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
         <v>1.975</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867475</v>
+        <v>6867473</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,10 +10406,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10418,46 +10418,46 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N112">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10466,16 +10466,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867474</v>
+        <v>6867477</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M113">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N113">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867477</v>
+        <v>6867474</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L114">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N114">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.4</v>
@@ -10765,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867481</v>
+        <v>6867479</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
+        <v>2.25</v>
+      </c>
+      <c r="N117">
+        <v>4.2</v>
+      </c>
+      <c r="O117">
+        <v>3.8</v>
+      </c>
+      <c r="P117">
+        <v>1.8</v>
+      </c>
+      <c r="Q117">
+        <v>0.75</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
         <v>3</v>
       </c>
-      <c r="N117">
-        <v>2.1</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
-      <c r="P117">
-        <v>3.75</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.775</v>
-      </c>
-      <c r="S117">
-        <v>2.025</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y117">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867479</v>
+        <v>6867481</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>2.1</v>
+      </c>
+      <c r="O118">
+        <v>3.3</v>
+      </c>
+      <c r="P118">
+        <v>3.75</v>
+      </c>
+      <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>1.775</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
         <v>2.25</v>
       </c>
-      <c r="N118">
-        <v>4.2</v>
-      </c>
-      <c r="O118">
-        <v>3.8</v>
-      </c>
-      <c r="P118">
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="Q118">
-        <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>1.95</v>
-      </c>
-      <c r="V118">
-        <v>1.85</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>34</v>
@@ -11041,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
         <v>3.1</v>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>1.142</v>
@@ -11210,7 +11210,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11299,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.375</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867488</v>
+        <v>6867489</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>43</v>
       </c>
       <c r="K123">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="O123">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X123">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867489</v>
+        <v>6867487</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N124">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
         <v>1.825</v>
       </c>
-      <c r="V124">
-        <v>1.975</v>
-      </c>
       <c r="W124">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867487</v>
+        <v>6867488</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N125">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P125">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
         <v>38</v>
@@ -11744,7 +11744,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>2.3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867490</v>
+        <v>6867494</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,46 +11830,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
         <v>36</v>
       </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
       <c r="K128">
+        <v>3.6</v>
+      </c>
+      <c r="L128">
+        <v>3.4</v>
+      </c>
+      <c r="M128">
+        <v>2.05</v>
+      </c>
+      <c r="N128">
+        <v>4.5</v>
+      </c>
+      <c r="O128">
+        <v>3.6</v>
+      </c>
+      <c r="P128">
         <v>1.75</v>
       </c>
-      <c r="L128">
-        <v>3.75</v>
-      </c>
-      <c r="M128">
-        <v>4.5</v>
-      </c>
-      <c r="N128">
-        <v>1.75</v>
-      </c>
-      <c r="O128">
-        <v>3.75</v>
-      </c>
-      <c r="P128">
-        <v>4.5</v>
-      </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867491</v>
+        <v>6867493</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11904,46 +11904,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K129">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N129">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
+        <v>1.875</v>
+      </c>
+      <c r="S129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -11978,7 +11978,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -11993,31 +11993,31 @@
         <v>3.6</v>
       </c>
       <c r="N130">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>0</v>
@@ -12040,7 +12040,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867493</v>
+        <v>6867491</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12052,31 +12052,31 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K131">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R131">
         <v>1.925</v>
@@ -12085,13 +12085,13 @@
         <v>1.875</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12114,7 +12114,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867494</v>
+        <v>6867490</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12126,31 +12126,31 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K132">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N132">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12159,13 +12159,13 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12227,10 +12227,10 @@
         <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
         <v>2.5</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -106,10 +106,10 @@
     <t>Dukla Banska Bystrica</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>MFK Skalica</t>
   </si>
   <si>
-    <t>MFK Skalica</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
     <t>FC Kosice</t>
@@ -124,13 +124,13 @@
     <t>MFK Ruzomberok</t>
   </si>
   <si>
+    <t>Slovan Bratislava</t>
+  </si>
+  <si>
     <t>AS Trencin</t>
   </si>
   <si>
     <t>Dunajska Streda</t>
-  </si>
-  <si>
-    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>FC Vion Zlate Moravce</t>
@@ -142,10 +142,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -720,34 +720,34 @@
         <v>42</v>
       </c>
       <c r="K3">
+        <v>1.909</v>
+      </c>
+      <c r="L3">
         <v>3.4</v>
       </c>
-      <c r="L3">
-        <v>3.3</v>
-      </c>
       <c r="M3">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
         <v>1.85</v>
@@ -756,25 +756,25 @@
         <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -809,34 +809,34 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -845,25 +845,25 @@
         <v>1.95</v>
       </c>
       <c r="W4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>2.3</v>
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6832796</v>
+        <v>6831641</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,37 +1242,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N9">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P9">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1281,34 +1281,34 @@
         <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832797</v>
+        <v>6832796</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,55 +1331,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
+        <v>3.6</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.571</v>
+      </c>
+      <c r="O10">
         <v>4.333</v>
       </c>
-      <c r="M10">
-        <v>6.5</v>
-      </c>
-      <c r="N10">
-        <v>1.5</v>
-      </c>
-      <c r="O10">
-        <v>4.5</v>
-      </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6831641</v>
+        <v>6832797</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,10 +1420,10 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1432,58 +1432,58 @@
         <v>42</v>
       </c>
       <c r="K11">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="L11">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="N11">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P11">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q11">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>4.333</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832800</v>
+        <v>6831642</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L15">
         <v>3.5</v>
       </c>
       <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>4.2</v>
+      </c>
+      <c r="O15">
         <v>3.5</v>
       </c>
-      <c r="N15">
-        <v>2.3</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
       <c r="P15">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832801</v>
+        <v>6831731</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>1.95</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="S16">
-        <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>1.975</v>
-      </c>
-      <c r="V16">
-        <v>1.825</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.4</v>
+      </c>
+      <c r="AA16">
+        <v>-0.5</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6831731</v>
+        <v>6832801</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6831642</v>
+        <v>6832800</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,73 +2040,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L18">
         <v>3.5</v>
       </c>
       <c r="M18">
+        <v>3.5</v>
+      </c>
+      <c r="N18">
+        <v>2.3</v>
+      </c>
+      <c r="O18">
+        <v>3.75</v>
+      </c>
+      <c r="P18">
+        <v>2.875</v>
+      </c>
+      <c r="Q18">
+        <v>-0.25</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>1.8</v>
       </c>
-      <c r="N18">
-        <v>4.2</v>
-      </c>
-      <c r="O18">
-        <v>3.5</v>
-      </c>
-      <c r="P18">
-        <v>1.909</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.925</v>
-      </c>
-      <c r="S18">
-        <v>1.875</v>
-      </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2307,7 +2307,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>1.727</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6831733</v>
+        <v>6832809</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
         <v>1.825</v>
       </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832809</v>
+        <v>6832810</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832810</v>
+        <v>6831733</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,13 +2841,13 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2856,58 +2856,58 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>45165.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>3.25</v>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3197,10 +3197,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>3.1</v>
@@ -3286,10 +3286,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>1.8</v>
@@ -3464,7 +3464,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>1.571</v>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6867405</v>
+        <v>6867404</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
         <v>1.8</v>
       </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867404</v>
+        <v>6867400</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -3746,40 +3746,40 @@
         <v>41</v>
       </c>
       <c r="K37">
+        <v>1.909</v>
+      </c>
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
         <v>3.4</v>
       </c>
-      <c r="L37">
-        <v>3.3</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
       <c r="N37">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,16 +3788,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.615</v>
+        <v>2.4</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867400</v>
+        <v>6867405</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
+        <v>3.1</v>
+      </c>
+      <c r="N38">
+        <v>2.15</v>
+      </c>
+      <c r="O38">
         <v>3.4</v>
-      </c>
-      <c r="N38">
-        <v>2.05</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
       </c>
       <c r="P38">
         <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,10 +3909,10 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.727</v>
@@ -4265,10 +4265,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>40</v>
@@ -4443,7 +4443,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4802,7 +4802,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>1.727</v>
@@ -4888,7 +4888,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>1.615</v>
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N53">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>1.727</v>
@@ -5422,7 +5422,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5434,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>3.3</v>
@@ -5511,7 +5511,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5600,7 +5600,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6867421</v>
+        <v>6867418</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K59">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="N59">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6867418</v>
+        <v>6867421</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N60">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867425</v>
+        <v>6867427</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,13 +6045,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6060,61 +6060,61 @@
         <v>43</v>
       </c>
       <c r="K63">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867427</v>
+        <v>6867425</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,13 +6223,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6238,61 +6238,61 @@
         <v>42</v>
       </c>
       <c r="K65">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>3.8</v>
+      </c>
+      <c r="N65">
+        <v>1.6</v>
+      </c>
+      <c r="O65">
         <v>4</v>
       </c>
-      <c r="M65">
-        <v>5.5</v>
-      </c>
-      <c r="N65">
-        <v>1.4</v>
-      </c>
-      <c r="O65">
-        <v>4.333</v>
-      </c>
       <c r="P65">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
+        <v>2.025</v>
+      </c>
+      <c r="S65">
+        <v>1.775</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
         <v>1.975</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.825</v>
       </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
-      <c r="V65">
-        <v>1.975</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X65">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>1.9</v>
@@ -6490,10 +6490,10 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6867430</v>
+        <v>6867431</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,55 +6579,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
+        <v>2.5</v>
+      </c>
+      <c r="L69">
+        <v>3.2</v>
+      </c>
+      <c r="M69">
+        <v>2.6</v>
+      </c>
+      <c r="N69">
+        <v>2.3</v>
+      </c>
+      <c r="O69">
+        <v>3.25</v>
+      </c>
+      <c r="P69">
+        <v>3.2</v>
+      </c>
+      <c r="Q69">
+        <v>-0.25</v>
+      </c>
+      <c r="R69">
+        <v>2.025</v>
+      </c>
+      <c r="S69">
+        <v>1.775</v>
+      </c>
+      <c r="T69">
         <v>2.25</v>
       </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>2.8</v>
-      </c>
-      <c r="N69">
-        <v>2.875</v>
-      </c>
-      <c r="O69">
-        <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>2.45</v>
-      </c>
-      <c r="Q69">
-        <v>0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.725</v>
-      </c>
-      <c r="S69">
+      <c r="U69">
         <v>1.975</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.75</v>
-      </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6636,19 +6636,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6867431</v>
+        <v>6867430</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,55 +6668,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6725,19 +6725,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>45228.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6846,7 +6846,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.25</v>
@@ -6935,10 +6935,10 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>1.2</v>
@@ -7027,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867440</v>
+        <v>6867441</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,40 +7113,40 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="N75">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
         <v>1.85</v>
@@ -7155,34 +7155,34 @@
         <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867436</v>
+        <v>6867440</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,10 +7205,10 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7217,52 +7217,52 @@
         <v>42</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N76">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O76">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X76">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77">
         <v>1.333</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867441</v>
+        <v>6867436</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
+        <v>3.3</v>
+      </c>
+      <c r="M78">
+        <v>1.909</v>
+      </c>
+      <c r="N78">
+        <v>4.75</v>
+      </c>
+      <c r="O78">
         <v>3.75</v>
       </c>
-      <c r="M78">
-        <v>1.727</v>
-      </c>
-      <c r="N78">
-        <v>4.5</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
       <c r="P78">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
         <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y78">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7558,7 +7558,7 @@
         <v>45240.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867447</v>
+        <v>6867443</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,13 +7647,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -7662,61 +7662,61 @@
         <v>42</v>
       </c>
       <c r="K81">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L81">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N81">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
         <v>4.2</v>
       </c>
       <c r="P81">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q81">
         <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X81">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867443</v>
+        <v>6867447</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,13 +7825,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -7840,61 +7840,61 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M83">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N83">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="O83">
         <v>4.2</v>
       </c>
       <c r="P83">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q83">
         <v>-1</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,10 +7914,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6867450</v>
+        <v>6867448</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,28 +8181,28 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="N87">
         <v>1.333</v>
@@ -8211,25 +8211,25 @@
         <v>5.5</v>
       </c>
       <c r="P87">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R87">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
         <v>0.333</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>1.075</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867452</v>
+        <v>6867450</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88">
+        <v>1.4</v>
+      </c>
+      <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
+        <v>6</v>
+      </c>
+      <c r="N88">
+        <v>1.333</v>
+      </c>
+      <c r="O88">
+        <v>5.5</v>
+      </c>
+      <c r="P88">
+        <v>7</v>
+      </c>
+      <c r="Q88">
+        <v>-1.25</v>
+      </c>
+      <c r="R88">
+        <v>1.7</v>
+      </c>
+      <c r="S88">
+        <v>2.1</v>
+      </c>
+      <c r="T88">
         <v>3</v>
       </c>
-      <c r="J88" t="s">
-        <v>41</v>
-      </c>
-      <c r="K88">
-        <v>2.45</v>
-      </c>
-      <c r="L88">
-        <v>3.3</v>
-      </c>
-      <c r="M88">
-        <v>2.625</v>
-      </c>
-      <c r="N88">
-        <v>2.625</v>
-      </c>
-      <c r="O88">
-        <v>3.4</v>
-      </c>
-      <c r="P88">
-        <v>2.55</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>1.975</v>
-      </c>
-      <c r="S88">
-        <v>1.825</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>0.55</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,10 +8359,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6867448</v>
+        <v>6867452</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M90">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O90">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7528661</v>
+        <v>6867456</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>2.1</v>
+      </c>
+      <c r="N93">
+        <v>3.1</v>
+      </c>
+      <c r="O93">
         <v>3.5</v>
       </c>
-      <c r="M93">
-        <v>2.875</v>
-      </c>
-      <c r="N93">
+      <c r="P93">
         <v>2.2</v>
       </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
-      <c r="P93">
-        <v>3</v>
-      </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA93">
+        <v>-0.5</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
-      <c r="AC93">
-        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6867454</v>
+        <v>7528661</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,10 +8804,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8819,41 +8819,41 @@
         <v>41</v>
       </c>
       <c r="K94">
+        <v>2.15</v>
+      </c>
+      <c r="L94">
+        <v>3.5</v>
+      </c>
+      <c r="M94">
+        <v>2.875</v>
+      </c>
+      <c r="N94">
+        <v>2.2</v>
+      </c>
+      <c r="O94">
         <v>3.6</v>
       </c>
-      <c r="L94">
-        <v>3.6</v>
-      </c>
-      <c r="M94">
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>-0.25</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
         <v>1.85</v>
       </c>
-      <c r="N94">
-        <v>3.75</v>
-      </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
-      <c r="P94">
-        <v>1.85</v>
-      </c>
-      <c r="Q94">
-        <v>0.75</v>
-      </c>
-      <c r="R94">
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
         <v>1.75</v>
       </c>
-      <c r="S94">
-        <v>1.95</v>
-      </c>
-      <c r="T94">
-        <v>2.75</v>
-      </c>
-      <c r="U94">
-        <v>1.875</v>
-      </c>
-      <c r="V94">
-        <v>1.925</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
@@ -8861,19 +8861,19 @@
         <v>-1</v>
       </c>
       <c r="Y94">
+        <v>2</v>
+      </c>
+      <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z94">
-        <v>-0.5</v>
-      </c>
-      <c r="AA94">
-        <v>0.475</v>
-      </c>
       <c r="AB94">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6867456</v>
+        <v>6867454</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N95">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z95">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
+        <v>0.475</v>
+      </c>
+      <c r="AB95">
+        <v>0.4375</v>
+      </c>
+      <c r="AC95">
         <v>-0.5</v>
-      </c>
-      <c r="AB95">
-        <v>-1</v>
-      </c>
-      <c r="AC95">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9071,7 +9071,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>1.285</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>2.4</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6867464</v>
+        <v>6867460</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,10 +9249,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9261,64 +9261,64 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867460</v>
+        <v>6867464</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,10 +9427,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9439,64 +9439,64 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
+        <v>3.2</v>
+      </c>
+      <c r="M101">
+        <v>2.7</v>
+      </c>
+      <c r="N101">
+        <v>2.375</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
+        <v>3.1</v>
+      </c>
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.975</v>
+      </c>
+      <c r="S101">
+        <v>1.825</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
+        <v>1.775</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>2.3</v>
       </c>
-      <c r="L101">
-        <v>3.3</v>
-      </c>
-      <c r="M101">
-        <v>2.875</v>
-      </c>
-      <c r="N101">
-        <v>2.75</v>
-      </c>
-      <c r="O101">
-        <v>3.1</v>
-      </c>
-      <c r="P101">
-        <v>2.75</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.1</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9605,11 +9605,11 @@
         <v>45270.5625</v>
       </c>
       <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" t="s">
         <v>37</v>
       </c>
-      <c r="G103" t="s">
-        <v>36</v>
-      </c>
       <c r="H103">
         <v>0</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9694,7 +9694,7 @@
         <v>45275.5625</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>3.8</v>
@@ -9783,7 +9783,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
         <v>39</v>
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>1.444</v>
@@ -9884,7 +9884,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>2.625</v>
@@ -9973,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
         <v>2.6</v>
@@ -10053,7 +10053,7 @@
         <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>1.285</v>
@@ -10139,10 +10139,10 @@
         <v>45277.5625</v>
       </c>
       <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
         <v>38</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>1.666</v>
@@ -10231,7 +10231,7 @@
         <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867475</v>
+        <v>6867477</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,58 +10317,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M111">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N111">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P111">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>4.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867473</v>
+        <v>6867475</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,10 +10406,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10418,46 +10418,46 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
         <v>1.975</v>
       </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
-      <c r="U112">
-        <v>1.85</v>
-      </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10466,16 +10466,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867477</v>
+        <v>6867473</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,58 +10495,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
         <v>30</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K113">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L113">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
+        <v>5.5</v>
+      </c>
+      <c r="N113">
+        <v>1.5</v>
+      </c>
+      <c r="O113">
+        <v>4.333</v>
+      </c>
+      <c r="P113">
         <v>6.5</v>
       </c>
-      <c r="N113">
-        <v>1.6</v>
-      </c>
-      <c r="O113">
-        <v>4.2</v>
-      </c>
-      <c r="P113">
-        <v>5.5</v>
-      </c>
       <c r="Q113">
         <v>-1</v>
       </c>
       <c r="R113">
+        <v>1.825</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="S113">
-        <v>1.85</v>
-      </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>1.9</v>
-      </c>
-      <c r="V113">
-        <v>1.9</v>
-      </c>
       <c r="W113">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10561,10 +10561,10 @@
         <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K115">
         <v>1.4</v>
@@ -10765,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867479</v>
+        <v>6867481</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>2.1</v>
+      </c>
+      <c r="O117">
+        <v>3.3</v>
+      </c>
+      <c r="P117">
+        <v>3.75</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
         <v>2.25</v>
       </c>
-      <c r="N117">
-        <v>4.2</v>
-      </c>
-      <c r="O117">
-        <v>3.8</v>
-      </c>
-      <c r="P117">
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.95</v>
-      </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867481</v>
+        <v>6867482</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,37 +10943,37 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O118">
         <v>3.3</v>
       </c>
       <c r="P118">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
         <v>1.775</v>
@@ -10985,31 +10985,31 @@
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y118">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867482</v>
+        <v>6867479</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,19 +11029,19 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>3.1</v>
@@ -11053,52 +11053,52 @@
         <v>2.25</v>
       </c>
       <c r="N119">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
         <v>1.142</v>
@@ -11210,7 +11210,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11299,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>2.375</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
         <v>1.666</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867487</v>
+        <v>6867488</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N124">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P124">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y124">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867488</v>
+        <v>6867487</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N125">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O125">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
+        <v>1.825</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.8</v>
-      </c>
-      <c r="V125">
-        <v>2</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>3.5</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,10 +11652,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
         <v>36</v>
-      </c>
-      <c r="G126" t="s">
-        <v>38</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>2.3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867494</v>
+        <v>6867490</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,31 +11830,31 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N128">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
         <v>1.825</v>
@@ -11863,13 +11863,13 @@
         <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867493</v>
+        <v>6867491</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11904,46 +11904,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K129">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P129">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R129">
+        <v>1.925</v>
+      </c>
+      <c r="S129">
         <v>1.875</v>
       </c>
-      <c r="S129">
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.8</v>
-      </c>
-      <c r="V129">
-        <v>2</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -11978,7 +11978,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12040,7 +12040,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867491</v>
+        <v>6867493</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12052,46 +12052,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K131">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N131">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
         <v>1.925</v>
       </c>
-      <c r="S131">
-        <v>1.875</v>
-      </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12114,7 +12114,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867490</v>
+        <v>6867495</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12126,46 +12126,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M132">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N132">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O132">
         <v>3.8</v>
       </c>
       <c r="P132">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q132">
         <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12188,7 +12188,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867495</v>
+        <v>6867494</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12200,46 +12200,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K133">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="L133">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N133">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
         <v>0</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -115,10 +115,10 @@
     <t>FC Kosice</t>
   </si>
   <si>
-    <t>FC Spartak Trnava</t>
+    <t>MSK Zilina</t>
   </si>
   <si>
-    <t>MSK Zilina</t>
+    <t>FC Spartak Trnava</t>
   </si>
   <si>
     <t>MFK Ruzomberok</t>
@@ -127,10 +127,10 @@
     <t>Slovan Bratislava</t>
   </si>
   <si>
-    <t>AS Trencin</t>
+    <t>Dunajska Streda</t>
   </si>
   <si>
-    <t>Dunajska Streda</t>
+    <t>AS Trencin</t>
   </si>
   <si>
     <t>FC Vion Zlate Moravce</t>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N6">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.85</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832796</v>
+        <v>6832797</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,55 +1331,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832797</v>
+        <v>6832796</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,55 +1420,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
       </c>
       <c r="K11">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L11">
+        <v>3.6</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1.571</v>
+      </c>
+      <c r="O11">
         <v>4.333</v>
       </c>
-      <c r="M11">
-        <v>6.5</v>
-      </c>
-      <c r="N11">
-        <v>1.5</v>
-      </c>
-      <c r="O11">
-        <v>4.5</v>
-      </c>
       <c r="P11">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1477,16 +1477,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6831642</v>
+        <v>6832801</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N15">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O15">
         <v>3.5</v>
       </c>
       <c r="P15">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
         <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6831731</v>
+        <v>6831642</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,49 +1862,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
+        <v>4.2</v>
+      </c>
+      <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
         <v>1.8</v>
       </c>
-      <c r="L16">
-        <v>3.6</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
       <c r="N16">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
         <v>1.95</v>
@@ -1913,25 +1913,25 @@
         <v>1.85</v>
       </c>
       <c r="W16">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832801</v>
+        <v>6832800</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,49 +1951,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
+        <v>2.3</v>
+      </c>
+      <c r="O17">
         <v>3.75</v>
       </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
       <c r="P17">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
         <v>1.975</v>
@@ -2002,25 +2002,25 @@
         <v>1.825</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832800</v>
+        <v>6831731</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,58 +2040,58 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
       </c>
       <c r="K18">
+        <v>1.8</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>1.65</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>5.25</v>
+      </c>
+      <c r="Q18">
+        <v>-0.75</v>
+      </c>
+      <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="L18">
-        <v>3.5</v>
-      </c>
-      <c r="M18">
-        <v>3.5</v>
-      </c>
-      <c r="N18">
-        <v>2.3</v>
-      </c>
-      <c r="O18">
-        <v>3.75</v>
-      </c>
-      <c r="P18">
-        <v>2.875</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>1.8</v>
-      </c>
-      <c r="T18">
-        <v>3.25</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2396,7 +2396,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -2752,7 +2752,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -2844,7 +2844,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2933,7 +2933,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3197,10 +3197,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
         <v>37</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3375,10 +3375,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3731,7 +3731,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -3909,7 +3909,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4710,7 +4710,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4799,7 +4799,7 @@
         <v>45198.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6867413</v>
+        <v>6867416</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N50">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6867416</v>
+        <v>6867413</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N51">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X51">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N54">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5692,7 +5692,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867427</v>
+        <v>6867429</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s">
         <v>37</v>
       </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
       <c r="H63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O63">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X63">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6867429</v>
+        <v>6867427</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
+        <v>1.55</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>5.5</v>
+      </c>
+      <c r="N64">
+        <v>1.4</v>
+      </c>
+      <c r="O64">
+        <v>4.333</v>
+      </c>
+      <c r="P64">
+        <v>8.5</v>
+      </c>
+      <c r="Q64">
+        <v>-1.25</v>
+      </c>
+      <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
+        <v>1.825</v>
+      </c>
+      <c r="T64">
         <v>2.5</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
-      <c r="M64">
-        <v>2.7</v>
-      </c>
-      <c r="N64">
-        <v>2.7</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>2.55</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>1.95</v>
-      </c>
-      <c r="S64">
-        <v>1.85</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
       <c r="U64">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
@@ -6490,7 +6490,7 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6671,7 +6671,7 @@
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6757,10 +6757,10 @@
         <v>45228.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7027,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7383,7 +7383,7 @@
         <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7558,10 +7558,10 @@
         <v>45240.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N82">
+        <v>1.55</v>
+      </c>
+      <c r="O82">
         <v>4.2</v>
       </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867447</v>
+        <v>6867445</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L83">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
         <v>39</v>
@@ -8270,7 +8270,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867451</v>
+        <v>6867452</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,49 +8359,49 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q89">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8416,19 +8416,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
+        <v>0.825</v>
+      </c>
+      <c r="AB89">
         <v>0.95</v>
       </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6867452</v>
+        <v>6867451</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,49 +8448,49 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>41</v>
       </c>
       <c r="K90">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N90">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
         <v>1.95</v>
@@ -8505,19 +8505,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
         <v>40</v>
@@ -8896,7 +8896,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9160,10 +9160,10 @@
         <v>45268.5625</v>
       </c>
       <c r="F98" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s">
         <v>34</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867461</v>
+        <v>6867464</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N100">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867464</v>
+        <v>6867461</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>3.25</v>
+      </c>
+      <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3.5</v>
+      </c>
+      <c r="O101">
+        <v>3.75</v>
+      </c>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.95</v>
+      </c>
+      <c r="V101">
+        <v>1.85</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>1</v>
       </c>
-      <c r="I101">
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>2.5</v>
-      </c>
-      <c r="L101">
-        <v>3.2</v>
-      </c>
-      <c r="M101">
-        <v>2.7</v>
-      </c>
-      <c r="N101">
-        <v>2.375</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>3.1</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.975</v>
-      </c>
-      <c r="S101">
-        <v>1.825</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
-      <c r="V101">
-        <v>1.775</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.3</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
-      <c r="Z101">
-        <v>-0.5</v>
-      </c>
-      <c r="AA101">
-        <v>0.4125</v>
-      </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9605,10 +9605,10 @@
         <v>45270.5625</v>
       </c>
       <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
         <v>38</v>
-      </c>
-      <c r="G103" t="s">
-        <v>37</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,13 +9783,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -9798,43 +9798,43 @@
         <v>42</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N105">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q105">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.8</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>0.8</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6867471</v>
+        <v>6867467</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,13 +9961,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -9976,43 +9976,43 @@
         <v>42</v>
       </c>
       <c r="K107">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M107">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N107">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.95</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.8</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.95</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10050,7 +10050,7 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10142,7 +10142,7 @@
         <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10228,7 +10228,7 @@
         <v>45331.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867477</v>
+        <v>6867475</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,58 +10317,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>42</v>
       </c>
       <c r="K111">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N111">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="O111">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W111">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867475</v>
+        <v>6867473</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,10 +10406,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10421,43 +10421,43 @@
         <v>42</v>
       </c>
       <c r="K112">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N112">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10466,16 +10466,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867473</v>
+        <v>6867474</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N113">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867474</v>
+        <v>6867477</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M114">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N114">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10765,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867481</v>
+        <v>6867479</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
+        <v>2.25</v>
+      </c>
+      <c r="N117">
+        <v>4.2</v>
+      </c>
+      <c r="O117">
+        <v>3.8</v>
+      </c>
+      <c r="P117">
+        <v>1.8</v>
+      </c>
+      <c r="Q117">
+        <v>0.75</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
         <v>3</v>
       </c>
-      <c r="N117">
-        <v>2.1</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
-      <c r="P117">
-        <v>3.75</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.775</v>
-      </c>
-      <c r="S117">
-        <v>2.025</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y117">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867482</v>
+        <v>6867481</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O118">
         <v>3.3</v>
       </c>
       <c r="P118">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
         <v>1.775</v>
@@ -10985,31 +10985,31 @@
         <v>2.25</v>
       </c>
       <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867479</v>
+        <v>6867482</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,16 +11029,16 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>43</v>
@@ -11053,52 +11053,52 @@
         <v>2.25</v>
       </c>
       <c r="N119">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P119">
+        <v>2.875</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>1.775</v>
+      </c>
+      <c r="S119">
+        <v>2.025</v>
+      </c>
+      <c r="T119">
+        <v>2.25</v>
+      </c>
+      <c r="U119">
         <v>1.8</v>
       </c>
-      <c r="Q119">
-        <v>0.75</v>
-      </c>
-      <c r="R119">
-        <v>1.825</v>
-      </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
-      <c r="T119">
-        <v>3</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11207,10 +11207,10 @@
         <v>45340.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867489</v>
+        <v>6867487</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.825</v>
       </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
       <c r="W123">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867488</v>
+        <v>6867489</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,73 +11477,73 @@
         <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="O124">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X124">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867487</v>
+        <v>6867488</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N125">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P125">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11744,7 +11744,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867490</v>
+        <v>6867491</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,46 +11830,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K128">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N128">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867491</v>
+        <v>6867492</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11904,46 +11904,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K129">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N129">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
+        <v>1.875</v>
+      </c>
+      <c r="S129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867492</v>
+        <v>6867493</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -11978,46 +11978,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N130">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="O130">
         <v>3.5</v>
       </c>
       <c r="P130">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>0</v>
@@ -12040,7 +12040,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867493</v>
+        <v>6867494</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12052,46 +12052,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K131">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K132">
         <v>1.615</v>
@@ -12144,10 +12144,10 @@
         <v>1.615</v>
       </c>
       <c r="O132">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
         <v>-0.75</v>
@@ -12188,7 +12188,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867494</v>
+        <v>6867490</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12200,46 +12200,46 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K133">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N133">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>0</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -115,19 +115,19 @@
     <t>FC Kosice</t>
   </si>
   <si>
-    <t>MSK Zilina</t>
+    <t>FC Spartak Trnava</t>
   </si>
   <si>
-    <t>FC Spartak Trnava</t>
+    <t>MSK Zilina</t>
   </si>
   <si>
     <t>MFK Ruzomberok</t>
   </si>
   <si>
-    <t>Slovan Bratislava</t>
+    <t>Dunajska Streda</t>
   </si>
   <si>
-    <t>Dunajska Streda</t>
+    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>AS Trencin</t>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
       <c r="W6">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z6">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6831641</v>
+        <v>6832797</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,70 +1242,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832797</v>
+        <v>6831641</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,70 +1331,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="L10">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O10">
+        <v>5.5</v>
+      </c>
+      <c r="P10">
+        <v>7.5</v>
+      </c>
+      <c r="Q10">
+        <v>-1.5</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>1.85</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1.925</v>
+      </c>
+      <c r="V10">
+        <v>1.875</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
         <v>4.5</v>
       </c>
-      <c r="P10">
-        <v>6.5</v>
-      </c>
-      <c r="Q10">
-        <v>-1.25</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>1.8</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>0.5</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832801</v>
+        <v>6831731</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="S15">
-        <v>1.95</v>
-      </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
-      <c r="U15">
-        <v>1.975</v>
-      </c>
-      <c r="V15">
-        <v>1.825</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.4</v>
+      </c>
+      <c r="AA15">
+        <v>-0.5</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6831731</v>
+        <v>6832801</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832804</v>
+        <v>6832803</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832803</v>
+        <v>6832804</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832810</v>
+        <v>6831733</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6831733</v>
+        <v>6832810</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X27">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.4375</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.5</v>
-      </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2933,7 +2933,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832814</v>
+        <v>6832813</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,58 +3197,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
       </c>
       <c r="K31">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N31">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3257,16 +3257,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832813</v>
+        <v>6832814</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,16 +3346,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,10 +3375,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
         <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3645,7 +3645,7 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867400</v>
+        <v>6867405</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
+        <v>3.1</v>
+      </c>
+      <c r="N37">
+        <v>2.15</v>
+      </c>
+      <c r="O37">
         <v>3.4</v>
-      </c>
-      <c r="N37">
-        <v>2.05</v>
-      </c>
-      <c r="O37">
-        <v>3.6</v>
       </c>
       <c r="P37">
         <v>3.4</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867405</v>
+        <v>6867400</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
         <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,10 +3909,10 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
         <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867407</v>
+        <v>6867406</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,55 +4265,55 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
+        <v>5.75</v>
+      </c>
+      <c r="O43">
         <v>4</v>
       </c>
-      <c r="O43">
-        <v>3.6</v>
-      </c>
       <c r="P43">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4322,19 +4322,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6867406</v>
+        <v>6867407</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,55 +4354,55 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>5</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N44">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4411,19 +4411,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,10 +4443,10 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4799,7 +4799,7 @@
         <v>45198.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6867416</v>
+        <v>6867413</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N50">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X50">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6867413</v>
+        <v>6867416</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N51">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N53">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
         <v>37</v>
-      </c>
-      <c r="G54" t="s">
-        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5689,7 +5689,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -5781,7 +5781,7 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867424</v>
+        <v>6867425</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,73 +5956,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>1.85</v>
+      </c>
+      <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>3.8</v>
+      </c>
+      <c r="N62">
+        <v>1.6</v>
+      </c>
+      <c r="O62">
         <v>4</v>
       </c>
-      <c r="J62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62">
-        <v>2.5</v>
-      </c>
-      <c r="L62">
-        <v>3.4</v>
-      </c>
-      <c r="M62">
-        <v>2.6</v>
-      </c>
-      <c r="N62">
-        <v>2.5</v>
-      </c>
-      <c r="O62">
-        <v>3.6</v>
-      </c>
       <c r="P62">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
+        <v>1.975</v>
+      </c>
+      <c r="V62">
         <v>1.825</v>
       </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6045,10 +6045,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867425</v>
+        <v>6867424</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,73 +6223,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65">
+        <v>2.5</v>
+      </c>
+      <c r="L65">
+        <v>3.4</v>
+      </c>
+      <c r="M65">
+        <v>2.6</v>
+      </c>
+      <c r="N65">
+        <v>2.5</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.625</v>
+      </c>
+      <c r="Q65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>42</v>
-      </c>
-      <c r="K65">
-        <v>1.85</v>
-      </c>
-      <c r="L65">
-        <v>3.6</v>
-      </c>
-      <c r="M65">
-        <v>3.8</v>
-      </c>
-      <c r="N65">
-        <v>1.6</v>
-      </c>
-      <c r="O65">
-        <v>4</v>
-      </c>
-      <c r="P65">
-        <v>5.75</v>
-      </c>
-      <c r="Q65">
-        <v>-1</v>
-      </c>
       <c r="R65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
+        <v>1.825</v>
+      </c>
+      <c r="V65">
         <v>1.975</v>
       </c>
-      <c r="V65">
-        <v>1.825</v>
-      </c>
       <c r="W65">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6312,10 +6312,10 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6867431</v>
+        <v>6867430</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,55 +6579,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6636,19 +6636,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6867430</v>
+        <v>6867431</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,55 +6668,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
+        <v>2.5</v>
+      </c>
+      <c r="L70">
+        <v>3.2</v>
+      </c>
+      <c r="M70">
+        <v>2.6</v>
+      </c>
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
+        <v>3.25</v>
+      </c>
+      <c r="P70">
+        <v>3.2</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>2.025</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
         <v>2.25</v>
       </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>2.8</v>
-      </c>
-      <c r="N70">
-        <v>2.875</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
-      <c r="P70">
-        <v>2.45</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.725</v>
-      </c>
-      <c r="S70">
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.75</v>
-      </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6725,19 +6725,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6846,7 +6846,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6935,7 +6935,7 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>31</v>
@@ -7027,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867441</v>
+        <v>6867439</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N75">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P75">
-        <v>1.727</v>
+        <v>9</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
         <v>1.85</v>
       </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867440</v>
+        <v>6867441</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="N76">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P76">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
         <v>1.85</v>
@@ -7244,34 +7244,34 @@
         <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867439</v>
+        <v>6867440</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,10 +7291,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7306,43 +7306,43 @@
         <v>42</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L77">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O77">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R77">
+        <v>1.85</v>
+      </c>
+      <c r="S77">
         <v>1.95</v>
       </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7351,16 +7351,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7561,7 +7561,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867443</v>
+        <v>6867445</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="N81">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>35</v>
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867445</v>
+        <v>6867443</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="N83">
+        <v>1.615</v>
+      </c>
+      <c r="O83">
         <v>4.2</v>
       </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
       <c r="P83">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>0.825</v>
       </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8006,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6867448</v>
+        <v>6867450</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,13 +8181,13 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8196,13 +8196,13 @@
         <v>42</v>
       </c>
       <c r="K87">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M87">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="N87">
         <v>1.333</v>
@@ -8211,25 +8211,25 @@
         <v>5.5</v>
       </c>
       <c r="P87">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q87">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="W87">
         <v>0.333</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867450</v>
+        <v>6867448</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,13 +8270,13 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8285,13 +8285,13 @@
         <v>42</v>
       </c>
       <c r="K88">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="L88">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="N88">
         <v>1.333</v>
@@ -8300,25 +8300,25 @@
         <v>5.5</v>
       </c>
       <c r="P88">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R88">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
         <v>0.333</v>
@@ -8330,16 +8330,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>1.075</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867452</v>
+        <v>6867451</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,49 +8359,49 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
       </c>
       <c r="K89">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8416,19 +8416,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6867451</v>
+        <v>6867452</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,49 +8448,49 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>41</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M90">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q90">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
         <v>1.95</v>
@@ -8505,19 +8505,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
+        <v>0.825</v>
+      </c>
+      <c r="AB90">
         <v>0.95</v>
       </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6867456</v>
+        <v>7528661</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
         <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7528661</v>
+        <v>6867456</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2.1</v>
+      </c>
+      <c r="N94">
+        <v>3.1</v>
+      </c>
+      <c r="O94">
         <v>3.5</v>
       </c>
-      <c r="M94">
-        <v>2.875</v>
-      </c>
-      <c r="N94">
+      <c r="P94">
         <v>2.2</v>
       </c>
-      <c r="O94">
-        <v>3.6</v>
-      </c>
-      <c r="P94">
-        <v>3</v>
-      </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
         <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y94">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94">
-        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8896,7 +8896,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9071,7 +9071,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9160,10 +9160,10 @@
         <v>45268.5625</v>
       </c>
       <c r="F98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
         <v>33</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867464</v>
+        <v>6867461</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>3.25</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3.5</v>
+      </c>
+      <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
+        <v>1.85</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>1</v>
       </c>
-      <c r="I100">
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
         <v>1</v>
       </c>
-      <c r="J100" t="s">
-        <v>43</v>
-      </c>
-      <c r="K100">
-        <v>2.5</v>
-      </c>
-      <c r="L100">
-        <v>3.2</v>
-      </c>
-      <c r="M100">
-        <v>2.7</v>
-      </c>
-      <c r="N100">
-        <v>2.375</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>3.1</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.975</v>
-      </c>
-      <c r="S100">
-        <v>1.825</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
-      <c r="V100">
-        <v>1.775</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.3</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>-0.5</v>
-      </c>
-      <c r="AA100">
-        <v>0.4125</v>
-      </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867461</v>
+        <v>6867464</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N101">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867471</v>
+        <v>6867467</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,13 +9783,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -9798,43 +9798,43 @@
         <v>42</v>
       </c>
       <c r="K105">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N105">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P105">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.95</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.8</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,13 +9961,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -9976,43 +9976,43 @@
         <v>42</v>
       </c>
       <c r="K107">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N107">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.95</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.8</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10050,7 +10050,7 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10139,10 +10139,10 @@
         <v>45277.5625</v>
       </c>
       <c r="F109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
         <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10228,10 +10228,10 @@
         <v>45331.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867475</v>
+        <v>6867473</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,10 +10317,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10332,43 +10332,43 @@
         <v>42</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M111">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N111">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867473</v>
+        <v>6867474</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K112">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867474</v>
+        <v>6867477</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
+      </c>
+      <c r="K113">
+        <v>1.444</v>
+      </c>
+      <c r="L113">
+        <v>4.6</v>
+      </c>
+      <c r="M113">
+        <v>6.5</v>
+      </c>
+      <c r="N113">
+        <v>1.6</v>
+      </c>
+      <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
+        <v>5.5</v>
+      </c>
+      <c r="Q113">
+        <v>-1</v>
+      </c>
+      <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>1.85</v>
+      </c>
+      <c r="T113">
+        <v>3</v>
+      </c>
+      <c r="U113">
+        <v>1.9</v>
+      </c>
+      <c r="V113">
+        <v>1.9</v>
+      </c>
+      <c r="W113">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>2</v>
-      </c>
-      <c r="J113" t="s">
-        <v>41</v>
-      </c>
-      <c r="K113">
-        <v>3.25</v>
-      </c>
-      <c r="L113">
-        <v>3.6</v>
-      </c>
-      <c r="M113">
-        <v>2.1</v>
-      </c>
-      <c r="N113">
-        <v>3.5</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>2.05</v>
-      </c>
-      <c r="Q113">
-        <v>0.5</v>
-      </c>
-      <c r="R113">
-        <v>1.775</v>
-      </c>
-      <c r="S113">
-        <v>2.025</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>1.05</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
       <c r="AA113">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867477</v>
+        <v>6867475</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,58 +10584,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>42</v>
       </c>
       <c r="K114">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L114">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N114">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W114">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10644,16 +10644,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11118,7 +11118,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11207,10 +11207,10 @@
         <v>45340.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867487</v>
+        <v>6867489</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>42</v>
+      </c>
+      <c r="K123">
+        <v>1.666</v>
+      </c>
+      <c r="L123">
+        <v>3.75</v>
+      </c>
+      <c r="M123">
+        <v>4.5</v>
+      </c>
+      <c r="N123">
+        <v>1.615</v>
+      </c>
+      <c r="O123">
         <v>4</v>
       </c>
-      <c r="J123" t="s">
-        <v>41</v>
-      </c>
-      <c r="K123">
-        <v>2.75</v>
-      </c>
-      <c r="L123">
-        <v>3.1</v>
-      </c>
-      <c r="M123">
+      <c r="P123">
+        <v>5.25</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.775</v>
+      </c>
+      <c r="S123">
+        <v>2.025</v>
+      </c>
+      <c r="T123">
         <v>2.5</v>
       </c>
-      <c r="N123">
-        <v>2.75</v>
-      </c>
-      <c r="O123">
-        <v>3.1</v>
-      </c>
-      <c r="P123">
-        <v>2.8</v>
-      </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>1.875</v>
-      </c>
-      <c r="S123">
-        <v>1.925</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
       <c r="U123">
+        <v>1.825</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="V123">
-        <v>1.825</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867489</v>
+        <v>6867488</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,73 +11477,73 @@
         <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M124">
+        <v>5.75</v>
+      </c>
+      <c r="N124">
+        <v>1.45</v>
+      </c>
+      <c r="O124">
         <v>4.5</v>
       </c>
-      <c r="N124">
-        <v>1.615</v>
-      </c>
-      <c r="O124">
-        <v>4</v>
-      </c>
       <c r="P124">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867488</v>
+        <v>6867487</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N125">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O125">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
+        <v>1.825</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.8</v>
-      </c>
-      <c r="V125">
-        <v>2</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>3.5</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11655,7 +11655,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867491</v>
+        <v>6867495</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,64 +11830,79 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>42</v>
       </c>
       <c r="K128">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M128">
         <v>5.25</v>
       </c>
       <c r="N128">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O128">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P128">
         <v>5.5</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
       </c>
-      <c r="V128">
-        <v>1.85</v>
-      </c>
       <c r="W128">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11909,6 +11924,15 @@
       <c r="G129" t="s">
         <v>39</v>
       </c>
+      <c r="H129">
+        <v>4</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>42</v>
+      </c>
       <c r="K129">
         <v>2.05</v>
       </c>
@@ -11919,49 +11943,55 @@
         <v>3.6</v>
       </c>
       <c r="N129">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q129">
         <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>0.95</v>
+      </c>
+      <c r="AC129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11983,6 +12013,15 @@
       <c r="G130" t="s">
         <v>40</v>
       </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>42</v>
+      </c>
       <c r="K130">
         <v>3.3</v>
       </c>
@@ -11993,54 +12032,60 @@
         <v>2.2</v>
       </c>
       <c r="N130">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="Q130">
         <v>0.25</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867494</v>
+        <v>6867490</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12052,69 +12097,84 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
-        <v>4.2</v>
+        <v>1.533</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
         <v>1.975</v>
       </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.9</v>
-      </c>
       <c r="W131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867495</v>
+        <v>6867491</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12126,69 +12186,84 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L132">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M132">
         <v>5.25</v>
       </c>
       <c r="N132">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
         <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R132">
+        <v>1.9</v>
+      </c>
+      <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
+        <v>3</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
         <v>1.8</v>
       </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
-      <c r="U132">
-        <v>1.825</v>
-      </c>
-      <c r="V132">
-        <v>1.975</v>
-      </c>
       <c r="W132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867490</v>
+        <v>6867494</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12200,61 +12275,76 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="L133">
+        <v>3.4</v>
+      </c>
+      <c r="M133">
+        <v>2.05</v>
+      </c>
+      <c r="N133">
+        <v>5.25</v>
+      </c>
+      <c r="O133">
         <v>3.75</v>
       </c>
-      <c r="M133">
-        <v>4.5</v>
-      </c>
-      <c r="N133">
-        <v>1.55</v>
-      </c>
-      <c r="O133">
-        <v>4</v>
-      </c>
       <c r="P133">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
         <v>1.9</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.9</v>
       </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
-      <c r="U133">
-        <v>1.825</v>
-      </c>
-      <c r="V133">
-        <v>1.975</v>
-      </c>
       <c r="W133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Dukla Banska Bystrica</t>
   </si>
   <si>
-    <t>MFK Skalica</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>MFK Skalica</t>
   </si>
   <si>
     <t>FC Kosice</t>
@@ -127,10 +127,10 @@
     <t>Dunajska Streda</t>
   </si>
   <si>
-    <t>Slovan Bratislava</t>
+    <t>AS Trencin</t>
   </si>
   <si>
-    <t>AS Trencin</t>
+    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>FC Vion Zlate Moravce</t>
@@ -142,10 +142,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -720,34 +720,34 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>1.85</v>
@@ -756,25 +756,25 @@
         <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -809,34 +809,34 @@
         <v>43</v>
       </c>
       <c r="K4">
+        <v>1.909</v>
+      </c>
+      <c r="L4">
         <v>3.4</v>
       </c>
-      <c r="L4">
-        <v>3.3</v>
-      </c>
       <c r="M4">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -845,25 +845,25 @@
         <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X4">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.3</v>
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.4</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6831641</v>
+        <v>6832796</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,37 +1331,37 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>43</v>
       </c>
       <c r="K10">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q10">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R10">
         <v>1.95</v>
@@ -1370,34 +1370,34 @@
         <v>1.85</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X10">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832796</v>
+        <v>6831641</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,37 +1420,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
       </c>
       <c r="K11">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P11">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R11">
         <v>1.95</v>
@@ -1459,34 +1459,34 @@
         <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>4.333</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6831731</v>
+        <v>6832800</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>1.95</v>
+      </c>
+      <c r="L15">
+        <v>3.5</v>
+      </c>
+      <c r="M15">
+        <v>3.5</v>
+      </c>
+      <c r="N15">
+        <v>2.3</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.875</v>
+      </c>
+      <c r="Q15">
+        <v>-0.25</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1.8</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
+        <v>1.975</v>
+      </c>
+      <c r="V15">
+        <v>1.825</v>
+      </c>
+      <c r="W15">
+        <v>1.3</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>1.8</v>
-      </c>
-      <c r="L15">
-        <v>3.6</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>1.65</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>5.25</v>
-      </c>
-      <c r="Q15">
-        <v>-0.75</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
-      <c r="W15">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>0.4</v>
-      </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,10 +1862,10 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832800</v>
+        <v>6832801</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,49 +1951,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17">
+        <v>3.2</v>
+      </c>
+      <c r="L17">
+        <v>3.3</v>
+      </c>
+      <c r="M17">
+        <v>2.15</v>
+      </c>
+      <c r="N17">
+        <v>3.75</v>
+      </c>
+      <c r="O17">
+        <v>3.5</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>1.85</v>
+      </c>
+      <c r="S17">
         <v>1.95</v>
       </c>
-      <c r="L17">
-        <v>3.5</v>
-      </c>
-      <c r="M17">
-        <v>3.5</v>
-      </c>
-      <c r="N17">
-        <v>2.3</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
-      <c r="P17">
-        <v>2.875</v>
-      </c>
-      <c r="Q17">
-        <v>-0.25</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>1.8</v>
-      </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
         <v>1.975</v>
@@ -2002,25 +2002,25 @@
         <v>1.825</v>
       </c>
       <c r="W17">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832801</v>
+        <v>6831731</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.95</v>
+      </c>
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="S18">
-        <v>1.95</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>0.4</v>
+      </c>
+      <c r="AA18">
+        <v>-0.5</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832803</v>
+        <v>6832804</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832804</v>
+        <v>6832803</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>1.727</v>
@@ -2574,7 +2574,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832809</v>
+        <v>6831733</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.825</v>
+      </c>
+      <c r="V25">
         <v>1.975</v>
       </c>
-      <c r="S25">
-        <v>1.825</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.825</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y25">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.5</v>
+      </c>
+      <c r="AB25">
         <v>0.825</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6831733</v>
+        <v>6832809</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.825</v>
       </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>1.6</v>
@@ -2930,7 +2930,7 @@
         <v>45165.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>3.25</v>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3197,10 +3197,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
         <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3286,7 +3286,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>3.1</v>
@@ -3464,7 +3464,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>1.571</v>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6867404</v>
+        <v>6867400</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,13 +3642,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -3657,40 +3657,40 @@
         <v>41</v>
       </c>
       <c r="K36">
+        <v>1.909</v>
+      </c>
+      <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
         <v>3.4</v>
       </c>
-      <c r="L36">
-        <v>3.3</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
       <c r="N36">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3699,16 +3699,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.615</v>
+        <v>2.4</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867405</v>
+        <v>6867404</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
         <v>1.8</v>
       </c>
-      <c r="S37">
-        <v>2</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867400</v>
+        <v>6867405</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
+        <v>3.1</v>
+      </c>
+      <c r="N38">
+        <v>2.15</v>
+      </c>
+      <c r="O38">
         <v>3.4</v>
-      </c>
-      <c r="N38">
-        <v>2.05</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
       </c>
       <c r="P38">
         <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>1.727</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867406</v>
+        <v>6867407</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,52 +4268,52 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N43">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4322,19 +4322,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6867407</v>
+        <v>6867406</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,52 +4357,52 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
       <c r="K44">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
+        <v>5.75</v>
+      </c>
+      <c r="O44">
         <v>4</v>
       </c>
-      <c r="O44">
-        <v>3.6</v>
-      </c>
       <c r="P44">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="Q44">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4411,19 +4411,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4802,7 +4802,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>1.727</v>
@@ -4888,7 +4888,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
         <v>1.615</v>
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5247,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>1.727</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867419</v>
+        <v>6867422</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,64 +5425,64 @@
         <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>43</v>
       </c>
       <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
         <v>3.3</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>3.4</v>
       </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
       <c r="N56">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>1.75</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.875</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.925</v>
       </c>
-      <c r="T56">
-        <v>2.75</v>
-      </c>
-      <c r="U56">
-        <v>1.825</v>
-      </c>
-      <c r="V56">
-        <v>1.975</v>
-      </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5491,7 +5491,7 @@
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6867422</v>
+        <v>6867419</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,64 +5514,64 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O57">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5580,7 +5580,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6867418</v>
+        <v>6867421</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N59">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6867421</v>
+        <v>6867418</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="N60">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867425</v>
+        <v>6867429</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,58 +5956,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62">
+        <v>2.5</v>
+      </c>
+      <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
+        <v>2.7</v>
+      </c>
+      <c r="N62">
+        <v>2.7</v>
+      </c>
+      <c r="O62">
+        <v>3.4</v>
+      </c>
+      <c r="P62">
+        <v>2.55</v>
+      </c>
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>42</v>
-      </c>
-      <c r="K62">
+      <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
         <v>1.85</v>
       </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>3.8</v>
-      </c>
-      <c r="N62">
-        <v>1.6</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
-      <c r="P62">
-        <v>5.75</v>
-      </c>
-      <c r="Q62">
-        <v>-1</v>
-      </c>
-      <c r="R62">
-        <v>2.025</v>
-      </c>
-      <c r="S62">
-        <v>1.775</v>
-      </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>0.6000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6016,13 +6016,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867429</v>
+        <v>6867425</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,58 +6045,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N63">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>1.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6105,13 +6105,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6134,10 +6134,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
         <v>1.55</v>
@@ -6315,7 +6315,7 @@
         <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>1.9</v>
@@ -6493,7 +6493,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6671,7 +6671,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>45228.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6846,7 +6846,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.25</v>
@@ -6935,10 +6935,10 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>1.2</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867439</v>
+        <v>6867441</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>1.727</v>
+      </c>
+      <c r="N75">
         <v>4.5</v>
       </c>
-      <c r="M75">
-        <v>8</v>
-      </c>
-      <c r="N75">
-        <v>1.333</v>
-      </c>
       <c r="O75">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
         <v>1.95</v>
       </c>
-      <c r="S75">
-        <v>1.85</v>
-      </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867441</v>
+        <v>6867440</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="N76">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <v>1.85</v>
@@ -7244,34 +7244,34 @@
         <v>1.95</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867440</v>
+        <v>6867436</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,10 +7294,10 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7306,52 +7306,52 @@
         <v>42</v>
       </c>
       <c r="K77">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
+        <v>1.909</v>
+      </c>
+      <c r="N77">
+        <v>4.75</v>
+      </c>
+      <c r="O77">
+        <v>3.75</v>
+      </c>
+      <c r="P77">
+        <v>1.75</v>
+      </c>
+      <c r="Q77">
+        <v>0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.875</v>
+      </c>
+      <c r="S77">
+        <v>1.925</v>
+      </c>
+      <c r="T77">
         <v>2.75</v>
       </c>
-      <c r="N77">
-        <v>2.7</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
+      <c r="U77">
+        <v>1.875</v>
+      </c>
+      <c r="V77">
+        <v>1.925</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.85</v>
-      </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
-        <v>2</v>
-      </c>
-      <c r="U77">
-        <v>1.775</v>
-      </c>
-      <c r="V77">
-        <v>2.025</v>
-      </c>
-      <c r="W77">
-        <v>1.7</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7360,7 +7360,7 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867436</v>
+        <v>6867439</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,13 +7380,13 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7395,31 +7395,31 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N78">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P78">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T78">
         <v>2.75</v>
@@ -7431,19 +7431,19 @@
         <v>1.925</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7558,7 +7558,7 @@
         <v>45240.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K81">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M81">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N81">
+        <v>1.55</v>
+      </c>
+      <c r="O81">
         <v>4.2</v>
       </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867447</v>
+        <v>6867445</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N82">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7828,7 +7828,7 @@
         <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>1.6</v>
@@ -7914,10 +7914,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6867450</v>
+        <v>6867448</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,28 +8181,28 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="N87">
         <v>1.333</v>
@@ -8211,25 +8211,25 @@
         <v>5.5</v>
       </c>
       <c r="P87">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R87">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
         <v>0.333</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>1.075</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867448</v>
+        <v>6867451</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>8.5</v>
+        <v>1.444</v>
       </c>
       <c r="N88">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="O88">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q88">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867451</v>
+        <v>6867452</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,46 +8362,46 @@
         <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
       </c>
       <c r="K89">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q89">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8416,19 +8416,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
+        <v>0.825</v>
+      </c>
+      <c r="AB89">
         <v>0.95</v>
       </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6867452</v>
+        <v>6867450</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>0</v>
       </c>
-      <c r="I90">
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+      <c r="K90">
+        <v>1.4</v>
+      </c>
+      <c r="L90">
+        <v>4.75</v>
+      </c>
+      <c r="M90">
+        <v>6</v>
+      </c>
+      <c r="N90">
+        <v>1.333</v>
+      </c>
+      <c r="O90">
+        <v>5.5</v>
+      </c>
+      <c r="P90">
+        <v>7</v>
+      </c>
+      <c r="Q90">
+        <v>-1.25</v>
+      </c>
+      <c r="R90">
+        <v>1.7</v>
+      </c>
+      <c r="S90">
+        <v>2.1</v>
+      </c>
+      <c r="T90">
         <v>3</v>
       </c>
-      <c r="J90" t="s">
-        <v>41</v>
-      </c>
-      <c r="K90">
-        <v>2.45</v>
-      </c>
-      <c r="L90">
-        <v>3.3</v>
-      </c>
-      <c r="M90">
-        <v>2.625</v>
-      </c>
-      <c r="N90">
-        <v>2.625</v>
-      </c>
-      <c r="O90">
-        <v>3.4</v>
-      </c>
-      <c r="P90">
-        <v>2.55</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.975</v>
-      </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.55</v>
       </c>
       <c r="AB90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7528661</v>
+        <v>6867456</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>2.1</v>
+      </c>
+      <c r="N93">
+        <v>3.1</v>
+      </c>
+      <c r="O93">
         <v>3.5</v>
       </c>
-      <c r="M93">
-        <v>2.875</v>
-      </c>
-      <c r="N93">
+      <c r="P93">
         <v>2.2</v>
       </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
-      <c r="P93">
-        <v>3</v>
-      </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA93">
+        <v>-0.5</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
-      <c r="AC93">
-        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6867456</v>
+        <v>7528661</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N94">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
         <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z94">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9071,7 +9071,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.285</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>2.4</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6867460</v>
+        <v>6867464</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,10 +9249,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9261,64 +9261,64 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
+        <v>2.5</v>
+      </c>
+      <c r="L99">
+        <v>3.2</v>
+      </c>
+      <c r="M99">
+        <v>2.7</v>
+      </c>
+      <c r="N99">
+        <v>2.375</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
+        <v>3.1</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.825</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>2.025</v>
+      </c>
+      <c r="V99">
+        <v>1.775</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
         <v>2.3</v>
       </c>
-      <c r="L99">
-        <v>3.3</v>
-      </c>
-      <c r="M99">
-        <v>2.875</v>
-      </c>
-      <c r="N99">
-        <v>2.75</v>
-      </c>
-      <c r="O99">
-        <v>3.1</v>
-      </c>
-      <c r="P99">
-        <v>2.75</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>1.875</v>
-      </c>
-      <c r="S99">
-        <v>1.925</v>
-      </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.85</v>
-      </c>
-      <c r="V99">
-        <v>1.95</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.1</v>
-      </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867461</v>
+        <v>6867460</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100">
+        <v>2.3</v>
+      </c>
+      <c r="L100">
+        <v>3.3</v>
+      </c>
+      <c r="M100">
+        <v>2.875</v>
+      </c>
+      <c r="N100">
+        <v>2.75</v>
+      </c>
+      <c r="O100">
+        <v>3.1</v>
+      </c>
+      <c r="P100">
+        <v>2.75</v>
+      </c>
+      <c r="Q100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>6</v>
-      </c>
-      <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100">
-        <v>3.25</v>
-      </c>
-      <c r="L100">
-        <v>3.5</v>
-      </c>
-      <c r="M100">
-        <v>2</v>
-      </c>
-      <c r="N100">
-        <v>3.5</v>
-      </c>
-      <c r="O100">
-        <v>3.75</v>
-      </c>
-      <c r="P100">
-        <v>2</v>
-      </c>
-      <c r="Q100">
-        <v>0.5</v>
-      </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
         <v>1.95</v>
       </c>
-      <c r="V100">
-        <v>1.85</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867464</v>
+        <v>6867461</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>3.25</v>
+      </c>
+      <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3.5</v>
+      </c>
+      <c r="O101">
+        <v>3.75</v>
+      </c>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.95</v>
+      </c>
+      <c r="V101">
+        <v>1.85</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>1</v>
       </c>
-      <c r="I101">
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>2.5</v>
-      </c>
-      <c r="L101">
-        <v>3.2</v>
-      </c>
-      <c r="M101">
-        <v>2.7</v>
-      </c>
-      <c r="N101">
-        <v>2.375</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>3.1</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.975</v>
-      </c>
-      <c r="S101">
-        <v>1.825</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
-      <c r="V101">
-        <v>1.775</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.3</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
-      <c r="Z101">
-        <v>-0.5</v>
-      </c>
-      <c r="AA101">
-        <v>0.4125</v>
-      </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9608,7 +9608,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9694,7 +9694,7 @@
         <v>45275.5625</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.8</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867467</v>
+        <v>6867470</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>42</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N105">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q105">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6867470</v>
+        <v>6867471</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
+        <v>2.6</v>
+      </c>
+      <c r="N106">
+        <v>2.9</v>
+      </c>
+      <c r="O106">
+        <v>3.3</v>
+      </c>
+      <c r="P106">
+        <v>2.4</v>
+      </c>
+      <c r="Q106">
+        <v>0.25</v>
+      </c>
+      <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
         <v>2.75</v>
       </c>
-      <c r="N106">
-        <v>2.55</v>
-      </c>
-      <c r="O106">
-        <v>3.2</v>
-      </c>
-      <c r="P106">
-        <v>2.875</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>1.775</v>
-      </c>
-      <c r="S106">
-        <v>2.025</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
       <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
+        <v>1.85</v>
+      </c>
+      <c r="W106">
         <v>1.9</v>
       </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
       <c r="X106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6867471</v>
+        <v>6867467</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,58 +9961,58 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M107">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N107">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.95</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.8</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.95</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10053,7 +10053,7 @@
         <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>1.285</v>
@@ -10139,7 +10139,7 @@
         <v>45277.5625</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>1.666</v>
@@ -10231,7 +10231,7 @@
         <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867473</v>
+        <v>6867475</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,10 +10317,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10329,46 +10329,46 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N111">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O111">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
         <v>1.975</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867477</v>
+        <v>6867473</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,58 +10495,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>31</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L113">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
+        <v>5.5</v>
+      </c>
+      <c r="N113">
+        <v>1.5</v>
+      </c>
+      <c r="O113">
+        <v>4.333</v>
+      </c>
+      <c r="P113">
         <v>6.5</v>
       </c>
-      <c r="N113">
-        <v>1.6</v>
-      </c>
-      <c r="O113">
-        <v>4.2</v>
-      </c>
-      <c r="P113">
-        <v>5.5</v>
-      </c>
       <c r="Q113">
         <v>-1</v>
       </c>
       <c r="R113">
+        <v>1.825</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="S113">
-        <v>1.85</v>
-      </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>1.9</v>
-      </c>
-      <c r="V113">
-        <v>1.9</v>
-      </c>
       <c r="W113">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10561,10 +10561,10 @@
         <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867475</v>
+        <v>6867477</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>1</v>
       </c>
-      <c r="I114">
+      <c r="J114" t="s">
+        <v>43</v>
+      </c>
+      <c r="K114">
+        <v>1.444</v>
+      </c>
+      <c r="L114">
+        <v>4.6</v>
+      </c>
+      <c r="M114">
+        <v>6.5</v>
+      </c>
+      <c r="N114">
+        <v>1.6</v>
+      </c>
+      <c r="O114">
+        <v>4.2</v>
+      </c>
+      <c r="P114">
+        <v>5.5</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>1.9</v>
+      </c>
+      <c r="V114">
+        <v>1.9</v>
+      </c>
+      <c r="W114">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
         <v>0</v>
       </c>
-      <c r="J114" t="s">
-        <v>42</v>
-      </c>
-      <c r="K114">
-        <v>3.25</v>
-      </c>
-      <c r="L114">
-        <v>3.6</v>
-      </c>
-      <c r="M114">
-        <v>2.1</v>
-      </c>
-      <c r="N114">
-        <v>5.25</v>
-      </c>
-      <c r="O114">
-        <v>3.4</v>
-      </c>
-      <c r="P114">
-        <v>1.75</v>
-      </c>
-      <c r="Q114">
-        <v>0.75</v>
-      </c>
-      <c r="R114">
-        <v>1.8</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.725</v>
-      </c>
-      <c r="W114">
-        <v>4.25</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.8</v>
-      </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.4</v>
@@ -10765,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867479</v>
+        <v>6867481</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>2.1</v>
+      </c>
+      <c r="O117">
+        <v>3.3</v>
+      </c>
+      <c r="P117">
+        <v>3.75</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
         <v>2.25</v>
       </c>
-      <c r="N117">
-        <v>4.2</v>
-      </c>
-      <c r="O117">
-        <v>3.8</v>
-      </c>
-      <c r="P117">
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.95</v>
-      </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867481</v>
+        <v>6867482</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,37 +10943,37 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N118">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O118">
         <v>3.3</v>
       </c>
       <c r="P118">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
         <v>1.775</v>
@@ -10985,31 +10985,31 @@
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y118">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867482</v>
+        <v>6867479</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,19 +11029,19 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
         <v>3.1</v>
@@ -11053,52 +11053,52 @@
         <v>2.25</v>
       </c>
       <c r="N119">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>1.142</v>
@@ -11299,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.375</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867489</v>
+        <v>6867488</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>42</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
+        <v>5.75</v>
+      </c>
+      <c r="N123">
+        <v>1.45</v>
+      </c>
+      <c r="O123">
         <v>4.5</v>
       </c>
-      <c r="N123">
-        <v>1.615</v>
-      </c>
-      <c r="O123">
-        <v>4</v>
-      </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867488</v>
+        <v>6867487</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N124">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="O124">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
+        <v>1.825</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
         <v>1.8</v>
       </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
-      <c r="U124">
-        <v>1.8</v>
-      </c>
-      <c r="V124">
-        <v>2</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>3.5</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867487</v>
+        <v>6867489</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125">
+        <v>1.666</v>
+      </c>
+      <c r="L125">
+        <v>3.75</v>
+      </c>
+      <c r="M125">
+        <v>4.5</v>
+      </c>
+      <c r="N125">
+        <v>1.615</v>
+      </c>
+      <c r="O125">
         <v>4</v>
       </c>
-      <c r="J125" t="s">
-        <v>41</v>
-      </c>
-      <c r="K125">
-        <v>2.75</v>
-      </c>
-      <c r="L125">
-        <v>3.1</v>
-      </c>
-      <c r="M125">
+      <c r="P125">
+        <v>5.25</v>
+      </c>
+      <c r="Q125">
+        <v>-0.75</v>
+      </c>
+      <c r="R125">
+        <v>1.775</v>
+      </c>
+      <c r="S125">
+        <v>2.025</v>
+      </c>
+      <c r="T125">
         <v>2.5</v>
       </c>
-      <c r="N125">
-        <v>2.75</v>
-      </c>
-      <c r="O125">
-        <v>3.1</v>
-      </c>
-      <c r="P125">
-        <v>2.8</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>1.875</v>
-      </c>
-      <c r="S125">
-        <v>1.925</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
       <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
         <v>1.975</v>
       </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,10 +11652,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
         <v>38</v>
-      </c>
-      <c r="G126" t="s">
-        <v>37</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>2.3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867495</v>
+        <v>6867490</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>42</v>
       </c>
       <c r="K128">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L128">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N128">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O128">
         <v>4</v>
       </c>
       <c r="P128">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867492</v>
+        <v>6867491</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -11934,61 +11934,61 @@
         <v>42</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P129">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.9</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
         <v>1.8</v>
       </c>
-      <c r="S129">
-        <v>2</v>
-      </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.95</v>
-      </c>
-      <c r="V129">
-        <v>1.85</v>
-      </c>
       <c r="W129">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>0.8</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>0.95</v>
-      </c>
-      <c r="AC129">
-        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867493</v>
+        <v>6867492</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,58 +12008,58 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N130">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>1.9</v>
+        <v>0.833</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12068,13 +12068,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867490</v>
+        <v>6867493</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12112,61 +12112,61 @@
         <v>43</v>
       </c>
       <c r="K131">
+        <v>3.3</v>
+      </c>
+      <c r="L131">
+        <v>3.3</v>
+      </c>
+      <c r="M131">
+        <v>2.2</v>
+      </c>
+      <c r="N131">
+        <v>2.9</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>2.4</v>
+      </c>
+      <c r="Q131">
+        <v>0.25</v>
+      </c>
+      <c r="R131">
         <v>1.75</v>
       </c>
-      <c r="L131">
-        <v>3.75</v>
-      </c>
-      <c r="M131">
-        <v>4.5</v>
-      </c>
-      <c r="N131">
-        <v>1.533</v>
-      </c>
-      <c r="O131">
-        <v>4</v>
-      </c>
-      <c r="P131">
-        <v>6.5</v>
-      </c>
-      <c r="Q131">
-        <v>-1</v>
-      </c>
-      <c r="R131">
-        <v>1.9</v>
-      </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X131">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867491</v>
+        <v>6867495</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
       </c>
       <c r="K132">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M132">
         <v>5.25</v>
       </c>
       <c r="N132">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P132">
         <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X132">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,10 +12275,10 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
         <v>3.6</v>
@@ -12345,6 +12345,80 @@
       </c>
       <c r="AC133">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7911472</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45359.5625</v>
+      </c>
+      <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s">
+        <v>38</v>
+      </c>
+      <c r="K134">
+        <v>6.5</v>
+      </c>
+      <c r="L134">
+        <v>3.75</v>
+      </c>
+      <c r="M134">
+        <v>1.444</v>
+      </c>
+      <c r="N134">
+        <v>6</v>
+      </c>
+      <c r="O134">
+        <v>3.6</v>
+      </c>
+      <c r="P134">
+        <v>1.5</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+      <c r="R134">
+        <v>1.975</v>
+      </c>
+      <c r="S134">
+        <v>1.825</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.8</v>
+      </c>
+      <c r="V134">
+        <v>2</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -106,31 +106,31 @@
     <t>Dukla Banska Bystrica</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>MFK Skalica</t>
   </si>
   <si>
-    <t>MFK Skalica</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
     <t>FC Kosice</t>
   </si>
   <si>
+    <t>MSK Zilina</t>
+  </si>
+  <si>
     <t>FC Spartak Trnava</t>
   </si>
   <si>
-    <t>MSK Zilina</t>
-  </si>
-  <si>
     <t>MFK Ruzomberok</t>
-  </si>
-  <si>
-    <t>Dunajska Streda</t>
   </si>
   <si>
     <t>AS Trencin</t>
   </si>
   <si>
     <t>Slovan Bratislava</t>
+  </si>
+  <si>
+    <t>Dunajska Streda</t>
   </si>
   <si>
     <t>FC Vion Zlate Moravce</t>
@@ -142,10 +142,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -720,34 +720,34 @@
         <v>42</v>
       </c>
       <c r="K3">
+        <v>1.909</v>
+      </c>
+      <c r="L3">
         <v>3.4</v>
       </c>
-      <c r="L3">
-        <v>3.3</v>
-      </c>
       <c r="M3">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
         <v>1.85</v>
@@ -756,25 +756,25 @@
         <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -809,34 +809,34 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -845,25 +845,25 @@
         <v>1.95</v>
       </c>
       <c r="W4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N6">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.85</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6832797</v>
+        <v>6832796</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,55 +1242,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1.571</v>
+      </c>
+      <c r="O9">
         <v>4.333</v>
       </c>
-      <c r="M9">
-        <v>6.5</v>
-      </c>
-      <c r="N9">
-        <v>1.5</v>
-      </c>
-      <c r="O9">
-        <v>4.5</v>
-      </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832796</v>
+        <v>6831641</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,37 +1331,37 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>43</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N10">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R10">
         <v>1.95</v>
@@ -1370,34 +1370,34 @@
         <v>1.85</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6831641</v>
+        <v>6832797</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,10 +1420,10 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1432,58 +1432,58 @@
         <v>42</v>
       </c>
       <c r="K11">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="L11">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="N11">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P11">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q11">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>4.333</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832800</v>
+        <v>6831731</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,58 +1773,58 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
+        <v>1.8</v>
+      </c>
+      <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>1.65</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>5.25</v>
+      </c>
+      <c r="Q15">
+        <v>-0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
         <v>1.95</v>
       </c>
-      <c r="L15">
-        <v>3.5</v>
-      </c>
-      <c r="M15">
-        <v>3.5</v>
-      </c>
-      <c r="N15">
-        <v>2.3</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
-      <c r="P15">
-        <v>2.875</v>
-      </c>
-      <c r="Q15">
-        <v>-0.25</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1.8</v>
-      </c>
-      <c r="T15">
-        <v>3.25</v>
-      </c>
-      <c r="U15">
-        <v>1.975</v>
-      </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1833,16 +1833,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,10 +1862,10 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>3.2</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6831731</v>
+        <v>6832800</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>1.95</v>
+      </c>
+      <c r="L18">
+        <v>3.5</v>
+      </c>
+      <c r="M18">
+        <v>3.5</v>
+      </c>
+      <c r="N18">
+        <v>2.3</v>
+      </c>
+      <c r="O18">
+        <v>3.75</v>
+      </c>
+      <c r="P18">
+        <v>2.875</v>
+      </c>
+      <c r="Q18">
+        <v>-0.25</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>3.25</v>
+      </c>
+      <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
+        <v>1.825</v>
+      </c>
+      <c r="W18">
+        <v>1.3</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>1.8</v>
-      </c>
-      <c r="L18">
-        <v>3.6</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>1.65</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <v>5.25</v>
-      </c>
-      <c r="Q18">
-        <v>-0.75</v>
-      </c>
-      <c r="R18">
-        <v>1.8</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.95</v>
-      </c>
-      <c r="V18">
-        <v>1.85</v>
-      </c>
-      <c r="W18">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>0.4</v>
-      </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2221,7 +2221,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2396,7 +2396,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>1.727</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2666,7 +2666,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832809</v>
+        <v>6832810</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832810</v>
+        <v>6832809</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>1.4</v>
+      </c>
+      <c r="L27">
+        <v>4.5</v>
+      </c>
+      <c r="M27">
+        <v>6.5</v>
+      </c>
+      <c r="N27">
+        <v>1.6</v>
+      </c>
+      <c r="O27">
+        <v>4.333</v>
+      </c>
+      <c r="P27">
+        <v>5.25</v>
+      </c>
+      <c r="Q27">
+        <v>-1</v>
+      </c>
+      <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
+        <v>1.825</v>
+      </c>
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27">
-        <v>1.6</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27">
-        <v>1.7</v>
-      </c>
-      <c r="O27">
-        <v>4</v>
-      </c>
-      <c r="P27">
-        <v>4.75</v>
-      </c>
-      <c r="Q27">
-        <v>-0.75</v>
-      </c>
-      <c r="R27">
-        <v>1.875</v>
-      </c>
-      <c r="S27">
-        <v>1.925</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z27">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,10 +2930,10 @@
         <v>45165.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>3.25</v>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832813</v>
+        <v>6832814</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,58 +3197,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3257,16 +3257,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832814</v>
+        <v>6832813</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,16 +3346,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,10 +3375,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>1.571</v>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3642,7 +3642,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -3731,10 +3731,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>2.15</v>
@@ -3909,10 +3909,10 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6867408</v>
+        <v>6867407</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,76 +4176,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N42">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
         <v>1.85</v>
       </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867407</v>
+        <v>6867408</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
+        <v>1.7</v>
+      </c>
+      <c r="O43">
         <v>4</v>
       </c>
-      <c r="O43">
-        <v>3.6</v>
-      </c>
       <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>-0.75</v>
+      </c>
+      <c r="R43">
         <v>1.85</v>
       </c>
-      <c r="Q43">
-        <v>0.5</v>
-      </c>
-      <c r="R43">
+      <c r="S43">
         <v>1.95</v>
       </c>
-      <c r="S43">
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
         <v>1.85</v>
       </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
-      <c r="U43">
-        <v>1.975</v>
-      </c>
-      <c r="V43">
-        <v>1.825</v>
-      </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>0.95</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z43">
-        <v>-1</v>
-      </c>
-      <c r="AA43">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
-      <c r="AC43">
-        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>40</v>
@@ -4443,10 +4443,10 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4532,7 +4532,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4799,10 +4799,10 @@
         <v>45198.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>1.727</v>
@@ -4888,7 +4888,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>1.615</v>
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5155,10 +5155,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5247,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>1.727</v>
@@ -5422,7 +5422,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5511,10 +5511,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>3.3</v>
@@ -5600,7 +5600,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5692,7 +5692,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,10 +5778,10 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5870,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867429</v>
+        <v>6867425</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,58 +5956,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N62">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6016,13 +6016,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867425</v>
+        <v>6867424</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,73 +6045,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63">
+        <v>2.5</v>
+      </c>
+      <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
+        <v>2.6</v>
+      </c>
+      <c r="N63">
+        <v>2.5</v>
+      </c>
+      <c r="O63">
+        <v>3.6</v>
+      </c>
+      <c r="P63">
+        <v>2.625</v>
+      </c>
+      <c r="Q63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>43</v>
-      </c>
-      <c r="K63">
-        <v>1.85</v>
-      </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>3.8</v>
-      </c>
-      <c r="N63">
-        <v>1.6</v>
-      </c>
-      <c r="O63">
-        <v>4</v>
-      </c>
-      <c r="P63">
-        <v>5.75</v>
-      </c>
-      <c r="Q63">
-        <v>-1</v>
-      </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6867427</v>
+        <v>6867429</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
       </c>
       <c r="K64">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N64">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O64">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867424</v>
+        <v>6867427</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,46 +6223,46 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65">
+        <v>1.55</v>
+      </c>
+      <c r="L65">
         <v>4</v>
       </c>
-      <c r="J65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K65">
-        <v>2.5</v>
-      </c>
-      <c r="L65">
-        <v>3.4</v>
-      </c>
       <c r="M65">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N65">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>2.5</v>
@@ -6277,22 +6277,22 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y65">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,10 +6312,10 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>1.9</v>
@@ -6490,10 +6490,10 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6867430</v>
+        <v>6867431</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,55 +6579,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
+        <v>2.5</v>
+      </c>
+      <c r="L69">
+        <v>3.2</v>
+      </c>
+      <c r="M69">
+        <v>2.6</v>
+      </c>
+      <c r="N69">
+        <v>2.3</v>
+      </c>
+      <c r="O69">
+        <v>3.25</v>
+      </c>
+      <c r="P69">
+        <v>3.2</v>
+      </c>
+      <c r="Q69">
+        <v>-0.25</v>
+      </c>
+      <c r="R69">
+        <v>2.025</v>
+      </c>
+      <c r="S69">
+        <v>1.775</v>
+      </c>
+      <c r="T69">
         <v>2.25</v>
       </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>2.8</v>
-      </c>
-      <c r="N69">
-        <v>2.875</v>
-      </c>
-      <c r="O69">
-        <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>2.45</v>
-      </c>
-      <c r="Q69">
-        <v>0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.725</v>
-      </c>
-      <c r="S69">
+      <c r="U69">
         <v>1.975</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.75</v>
-      </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6636,19 +6636,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6867431</v>
+        <v>6867430</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,55 +6668,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6725,19 +6725,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,10 +6757,10 @@
         <v>45228.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6846,7 +6846,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.25</v>
@@ -6935,10 +6935,10 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>1.2</v>
@@ -7027,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867441</v>
+        <v>6867436</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L75">
+        <v>3.3</v>
+      </c>
+      <c r="M75">
+        <v>1.909</v>
+      </c>
+      <c r="N75">
+        <v>4.75</v>
+      </c>
+      <c r="O75">
         <v>3.75</v>
       </c>
-      <c r="M75">
-        <v>1.727</v>
-      </c>
-      <c r="N75">
-        <v>4.5</v>
-      </c>
-      <c r="O75">
-        <v>3.8</v>
-      </c>
       <c r="P75">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
         <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867440</v>
+        <v>6867439</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,10 +7202,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7214,46 +7214,46 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
+        <v>8</v>
+      </c>
+      <c r="N76">
+        <v>1.333</v>
+      </c>
+      <c r="O76">
+        <v>5.25</v>
+      </c>
+      <c r="P76">
+        <v>9</v>
+      </c>
+      <c r="Q76">
+        <v>-1.5</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
         <v>2.75</v>
       </c>
-      <c r="N76">
-        <v>2.7</v>
-      </c>
-      <c r="O76">
-        <v>3.1</v>
-      </c>
-      <c r="P76">
-        <v>2.75</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>1.85</v>
-      </c>
-      <c r="S76">
-        <v>1.95</v>
-      </c>
-      <c r="T76">
-        <v>2</v>
-      </c>
       <c r="U76">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7262,16 +7262,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867436</v>
+        <v>6867440</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,10 +7294,10 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7306,52 +7306,52 @@
         <v>42</v>
       </c>
       <c r="K77">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7360,7 +7360,7 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867439</v>
+        <v>6867441</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L78">
+        <v>3.75</v>
+      </c>
+      <c r="M78">
+        <v>1.727</v>
+      </c>
+      <c r="N78">
         <v>4.5</v>
       </c>
-      <c r="M78">
-        <v>8</v>
-      </c>
-      <c r="N78">
-        <v>1.333</v>
-      </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
+        <v>1.85</v>
+      </c>
+      <c r="S78">
         <v>1.95</v>
       </c>
-      <c r="S78">
-        <v>1.85</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7558,10 +7558,10 @@
         <v>45240.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7647,7 +7647,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>1.5</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867445</v>
+        <v>6867443</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M82">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="N82">
+        <v>1.615</v>
+      </c>
+      <c r="O82">
         <v>4.2</v>
       </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>0.825</v>
       </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867443</v>
+        <v>6867445</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,10 +7914,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8006,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -8181,7 +8181,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
         <v>39</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
         <v>1.285</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867451</v>
+        <v>6867450</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K88">
+        <v>1.4</v>
+      </c>
+      <c r="L88">
+        <v>4.75</v>
+      </c>
+      <c r="M88">
         <v>6</v>
       </c>
-      <c r="L88">
-        <v>4.5</v>
-      </c>
-      <c r="M88">
-        <v>1.444</v>
-      </c>
       <c r="N88">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P88">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q88">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867452</v>
+        <v>6867451</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,46 +8362,46 @@
         <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
       </c>
       <c r="K89">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N89">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8416,19 +8416,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6867450</v>
+        <v>6867452</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90" t="s">
+        <v>41</v>
+      </c>
+      <c r="K90">
+        <v>2.45</v>
+      </c>
+      <c r="L90">
+        <v>3.3</v>
+      </c>
+      <c r="M90">
+        <v>2.625</v>
+      </c>
+      <c r="N90">
+        <v>2.625</v>
+      </c>
+      <c r="O90">
+        <v>3.4</v>
+      </c>
+      <c r="P90">
+        <v>2.55</v>
+      </c>
+      <c r="Q90">
         <v>0</v>
       </c>
-      <c r="J90" t="s">
-        <v>43</v>
-      </c>
-      <c r="K90">
-        <v>1.4</v>
-      </c>
-      <c r="L90">
-        <v>4.75</v>
-      </c>
-      <c r="M90">
-        <v>6</v>
-      </c>
-      <c r="N90">
-        <v>1.333</v>
-      </c>
-      <c r="O90">
-        <v>5.5</v>
-      </c>
-      <c r="P90">
-        <v>7</v>
-      </c>
-      <c r="Q90">
-        <v>-1.25</v>
-      </c>
       <c r="R90">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.55</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6867456</v>
+        <v>6867454</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
+        <v>0.475</v>
+      </c>
+      <c r="AB93">
+        <v>0.4375</v>
+      </c>
+      <c r="AC93">
         <v>-0.5</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7528661</v>
+        <v>6867456</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2.1</v>
+      </c>
+      <c r="N94">
+        <v>3.1</v>
+      </c>
+      <c r="O94">
         <v>3.5</v>
       </c>
-      <c r="M94">
-        <v>2.875</v>
-      </c>
-      <c r="N94">
+      <c r="P94">
         <v>2.2</v>
       </c>
-      <c r="O94">
-        <v>3.6</v>
-      </c>
-      <c r="P94">
-        <v>3</v>
-      </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
         <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y94">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94">
-        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6867454</v>
+        <v>7528661</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,10 +8893,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8908,41 +8908,41 @@
         <v>41</v>
       </c>
       <c r="K95">
+        <v>2.15</v>
+      </c>
+      <c r="L95">
+        <v>3.5</v>
+      </c>
+      <c r="M95">
+        <v>2.875</v>
+      </c>
+      <c r="N95">
+        <v>2.2</v>
+      </c>
+      <c r="O95">
         <v>3.6</v>
       </c>
-      <c r="L95">
-        <v>3.6</v>
-      </c>
-      <c r="M95">
+      <c r="P95">
+        <v>3</v>
+      </c>
+      <c r="Q95">
+        <v>-0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
         <v>1.85</v>
       </c>
-      <c r="N95">
-        <v>3.75</v>
-      </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
-      <c r="P95">
-        <v>1.85</v>
-      </c>
-      <c r="Q95">
-        <v>0.75</v>
-      </c>
-      <c r="R95">
+      <c r="T95">
+        <v>3</v>
+      </c>
+      <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
         <v>1.75</v>
       </c>
-      <c r="S95">
-        <v>1.95</v>
-      </c>
-      <c r="T95">
-        <v>2.75</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
@@ -8950,19 +8950,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
+        <v>2</v>
+      </c>
+      <c r="Z95">
+        <v>-1</v>
+      </c>
+      <c r="AA95">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z95">
-        <v>-0.5</v>
-      </c>
-      <c r="AA95">
-        <v>0.475</v>
-      </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,10 +8982,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9071,7 +9071,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>1.285</v>
@@ -9160,10 +9160,10 @@
         <v>45268.5625</v>
       </c>
       <c r="F98" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s">
         <v>34</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>2.4</v>
@@ -9249,10 +9249,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
         <v>30</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>2.5</v>
@@ -9350,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>2.3</v>
@@ -9430,7 +9430,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9605,10 +9605,10 @@
         <v>45270.5625</v>
       </c>
       <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" t="s">
         <v>36</v>
-      </c>
-      <c r="G103" t="s">
-        <v>37</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9694,7 +9694,7 @@
         <v>45275.5625</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>3.8</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867470</v>
+        <v>6867467</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>42</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
+        <v>7</v>
+      </c>
+      <c r="N105">
+        <v>1.333</v>
+      </c>
+      <c r="O105">
+        <v>5</v>
+      </c>
+      <c r="P105">
+        <v>9</v>
+      </c>
+      <c r="Q105">
+        <v>-1.5</v>
+      </c>
+      <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="N105">
-        <v>2.55</v>
-      </c>
-      <c r="O105">
-        <v>3.2</v>
-      </c>
-      <c r="P105">
-        <v>2.875</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.775</v>
-      </c>
-      <c r="S105">
-        <v>2.025</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6867471</v>
+        <v>6867470</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,58 +9961,58 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N107">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.95</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.8</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10050,10 +10050,10 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>1.285</v>
@@ -10139,10 +10139,10 @@
         <v>45277.5625</v>
       </c>
       <c r="F109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
         <v>38</v>
-      </c>
-      <c r="G109" t="s">
-        <v>36</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>1.666</v>
@@ -10228,10 +10228,10 @@
         <v>45331.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867475</v>
+        <v>6867473</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,10 +10317,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10329,46 +10329,46 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M111">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N111">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867473</v>
+        <v>6867477</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,58 +10495,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>31</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K113">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="M113">
+        <v>6.5</v>
+      </c>
+      <c r="N113">
+        <v>1.6</v>
+      </c>
+      <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>5.5</v>
       </c>
-      <c r="N113">
-        <v>1.5</v>
-      </c>
-      <c r="O113">
-        <v>4.333</v>
-      </c>
-      <c r="P113">
-        <v>6.5</v>
-      </c>
       <c r="Q113">
         <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10561,10 +10561,10 @@
         <v>-0</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867477</v>
+        <v>6867475</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,58 +10584,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K114">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L114">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N114">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W114">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10644,16 +10644,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K115">
         <v>1.4</v>
@@ -10765,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867481</v>
+        <v>6867479</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
+        <v>2.25</v>
+      </c>
+      <c r="N117">
+        <v>4.2</v>
+      </c>
+      <c r="O117">
+        <v>3.8</v>
+      </c>
+      <c r="P117">
+        <v>1.8</v>
+      </c>
+      <c r="Q117">
+        <v>0.75</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
         <v>3</v>
       </c>
-      <c r="N117">
-        <v>2.1</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
-      <c r="P117">
-        <v>3.75</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.775</v>
-      </c>
-      <c r="S117">
-        <v>2.025</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y117">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,10 +10940,10 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>3.1</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867479</v>
+        <v>6867481</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>2.1</v>
+      </c>
+      <c r="O119">
+        <v>3.3</v>
+      </c>
+      <c r="P119">
+        <v>3.75</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.775</v>
+      </c>
+      <c r="S119">
+        <v>2.025</v>
+      </c>
+      <c r="T119">
         <v>2.25</v>
       </c>
-      <c r="N119">
-        <v>4.2</v>
-      </c>
-      <c r="O119">
-        <v>3.8</v>
-      </c>
-      <c r="P119">
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
         <v>1.8</v>
       </c>
-      <c r="Q119">
-        <v>0.75</v>
-      </c>
-      <c r="R119">
-        <v>1.825</v>
-      </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
-      <c r="T119">
-        <v>3</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
         <v>1.142</v>
@@ -11207,10 +11207,10 @@
         <v>45340.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11299,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>2.375</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867488</v>
+        <v>6867489</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,73 +11388,73 @@
         <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>42</v>
       </c>
       <c r="K123">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="O123">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X123">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867487</v>
+        <v>6867488</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N124">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P124">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y124">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867489</v>
+        <v>6867487</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125" t="s">
+        <v>41</v>
+      </c>
+      <c r="K125">
+        <v>2.75</v>
+      </c>
+      <c r="L125">
+        <v>3.1</v>
+      </c>
+      <c r="M125">
+        <v>2.5</v>
+      </c>
+      <c r="N125">
+        <v>2.75</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
+        <v>2.8</v>
+      </c>
+      <c r="Q125">
         <v>0</v>
       </c>
-      <c r="J125" t="s">
-        <v>43</v>
-      </c>
-      <c r="K125">
-        <v>1.666</v>
-      </c>
-      <c r="L125">
-        <v>3.75</v>
-      </c>
-      <c r="M125">
-        <v>4.5</v>
-      </c>
-      <c r="N125">
-        <v>1.615</v>
-      </c>
-      <c r="O125">
-        <v>4</v>
-      </c>
-      <c r="P125">
-        <v>5.25</v>
-      </c>
-      <c r="Q125">
-        <v>-0.75</v>
-      </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
         <v>1.825</v>
       </c>
-      <c r="V125">
-        <v>1.975</v>
-      </c>
       <c r="W125">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z125">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,10 +11652,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F126" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" t="s">
         <v>37</v>
-      </c>
-      <c r="G126" t="s">
-        <v>38</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>2.3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867490</v>
+        <v>6867493</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,13 +11830,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11845,61 +11845,61 @@
         <v>42</v>
       </c>
       <c r="K128">
+        <v>3.3</v>
+      </c>
+      <c r="L128">
+        <v>3.3</v>
+      </c>
+      <c r="M128">
+        <v>2.2</v>
+      </c>
+      <c r="N128">
+        <v>2.9</v>
+      </c>
+      <c r="O128">
+        <v>3.4</v>
+      </c>
+      <c r="P128">
+        <v>2.4</v>
+      </c>
+      <c r="Q128">
+        <v>0.25</v>
+      </c>
+      <c r="R128">
         <v>1.75</v>
       </c>
-      <c r="L128">
-        <v>3.75</v>
-      </c>
-      <c r="M128">
-        <v>4.5</v>
-      </c>
-      <c r="N128">
-        <v>1.533</v>
-      </c>
-      <c r="O128">
-        <v>4</v>
-      </c>
-      <c r="P128">
-        <v>6.5</v>
-      </c>
-      <c r="Q128">
-        <v>-1</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867491</v>
+        <v>6867494</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
+        <v>2.05</v>
+      </c>
+      <c r="N129">
         <v>5.25</v>
       </c>
-      <c r="N129">
-        <v>1.571</v>
-      </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
+        <v>1.95</v>
+      </c>
+      <c r="S129">
+        <v>1.85</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
         <v>1.9</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>1.9</v>
       </c>
-      <c r="T129">
-        <v>3</v>
-      </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
-      <c r="V129">
-        <v>1.8</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
-      <c r="AC129">
-        <v>0.8</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867492</v>
+        <v>6867495</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,58 +12008,58 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>42</v>
+      </c>
+      <c r="K130">
+        <v>1.615</v>
+      </c>
+      <c r="L130">
+        <v>3.8</v>
+      </c>
+      <c r="M130">
+        <v>5.25</v>
+      </c>
+      <c r="N130">
+        <v>1.615</v>
+      </c>
+      <c r="O130">
         <v>4</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
-        <v>43</v>
-      </c>
-      <c r="K130">
-        <v>2.05</v>
-      </c>
-      <c r="L130">
-        <v>3.4</v>
-      </c>
-      <c r="M130">
-        <v>3.6</v>
-      </c>
-      <c r="N130">
-        <v>1.833</v>
-      </c>
-      <c r="O130">
-        <v>3.75</v>
-      </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="V130">
-        <v>1.85</v>
-      </c>
       <c r="W130">
-        <v>0.833</v>
+        <v>0.615</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12068,16 +12068,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.95</v>
-      </c>
-      <c r="AC130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867493</v>
+        <v>6867490</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12112,61 +12112,61 @@
         <v>43</v>
       </c>
       <c r="K131">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867495</v>
+        <v>6867492</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,58 +12186,58 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L132">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N132">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
-        <v>0.615</v>
+        <v>0.833</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867494</v>
+        <v>6867491</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M133">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N133">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,16 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>41</v>
       </c>
       <c r="K134">
         <v>6.5</v>
@@ -12382,42 +12391,196 @@
         <v>6</v>
       </c>
       <c r="O134">
+        <v>3.75</v>
+      </c>
+      <c r="P134">
+        <v>1.65</v>
+      </c>
+      <c r="Q134">
+        <v>0.75</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
+        <v>1.975</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z134">
+        <v>-0.5</v>
+      </c>
+      <c r="AA134">
+        <v>0.425</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7911421</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s">
+        <v>40</v>
+      </c>
+      <c r="K135">
+        <v>1.95</v>
+      </c>
+      <c r="L135">
         <v>3.6</v>
       </c>
-      <c r="P134">
-        <v>1.5</v>
-      </c>
-      <c r="Q134">
-        <v>1</v>
-      </c>
-      <c r="R134">
-        <v>1.975</v>
-      </c>
-      <c r="S134">
-        <v>1.825</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
+      <c r="M135">
+        <v>3.1</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135">
+        <v>3.8</v>
+      </c>
+      <c r="P135">
+        <v>3.4</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
         <v>1.8</v>
       </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
-      <c r="W134">
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
+        <v>1.925</v>
+      </c>
+      <c r="V135">
+        <v>1.875</v>
+      </c>
+      <c r="W135">
         <v>0</v>
       </c>
-      <c r="X134">
+      <c r="X135">
         <v>0</v>
       </c>
-      <c r="Y134">
+      <c r="Y135">
         <v>0</v>
       </c>
-      <c r="Z134">
+      <c r="Z135">
         <v>0</v>
       </c>
-      <c r="AA134">
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7911422</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" t="s">
+        <v>38</v>
+      </c>
+      <c r="K136">
+        <v>1.95</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>3.5</v>
+      </c>
+      <c r="N136">
+        <v>1.909</v>
+      </c>
+      <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
+        <v>4</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,19 @@
     <t>Dukla Banska Bystrica</t>
   </si>
   <si>
-    <t>MFK Skalica</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>MFK Skalica</t>
   </si>
   <si>
     <t>FC Kosice</t>
   </si>
   <si>
-    <t>MSK Zilina</t>
+    <t>FC Spartak Trnava</t>
   </si>
   <si>
-    <t>FC Spartak Trnava</t>
+    <t>MSK Zilina</t>
   </si>
   <si>
     <t>MFK Ruzomberok</t>
@@ -127,10 +127,10 @@
     <t>AS Trencin</t>
   </si>
   <si>
-    <t>Slovan Bratislava</t>
+    <t>Dunajska Streda</t>
   </si>
   <si>
-    <t>Dunajska Streda</t>
+    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>FC Vion Zlate Moravce</t>
@@ -142,10 +142,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -720,34 +720,34 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>1.85</v>
@@ -756,25 +756,25 @@
         <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -809,34 +809,34 @@
         <v>43</v>
       </c>
       <c r="K4">
+        <v>1.909</v>
+      </c>
+      <c r="L4">
         <v>3.4</v>
       </c>
-      <c r="L4">
-        <v>3.3</v>
-      </c>
       <c r="M4">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -845,25 +845,25 @@
         <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X4">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
       <c r="W6">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z6">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.75</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6831641</v>
+        <v>6832797</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,10 +1331,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1343,58 +1343,58 @@
         <v>43</v>
       </c>
       <c r="K10">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832797</v>
+        <v>6831641</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,10 +1420,10 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1432,58 +1432,58 @@
         <v>42</v>
       </c>
       <c r="K11">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="L11">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="M11">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O11">
+        <v>5.5</v>
+      </c>
+      <c r="P11">
+        <v>7.5</v>
+      </c>
+      <c r="Q11">
+        <v>-1.5</v>
+      </c>
+      <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>1.85</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>1.925</v>
+      </c>
+      <c r="V11">
+        <v>1.875</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>4.5</v>
       </c>
-      <c r="P11">
-        <v>6.5</v>
-      </c>
-      <c r="Q11">
-        <v>-1.25</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1.8</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.8</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>0.5</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>4.333</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.8</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6831642</v>
+        <v>6832800</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L16">
         <v>3.5</v>
       </c>
       <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16">
+        <v>2.3</v>
+      </c>
+      <c r="O16">
+        <v>3.75</v>
+      </c>
+      <c r="P16">
+        <v>2.875</v>
+      </c>
+      <c r="Q16">
+        <v>-0.25</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
         <v>1.8</v>
       </c>
-      <c r="N16">
-        <v>4.2</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>1.909</v>
-      </c>
-      <c r="Q16">
-        <v>0.5</v>
-      </c>
-      <c r="R16">
-        <v>1.925</v>
-      </c>
-      <c r="S16">
-        <v>1.875</v>
-      </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
         <v>3.2</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832800</v>
+        <v>6831642</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,73 +2040,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
         <v>3.5</v>
       </c>
       <c r="M18">
+        <v>1.8</v>
+      </c>
+      <c r="N18">
+        <v>4.2</v>
+      </c>
+      <c r="O18">
         <v>3.5</v>
       </c>
-      <c r="N18">
-        <v>2.3</v>
-      </c>
-      <c r="O18">
-        <v>3.75</v>
-      </c>
       <c r="P18">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2221,7 +2221,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2396,7 +2396,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>1.727</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>1.8</v>
@@ -2752,7 +2752,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -2764,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>1.6</v>
@@ -2841,7 +2841,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -2930,10 +2930,10 @@
         <v>45165.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>3.25</v>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832814</v>
+        <v>6832813</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,58 +3197,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N31">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3257,16 +3257,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832813</v>
+        <v>6832814</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,16 +3346,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,10 +3375,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
         <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>1.571</v>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6867400</v>
+        <v>6867405</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
+        <v>3.1</v>
+      </c>
+      <c r="N36">
+        <v>2.15</v>
+      </c>
+      <c r="O36">
         <v>3.4</v>
-      </c>
-      <c r="N36">
-        <v>2.05</v>
-      </c>
-      <c r="O36">
-        <v>3.6</v>
       </c>
       <c r="P36">
         <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,10 +3731,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867405</v>
+        <v>6867400</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
         <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,10 +3909,10 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
         <v>38</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6867407</v>
+        <v>6867406</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,52 +4179,52 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
         <v>41</v>
       </c>
       <c r="K42">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N42">
+        <v>5.75</v>
+      </c>
+      <c r="O42">
         <v>4</v>
       </c>
-      <c r="O42">
-        <v>3.6</v>
-      </c>
       <c r="P42">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4233,19 +4233,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867408</v>
+        <v>6867407</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N43">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
         <v>1.85</v>
       </c>
-      <c r="S43">
-        <v>1.95</v>
-      </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6867406</v>
+        <v>6867408</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y44">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,10 +4443,10 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4532,7 +4532,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4799,10 +4799,10 @@
         <v>45198.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>1.727</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
         <v>1.615</v>
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s">
         <v>38</v>
       </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N54">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>1.727</v>
@@ -5422,7 +5422,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5511,10 +5511,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
         <v>3.3</v>
@@ -5600,7 +5600,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5692,7 +5692,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5870,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867425</v>
+        <v>6867424</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,73 +5956,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>2.6</v>
+      </c>
+      <c r="N62">
+        <v>2.5</v>
+      </c>
+      <c r="O62">
         <v>3.6</v>
       </c>
-      <c r="M62">
-        <v>3.8</v>
-      </c>
-      <c r="N62">
-        <v>1.6</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>1.975</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867424</v>
+        <v>6867429</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,73 +6045,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>2.5</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>2.7</v>
+      </c>
+      <c r="N63">
+        <v>2.7</v>
+      </c>
+      <c r="O63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>2.6</v>
-      </c>
-      <c r="N63">
-        <v>2.5</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
       <c r="P63">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6867429</v>
+        <v>6867425</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,58 +6134,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>5</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N64">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6194,13 +6194,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6226,7 +6226,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>1.55</v>
@@ -6312,10 +6312,10 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>1.9</v>
@@ -6490,10 +6490,10 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6867431</v>
+        <v>6867430</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,55 +6579,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6636,19 +6636,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6867430</v>
+        <v>6867431</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,55 +6668,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
+        <v>2.5</v>
+      </c>
+      <c r="L70">
+        <v>3.2</v>
+      </c>
+      <c r="M70">
+        <v>2.6</v>
+      </c>
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
+        <v>3.25</v>
+      </c>
+      <c r="P70">
+        <v>3.2</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>2.025</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
         <v>2.25</v>
       </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>2.8</v>
-      </c>
-      <c r="N70">
-        <v>2.875</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
-      <c r="P70">
-        <v>2.45</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.725</v>
-      </c>
-      <c r="S70">
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.75</v>
-      </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6725,19 +6725,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6846,7 +6846,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.25</v>
@@ -6935,10 +6935,10 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>1.2</v>
@@ -7027,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867436</v>
+        <v>6867440</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,10 +7116,10 @@
         <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7128,52 +7128,52 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867439</v>
+        <v>6867441</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L76">
+        <v>3.75</v>
+      </c>
+      <c r="M76">
+        <v>1.727</v>
+      </c>
+      <c r="N76">
         <v>4.5</v>
       </c>
-      <c r="M76">
-        <v>8</v>
-      </c>
-      <c r="N76">
-        <v>1.333</v>
-      </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P76">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q76">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
+        <v>1.85</v>
+      </c>
+      <c r="S76">
         <v>1.95</v>
       </c>
-      <c r="S76">
-        <v>1.85</v>
-      </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867440</v>
+        <v>6867436</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,10 +7294,10 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7306,52 +7306,52 @@
         <v>42</v>
       </c>
       <c r="K77">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
+        <v>1.909</v>
+      </c>
+      <c r="N77">
+        <v>4.75</v>
+      </c>
+      <c r="O77">
+        <v>3.75</v>
+      </c>
+      <c r="P77">
+        <v>1.75</v>
+      </c>
+      <c r="Q77">
+        <v>0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.875</v>
+      </c>
+      <c r="S77">
+        <v>1.925</v>
+      </c>
+      <c r="T77">
         <v>2.75</v>
       </c>
-      <c r="N77">
-        <v>2.7</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
+      <c r="U77">
+        <v>1.875</v>
+      </c>
+      <c r="V77">
+        <v>1.925</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.85</v>
-      </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
-        <v>2</v>
-      </c>
-      <c r="U77">
-        <v>1.775</v>
-      </c>
-      <c r="V77">
-        <v>2.025</v>
-      </c>
-      <c r="W77">
-        <v>1.7</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7360,7 +7360,7 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867441</v>
+        <v>6867439</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P78">
-        <v>1.727</v>
+        <v>9</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7561,7 +7561,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867447</v>
+        <v>6867443</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,13 +7647,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -7662,61 +7662,61 @@
         <v>43</v>
       </c>
       <c r="K81">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L81">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N81">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
         <v>4.2</v>
       </c>
       <c r="P81">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q81">
         <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X81">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867443</v>
+        <v>6867445</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="N82">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M83">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N83">
+        <v>1.55</v>
+      </c>
+      <c r="O83">
         <v>4.2</v>
       </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
       <c r="P83">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,10 +7914,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8006,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -8181,7 +8181,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
         <v>39</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>1.285</v>
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867450</v>
+        <v>6867451</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <v>4.5</v>
+      </c>
+      <c r="M88">
+        <v>1.444</v>
+      </c>
+      <c r="N88">
+        <v>7.5</v>
+      </c>
+      <c r="O88">
+        <v>4.75</v>
+      </c>
+      <c r="P88">
         <v>1.4</v>
       </c>
-      <c r="L88">
-        <v>4.75</v>
-      </c>
-      <c r="M88">
-        <v>6</v>
-      </c>
-      <c r="N88">
-        <v>1.333</v>
-      </c>
-      <c r="O88">
-        <v>5.5</v>
-      </c>
-      <c r="P88">
-        <v>7</v>
-      </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867451</v>
+        <v>6867450</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
+        <v>1.4</v>
+      </c>
+      <c r="L89">
+        <v>4.75</v>
+      </c>
+      <c r="M89">
         <v>6</v>
       </c>
-      <c r="L89">
-        <v>4.5</v>
-      </c>
-      <c r="M89">
-        <v>1.444</v>
-      </c>
       <c r="N89">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P89">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q89">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8540,7 +8540,7 @@
         <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8718,7 +8718,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -8982,10 +8982,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9071,7 +9071,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.285</v>
@@ -9160,10 +9160,10 @@
         <v>45268.5625</v>
       </c>
       <c r="F98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
         <v>33</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>2.4</v>
@@ -9249,10 +9249,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s">
         <v>31</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>2.5</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867460</v>
+        <v>6867461</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100">
+        <v>3.25</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3.5</v>
+      </c>
+      <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
+        <v>1.85</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>1</v>
       </c>
-      <c r="I100">
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
         <v>1</v>
       </c>
-      <c r="J100" t="s">
-        <v>43</v>
-      </c>
-      <c r="K100">
-        <v>2.3</v>
-      </c>
-      <c r="L100">
-        <v>3.3</v>
-      </c>
-      <c r="M100">
-        <v>2.875</v>
-      </c>
-      <c r="N100">
-        <v>2.75</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
-        <v>2.75</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.875</v>
-      </c>
-      <c r="S100">
-        <v>1.925</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
-        <v>-0</v>
-      </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867461</v>
+        <v>6867460</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N101">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U101">
+        <v>1.85</v>
+      </c>
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9605,7 +9605,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
         <v>36</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9694,7 +9694,7 @@
         <v>45275.5625</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.8</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867467</v>
+        <v>6867470</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>42</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N105">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="Q105">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6867470</v>
+        <v>6867471</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
+        <v>2.6</v>
+      </c>
+      <c r="N106">
+        <v>2.9</v>
+      </c>
+      <c r="O106">
+        <v>3.3</v>
+      </c>
+      <c r="P106">
+        <v>2.4</v>
+      </c>
+      <c r="Q106">
+        <v>0.25</v>
+      </c>
+      <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
         <v>2.75</v>
       </c>
-      <c r="N106">
-        <v>2.55</v>
-      </c>
-      <c r="O106">
-        <v>3.2</v>
-      </c>
-      <c r="P106">
-        <v>2.875</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>1.775</v>
-      </c>
-      <c r="S106">
-        <v>2.025</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
       <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
+        <v>1.85</v>
+      </c>
+      <c r="W106">
         <v>1.9</v>
       </c>
-      <c r="V106">
-        <v>1.9</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
       <c r="X106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6867471</v>
+        <v>6867467</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,58 +9961,58 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M107">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N107">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.95</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.8</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.95</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10050,10 +10050,10 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>1.285</v>
@@ -10139,10 +10139,10 @@
         <v>45277.5625</v>
       </c>
       <c r="F109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" t="s">
         <v>37</v>
-      </c>
-      <c r="G109" t="s">
-        <v>38</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>1.666</v>
@@ -10228,10 +10228,10 @@
         <v>45331.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867473</v>
+        <v>6867477</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,58 +10317,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
         <v>30</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L111">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="M111">
+        <v>6.5</v>
+      </c>
+      <c r="N111">
+        <v>1.6</v>
+      </c>
+      <c r="O111">
+        <v>4.2</v>
+      </c>
+      <c r="P111">
         <v>5.5</v>
       </c>
-      <c r="N111">
-        <v>1.5</v>
-      </c>
-      <c r="O111">
-        <v>4.333</v>
-      </c>
-      <c r="P111">
-        <v>6.5</v>
-      </c>
       <c r="Q111">
         <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10383,10 +10383,10 @@
         <v>-0</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867477</v>
+        <v>6867475</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,58 +10495,58 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L113">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N113">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W113">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10555,16 +10555,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867475</v>
+        <v>6867473</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,10 +10584,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10596,46 +10596,46 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M114">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P114">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10644,16 +10644,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.4</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867482</v>
+        <v>6867481</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,37 +10943,37 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O118">
         <v>3.3</v>
       </c>
       <c r="P118">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
         <v>1.775</v>
@@ -10985,31 +10985,31 @@
         <v>2.25</v>
       </c>
       <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867481</v>
+        <v>6867482</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,37 +11032,37 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O119">
         <v>3.3</v>
       </c>
       <c r="P119">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
         <v>1.775</v>
@@ -11074,31 +11074,31 @@
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y119">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>1.142</v>
@@ -11207,10 +11207,10 @@
         <v>45340.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11299,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.375</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867489</v>
+        <v>6867487</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.825</v>
       </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
       <c r="W123">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,10 +11474,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K124">
         <v>1.45</v>
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867487</v>
+        <v>6867489</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125">
+        <v>1.666</v>
+      </c>
+      <c r="L125">
+        <v>3.75</v>
+      </c>
+      <c r="M125">
+        <v>4.5</v>
+      </c>
+      <c r="N125">
+        <v>1.615</v>
+      </c>
+      <c r="O125">
         <v>4</v>
       </c>
-      <c r="J125" t="s">
-        <v>41</v>
-      </c>
-      <c r="K125">
-        <v>2.75</v>
-      </c>
-      <c r="L125">
-        <v>3.1</v>
-      </c>
-      <c r="M125">
+      <c r="P125">
+        <v>5.25</v>
+      </c>
+      <c r="Q125">
+        <v>-0.75</v>
+      </c>
+      <c r="R125">
+        <v>1.775</v>
+      </c>
+      <c r="S125">
+        <v>2.025</v>
+      </c>
+      <c r="T125">
         <v>2.5</v>
       </c>
-      <c r="N125">
-        <v>2.75</v>
-      </c>
-      <c r="O125">
-        <v>3.1</v>
-      </c>
-      <c r="P125">
-        <v>2.8</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>1.875</v>
-      </c>
-      <c r="S125">
-        <v>1.925</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
       <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
         <v>1.975</v>
       </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11655,7 +11655,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>2.3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867493</v>
+        <v>6867494</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,49 +11830,49 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>42</v>
       </c>
       <c r="K128">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N128">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
         <v>1.9</v>
@@ -11881,25 +11881,25 @@
         <v>1.9</v>
       </c>
       <c r="W128">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867494</v>
+        <v>6867495</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,61 +11934,61 @@
         <v>43</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M129">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>1.775</v>
+      </c>
+      <c r="S129">
+        <v>2.025</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
         <v>1.95</v>
       </c>
-      <c r="S129">
-        <v>1.85</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
-      <c r="V129">
-        <v>1.9</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X129">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>0.95</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
-      <c r="AC129">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867495</v>
+        <v>6867490</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,70 +12014,70 @@
         <v>34</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N130">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O130">
         <v>4</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867490</v>
+        <v>6867492</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12112,61 +12112,61 @@
         <v>43</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.6</v>
+      </c>
+      <c r="N131">
+        <v>1.833</v>
+      </c>
+      <c r="O131">
         <v>3.75</v>
       </c>
-      <c r="M131">
-        <v>4.5</v>
-      </c>
-      <c r="N131">
-        <v>1.533</v>
-      </c>
-      <c r="O131">
-        <v>4</v>
-      </c>
       <c r="P131">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X131">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867492</v>
+        <v>6867493</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,58 +12186,58 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
+        <v>3.3</v>
+      </c>
+      <c r="L132">
+        <v>3.3</v>
+      </c>
+      <c r="M132">
+        <v>2.2</v>
+      </c>
+      <c r="N132">
+        <v>2.9</v>
+      </c>
+      <c r="O132">
+        <v>3.4</v>
+      </c>
+      <c r="P132">
+        <v>2.4</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.75</v>
+      </c>
+      <c r="S132">
         <v>2.05</v>
       </c>
-      <c r="L132">
-        <v>3.4</v>
-      </c>
-      <c r="M132">
-        <v>3.6</v>
-      </c>
-      <c r="N132">
-        <v>1.833</v>
-      </c>
-      <c r="O132">
-        <v>3.75</v>
-      </c>
-      <c r="P132">
-        <v>4.333</v>
-      </c>
-      <c r="Q132">
-        <v>-0.5</v>
-      </c>
-      <c r="R132">
-        <v>1.8</v>
-      </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>0.833</v>
+        <v>1.9</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12246,13 +12246,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12287,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
         <v>1.571</v>
@@ -12367,7 +12367,7 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7911421</v>
+        <v>7911446</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12450,64 +12450,79 @@
         <v>28</v>
       </c>
       <c r="E135" s="2">
-        <v>45360.5625</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L135">
         <v>3.6</v>
       </c>
       <c r="M135">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="N135">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O135">
         <v>3.8</v>
       </c>
       <c r="P135">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12515,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7911422</v>
+        <v>7911476</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12524,63 +12539,789 @@
         <v>28</v>
       </c>
       <c r="E136" s="2">
-        <v>45361.5625</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>41</v>
       </c>
       <c r="K136">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L136">
         <v>3.2</v>
       </c>
       <c r="M136">
+        <v>2.4</v>
+      </c>
+      <c r="N136">
+        <v>2.9</v>
+      </c>
+      <c r="O136">
+        <v>3.4</v>
+      </c>
+      <c r="P136">
+        <v>2.4</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.75</v>
+      </c>
+      <c r="S136">
+        <v>2.05</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
+        <v>1.825</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>1.4</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>1.05</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7911445</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>41</v>
+      </c>
+      <c r="K137">
+        <v>2.8</v>
+      </c>
+      <c r="L137">
+        <v>3.1</v>
+      </c>
+      <c r="M137">
+        <v>2.3</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
+        <v>2.45</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>2.05</v>
+      </c>
+      <c r="S137">
+        <v>1.75</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
+        <v>1.9</v>
+      </c>
+      <c r="V137">
+        <v>1.9</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>1.45</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.75</v>
+      </c>
+      <c r="AB137">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7911421</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F138" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>43</v>
+      </c>
+      <c r="K138">
+        <v>1.95</v>
+      </c>
+      <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
+        <v>3.1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138">
+        <v>3.8</v>
+      </c>
+      <c r="P138">
+        <v>3.4</v>
+      </c>
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.85</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>1.95</v>
+      </c>
+      <c r="V138">
+        <v>1.85</v>
+      </c>
+      <c r="W138">
+        <v>1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>0.95</v>
+      </c>
+      <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.95</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7911422</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s">
+        <v>37</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>43</v>
+      </c>
+      <c r="K139">
+        <v>1.95</v>
+      </c>
+      <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
         <v>3.5</v>
       </c>
-      <c r="N136">
-        <v>1.909</v>
-      </c>
-      <c r="O136">
+      <c r="N139">
+        <v>1.85</v>
+      </c>
+      <c r="O139">
         <v>3.5</v>
       </c>
-      <c r="P136">
+      <c r="P139">
+        <v>4.333</v>
+      </c>
+      <c r="Q139">
+        <v>-0.5</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.975</v>
+      </c>
+      <c r="V139">
+        <v>1.825</v>
+      </c>
+      <c r="W139">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7911477</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45366.5625</v>
+      </c>
+      <c r="F140" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" t="s">
+        <v>32</v>
+      </c>
+      <c r="K140">
+        <v>2.05</v>
+      </c>
+      <c r="L140">
+        <v>3.3</v>
+      </c>
+      <c r="M140">
+        <v>3.6</v>
+      </c>
+      <c r="N140">
+        <v>2.15</v>
+      </c>
+      <c r="O140">
+        <v>3.3</v>
+      </c>
+      <c r="P140">
+        <v>3.4</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>2.025</v>
+      </c>
+      <c r="V140">
+        <v>1.775</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7911423</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F141" t="s">
+        <v>40</v>
+      </c>
+      <c r="G141" t="s">
+        <v>35</v>
+      </c>
+      <c r="K141">
+        <v>1.8</v>
+      </c>
+      <c r="L141">
+        <v>3.8</v>
+      </c>
+      <c r="M141">
         <v>4</v>
       </c>
-      <c r="Q136">
+      <c r="N141">
+        <v>1.8</v>
+      </c>
+      <c r="O141">
+        <v>3.8</v>
+      </c>
+      <c r="P141">
+        <v>4</v>
+      </c>
+      <c r="Q141">
         <v>-0.5</v>
       </c>
-      <c r="R136">
+      <c r="R141">
+        <v>1.775</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7911447</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s">
+        <v>39</v>
+      </c>
+      <c r="K142">
+        <v>1.55</v>
+      </c>
+      <c r="L142">
+        <v>4.2</v>
+      </c>
+      <c r="M142">
+        <v>5.5</v>
+      </c>
+      <c r="N142">
+        <v>1.55</v>
+      </c>
+      <c r="O142">
+        <v>4.2</v>
+      </c>
+      <c r="P142">
+        <v>5.5</v>
+      </c>
+      <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
         <v>1.9</v>
       </c>
-      <c r="S136">
+      <c r="S142">
         <v>1.9</v>
       </c>
-      <c r="T136">
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.85</v>
+      </c>
+      <c r="V142">
+        <v>1.95</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7911448</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143">
+        <v>1.5</v>
+      </c>
+      <c r="L143">
+        <v>4</v>
+      </c>
+      <c r="M143">
+        <v>7</v>
+      </c>
+      <c r="N143">
+        <v>1.45</v>
+      </c>
+      <c r="O143">
+        <v>4.2</v>
+      </c>
+      <c r="P143">
+        <v>7.5</v>
+      </c>
+      <c r="Q143">
+        <v>-1.25</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
         <v>2.25</v>
       </c>
-      <c r="U136">
+      <c r="U143">
+        <v>1.775</v>
+      </c>
+      <c r="V143">
+        <v>2.025</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7911424</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45367.5625</v>
+      </c>
+      <c r="F144" t="s">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s">
+        <v>34</v>
+      </c>
+      <c r="K144">
+        <v>1.75</v>
+      </c>
+      <c r="L144">
+        <v>3.5</v>
+      </c>
+      <c r="M144">
+        <v>4.5</v>
+      </c>
+      <c r="N144">
+        <v>1.8</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
+        <v>1.95</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
+        <v>1.925</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7912013</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F145" t="s">
+        <v>38</v>
+      </c>
+      <c r="G145" t="s">
+        <v>33</v>
+      </c>
+      <c r="K145">
+        <v>1.444</v>
+      </c>
+      <c r="L145">
+        <v>4.1</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>1.533</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>5.75</v>
+      </c>
+      <c r="Q145">
+        <v>-1</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>1.85</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
         <v>1.9</v>
       </c>
-      <c r="V136">
+      <c r="V145">
         <v>1.9</v>
       </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-      <c r="Y136">
-        <v>0</v>
-      </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-      <c r="AA136">
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -115,22 +115,22 @@
     <t>FC Kosice</t>
   </si>
   <si>
-    <t>FC Spartak Trnava</t>
+    <t>MSK Zilina</t>
   </si>
   <si>
-    <t>MSK Zilina</t>
+    <t>FC Spartak Trnava</t>
   </si>
   <si>
     <t>MFK Ruzomberok</t>
   </si>
   <si>
-    <t>AS Trencin</t>
+    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>Dunajska Streda</t>
   </si>
   <si>
-    <t>Slovan Bratislava</t>
+    <t>AS Trencin</t>
   </si>
   <si>
     <t>FC Vion Zlate Moravce</t>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N6">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.85</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6832796</v>
+        <v>6831641</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,37 +1242,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N9">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P9">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1281,34 +1281,34 @@
         <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6831641</v>
+        <v>6832796</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,37 +1420,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="L11">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P11">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q11">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>1.95</v>
@@ -1459,34 +1459,34 @@
         <v>1.85</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X11">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6831731</v>
+        <v>6832801</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,10 +1862,10 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832801</v>
+        <v>6831642</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N17">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O17">
         <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q17">
         <v>0.5</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6831642</v>
+        <v>6831731</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,49 +2040,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>1.65</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>5.25</v>
+      </c>
+      <c r="Q18">
+        <v>-0.75</v>
+      </c>
+      <c r="R18">
         <v>1.8</v>
       </c>
-      <c r="N18">
-        <v>4.2</v>
-      </c>
-      <c r="O18">
-        <v>3.5</v>
-      </c>
-      <c r="P18">
-        <v>1.909</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.925</v>
-      </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.95</v>
@@ -2091,25 +2091,25 @@
         <v>1.85</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832804</v>
+        <v>6832803</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832803</v>
+        <v>6832804</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6831733</v>
+        <v>6832810</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,73 +2663,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
+        <v>0.4375</v>
+      </c>
+      <c r="AA25">
         <v>-0.5</v>
       </c>
-      <c r="AA25">
-        <v>0.5</v>
-      </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832810</v>
+        <v>6832809</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>1.4</v>
+      </c>
+      <c r="L26">
+        <v>4.5</v>
+      </c>
+      <c r="M26">
+        <v>6.5</v>
+      </c>
+      <c r="N26">
+        <v>1.6</v>
+      </c>
+      <c r="O26">
+        <v>4.333</v>
+      </c>
+      <c r="P26">
+        <v>5.25</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.825</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>1.6</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="N26">
-        <v>1.7</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-      <c r="P26">
-        <v>4.75</v>
-      </c>
-      <c r="Q26">
-        <v>-0.75</v>
-      </c>
-      <c r="R26">
-        <v>1.875</v>
-      </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832809</v>
+        <v>6831733</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>1.8</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>2.75</v>
+      </c>
+      <c r="U27">
+        <v>1.825</v>
+      </c>
+      <c r="V27">
         <v>1.975</v>
       </c>
-      <c r="S27">
-        <v>1.825</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>1.975</v>
-      </c>
-      <c r="V27">
-        <v>1.825</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y27">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
+        <v>0.5</v>
+      </c>
+      <c r="AB27">
         <v>0.825</v>
       </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832813</v>
+        <v>6832814</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,58 +3197,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>43</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3257,16 +3257,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832814</v>
+        <v>6832813</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,16 +3346,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,10 +3375,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3734,7 +3734,7 @@
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3820,7 +3820,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6867406</v>
+        <v>6867408</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,76 +4176,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867407</v>
+        <v>6867406</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,55 +4265,55 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
+        <v>5.75</v>
+      </c>
+      <c r="O43">
         <v>4</v>
       </c>
-      <c r="O43">
-        <v>3.6</v>
-      </c>
       <c r="P43">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4322,19 +4322,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6867408</v>
+        <v>6867407</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N44">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
         <v>1.85</v>
       </c>
-      <c r="S44">
-        <v>1.95</v>
-      </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,10 +4443,10 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4799,7 +4799,7 @@
         <v>45198.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4888,7 +4888,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5158,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5247,7 +5247,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867422</v>
+        <v>6867419</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,67 +5422,67 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O56">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5491,7 +5491,7 @@
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6867419</v>
+        <v>6867422</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,67 +5511,67 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
         <v>3.3</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>3.4</v>
       </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
       <c r="N57">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P57">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>1.75</v>
+      </c>
+      <c r="T57">
+        <v>2.25</v>
+      </c>
+      <c r="U57">
         <v>1.875</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.925</v>
       </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
-      <c r="U57">
-        <v>1.825</v>
-      </c>
-      <c r="V57">
-        <v>1.975</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5580,7 +5580,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5692,7 +5692,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,10 +5778,10 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s">
         <v>38</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867429</v>
+        <v>6867425</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,58 +6045,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>43</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N63">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>1.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6105,13 +6105,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6867425</v>
+        <v>6867429</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,58 +6134,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>5</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>43</v>
       </c>
       <c r="K64">
+        <v>2.5</v>
+      </c>
+      <c r="L64">
+        <v>3.25</v>
+      </c>
+      <c r="M64">
+        <v>2.7</v>
+      </c>
+      <c r="N64">
+        <v>2.7</v>
+      </c>
+      <c r="O64">
+        <v>3.4</v>
+      </c>
+      <c r="P64">
+        <v>2.55</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
         <v>1.85</v>
       </c>
-      <c r="L64">
-        <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>3.8</v>
-      </c>
-      <c r="N64">
-        <v>1.6</v>
-      </c>
-      <c r="O64">
-        <v>4</v>
-      </c>
-      <c r="P64">
-        <v>5.75</v>
-      </c>
-      <c r="Q64">
-        <v>-1</v>
-      </c>
-      <c r="R64">
-        <v>2.025</v>
-      </c>
-      <c r="S64">
-        <v>1.775</v>
-      </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>0.6000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6194,13 +6194,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6223,7 +6223,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6312,10 +6312,10 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6582,7 +6582,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6757,10 +6757,10 @@
         <v>45228.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6846,7 +6846,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6935,7 +6935,7 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>30</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867440</v>
+        <v>6867439</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,10 +7113,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7128,43 +7128,43 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
+        <v>8</v>
+      </c>
+      <c r="N75">
+        <v>1.333</v>
+      </c>
+      <c r="O75">
+        <v>5.25</v>
+      </c>
+      <c r="P75">
+        <v>9</v>
+      </c>
+      <c r="Q75">
+        <v>-1.5</v>
+      </c>
+      <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>1.85</v>
+      </c>
+      <c r="T75">
         <v>2.75</v>
       </c>
-      <c r="N75">
-        <v>2.7</v>
-      </c>
-      <c r="O75">
-        <v>3.1</v>
-      </c>
-      <c r="P75">
-        <v>2.75</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>1.85</v>
-      </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>2</v>
-      </c>
       <c r="U75">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7173,16 +7173,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867441</v>
+        <v>6867436</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L76">
+        <v>3.3</v>
+      </c>
+      <c r="M76">
+        <v>1.909</v>
+      </c>
+      <c r="N76">
+        <v>4.75</v>
+      </c>
+      <c r="O76">
         <v>3.75</v>
       </c>
-      <c r="M76">
-        <v>1.727</v>
-      </c>
-      <c r="N76">
-        <v>4.5</v>
-      </c>
-      <c r="O76">
-        <v>3.8</v>
-      </c>
       <c r="P76">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q76">
         <v>0.75</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y76">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867436</v>
+        <v>6867440</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,67 +7291,67 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7360,7 +7360,7 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867439</v>
+        <v>6867441</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L78">
+        <v>3.75</v>
+      </c>
+      <c r="M78">
+        <v>1.727</v>
+      </c>
+      <c r="N78">
         <v>4.5</v>
       </c>
-      <c r="M78">
-        <v>8</v>
-      </c>
-      <c r="N78">
-        <v>1.333</v>
-      </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
+        <v>1.85</v>
+      </c>
+      <c r="S78">
         <v>1.95</v>
       </c>
-      <c r="S78">
-        <v>1.85</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7558,10 +7558,10 @@
         <v>45240.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N82">
+        <v>1.55</v>
+      </c>
+      <c r="O82">
         <v>4.2</v>
       </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867447</v>
+        <v>6867445</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L83">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8006,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6867448</v>
+        <v>6867451</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M87">
-        <v>8.5</v>
+        <v>1.444</v>
       </c>
       <c r="N87">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="O87">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q87">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867451</v>
+        <v>6867448</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="L88">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>1.444</v>
+        <v>8.5</v>
       </c>
       <c r="N88">
+        <v>1.333</v>
+      </c>
+      <c r="O88">
+        <v>5.5</v>
+      </c>
+      <c r="P88">
         <v>7.5</v>
       </c>
-      <c r="O88">
-        <v>4.75</v>
-      </c>
-      <c r="P88">
-        <v>1.4</v>
-      </c>
       <c r="Q88">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R88">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8540,7 +8540,7 @@
         <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6867454</v>
+        <v>7528661</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,10 +8715,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8730,41 +8730,41 @@
         <v>41</v>
       </c>
       <c r="K93">
+        <v>2.15</v>
+      </c>
+      <c r="L93">
+        <v>3.5</v>
+      </c>
+      <c r="M93">
+        <v>2.875</v>
+      </c>
+      <c r="N93">
+        <v>2.2</v>
+      </c>
+      <c r="O93">
         <v>3.6</v>
       </c>
-      <c r="L93">
-        <v>3.6</v>
-      </c>
-      <c r="M93">
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>-0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.85</v>
       </c>
-      <c r="N93">
-        <v>3.75</v>
-      </c>
-      <c r="O93">
-        <v>3.8</v>
-      </c>
-      <c r="P93">
-        <v>1.85</v>
-      </c>
-      <c r="Q93">
-        <v>0.75</v>
-      </c>
-      <c r="R93">
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
         <v>1.75</v>
       </c>
-      <c r="S93">
-        <v>1.95</v>
-      </c>
-      <c r="T93">
-        <v>2.75</v>
-      </c>
-      <c r="U93">
-        <v>1.875</v>
-      </c>
-      <c r="V93">
-        <v>1.925</v>
-      </c>
       <c r="W93">
         <v>-1</v>
       </c>
@@ -8772,19 +8772,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
+        <v>2</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z93">
-        <v>-0.5</v>
-      </c>
-      <c r="AA93">
-        <v>0.475</v>
-      </c>
       <c r="AB93">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7528661</v>
+        <v>6867454</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,10 +8893,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8908,40 +8908,40 @@
         <v>41</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N95">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
+        <v>1.75</v>
+      </c>
+      <c r="S95">
         <v>1.95</v>
       </c>
-      <c r="S95">
-        <v>1.85</v>
-      </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8950,19 +8950,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -9071,7 +9071,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9160,10 +9160,10 @@
         <v>45268.5625</v>
       </c>
       <c r="F98" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s">
         <v>34</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6867464</v>
+        <v>6867461</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="J99" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99">
+        <v>3.25</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>3.5</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
+        <v>1.85</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>1</v>
       </c>
-      <c r="I99">
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
         <v>1</v>
       </c>
-      <c r="J99" t="s">
-        <v>42</v>
-      </c>
-      <c r="K99">
-        <v>2.5</v>
-      </c>
-      <c r="L99">
-        <v>3.2</v>
-      </c>
-      <c r="M99">
-        <v>2.7</v>
-      </c>
-      <c r="N99">
-        <v>2.375</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
-      <c r="P99">
-        <v>3.1</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>2.025</v>
-      </c>
-      <c r="V99">
-        <v>1.775</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.3</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>-0.5</v>
-      </c>
-      <c r="AA99">
-        <v>0.4125</v>
-      </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867461</v>
+        <v>6867460</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100">
+        <v>2.3</v>
+      </c>
+      <c r="L100">
+        <v>3.3</v>
+      </c>
+      <c r="M100">
+        <v>2.875</v>
+      </c>
+      <c r="N100">
+        <v>2.75</v>
+      </c>
+      <c r="O100">
+        <v>3.1</v>
+      </c>
+      <c r="P100">
+        <v>2.75</v>
+      </c>
+      <c r="Q100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>6</v>
-      </c>
-      <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100">
-        <v>3.25</v>
-      </c>
-      <c r="L100">
-        <v>3.5</v>
-      </c>
-      <c r="M100">
-        <v>2</v>
-      </c>
-      <c r="N100">
-        <v>3.5</v>
-      </c>
-      <c r="O100">
-        <v>3.75</v>
-      </c>
-      <c r="P100">
-        <v>2</v>
-      </c>
-      <c r="Q100">
-        <v>0.5</v>
-      </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
         <v>1.95</v>
       </c>
-      <c r="V100">
-        <v>1.85</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867460</v>
+        <v>6867464</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,10 +9427,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9442,61 +9442,61 @@
         <v>42</v>
       </c>
       <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
+        <v>3.2</v>
+      </c>
+      <c r="M101">
+        <v>2.7</v>
+      </c>
+      <c r="N101">
+        <v>2.375</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
+        <v>3.1</v>
+      </c>
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.975</v>
+      </c>
+      <c r="S101">
+        <v>1.825</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
+        <v>1.775</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>2.3</v>
       </c>
-      <c r="L101">
-        <v>3.3</v>
-      </c>
-      <c r="M101">
-        <v>2.875</v>
-      </c>
-      <c r="N101">
-        <v>2.75</v>
-      </c>
-      <c r="O101">
-        <v>3.1</v>
-      </c>
-      <c r="P101">
-        <v>2.75</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.1</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867470</v>
+        <v>6867467</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,73 +9783,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
+        <v>7</v>
+      </c>
+      <c r="N105">
+        <v>1.333</v>
+      </c>
+      <c r="O105">
+        <v>5</v>
+      </c>
+      <c r="P105">
+        <v>9</v>
+      </c>
+      <c r="Q105">
+        <v>-1.5</v>
+      </c>
+      <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="N105">
-        <v>2.55</v>
-      </c>
-      <c r="O105">
-        <v>3.2</v>
-      </c>
-      <c r="P105">
-        <v>2.875</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.775</v>
-      </c>
-      <c r="S105">
-        <v>2.025</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6867471</v>
+        <v>6867470</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,13 +9961,13 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -9976,43 +9976,43 @@
         <v>43</v>
       </c>
       <c r="K107">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N107">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.95</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.8</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10050,7 +10050,7 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10139,7 +10139,7 @@
         <v>45277.5625</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10228,10 +10228,10 @@
         <v>45331.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867474</v>
+        <v>6867475</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,19 +10406,19 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>3.25</v>
@@ -10430,52 +10430,52 @@
         <v>2.1</v>
       </c>
       <c r="N112">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867475</v>
+        <v>6867473</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,10 +10495,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10510,43 +10510,43 @@
         <v>43</v>
       </c>
       <c r="K113">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P113">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10555,16 +10555,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867473</v>
+        <v>6867474</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K114">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L114">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N114">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O114">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10765,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11118,7 +11118,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11207,7 +11207,7 @@
         <v>45340.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>37</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867487</v>
+        <v>6867489</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123">
+        <v>1.666</v>
+      </c>
+      <c r="L123">
+        <v>3.75</v>
+      </c>
+      <c r="M123">
+        <v>4.5</v>
+      </c>
+      <c r="N123">
+        <v>1.615</v>
+      </c>
+      <c r="O123">
         <v>4</v>
       </c>
-      <c r="J123" t="s">
-        <v>41</v>
-      </c>
-      <c r="K123">
-        <v>2.75</v>
-      </c>
-      <c r="L123">
-        <v>3.1</v>
-      </c>
-      <c r="M123">
+      <c r="P123">
+        <v>5.25</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.775</v>
+      </c>
+      <c r="S123">
+        <v>2.025</v>
+      </c>
+      <c r="T123">
         <v>2.5</v>
       </c>
-      <c r="N123">
-        <v>2.75</v>
-      </c>
-      <c r="O123">
-        <v>3.1</v>
-      </c>
-      <c r="P123">
-        <v>2.8</v>
-      </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>1.875</v>
-      </c>
-      <c r="S123">
-        <v>1.925</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
       <c r="U123">
+        <v>1.825</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="V123">
-        <v>1.825</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
         <v>30</v>
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867489</v>
+        <v>6867487</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125" t="s">
+        <v>41</v>
+      </c>
+      <c r="K125">
+        <v>2.75</v>
+      </c>
+      <c r="L125">
+        <v>3.1</v>
+      </c>
+      <c r="M125">
+        <v>2.5</v>
+      </c>
+      <c r="N125">
+        <v>2.75</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
+        <v>2.8</v>
+      </c>
+      <c r="Q125">
         <v>0</v>
       </c>
-      <c r="J125" t="s">
-        <v>43</v>
-      </c>
-      <c r="K125">
-        <v>1.666</v>
-      </c>
-      <c r="L125">
-        <v>3.75</v>
-      </c>
-      <c r="M125">
-        <v>4.5</v>
-      </c>
-      <c r="N125">
-        <v>1.615</v>
-      </c>
-      <c r="O125">
-        <v>4</v>
-      </c>
-      <c r="P125">
-        <v>5.25</v>
-      </c>
-      <c r="Q125">
-        <v>-0.75</v>
-      </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
         <v>1.825</v>
       </c>
-      <c r="V125">
-        <v>1.975</v>
-      </c>
       <c r="W125">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z125">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,10 +11652,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" t="s">
         <v>36</v>
-      </c>
-      <c r="G126" t="s">
-        <v>38</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867495</v>
+        <v>6867493</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,58 +11919,58 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L129">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N129">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>0.615</v>
+        <v>1.9</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11979,16 +11979,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867490</v>
+        <v>6867492</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.6</v>
+      </c>
+      <c r="N130">
+        <v>1.833</v>
+      </c>
+      <c r="O130">
         <v>3.75</v>
       </c>
-      <c r="M130">
-        <v>4.5</v>
-      </c>
-      <c r="N130">
-        <v>1.533</v>
-      </c>
-      <c r="O130">
-        <v>4</v>
-      </c>
       <c r="P130">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867492</v>
+        <v>6867495</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,58 +12097,58 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M131">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="N131">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
         <v>1.95</v>
       </c>
-      <c r="V131">
-        <v>1.85</v>
-      </c>
       <c r="W131">
-        <v>0.833</v>
+        <v>0.615</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12157,16 +12157,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.95</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867493</v>
+        <v>6867490</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N132">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7911446</v>
+        <v>7911476</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12453,76 +12453,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K135">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="N135">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O135">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q135">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7911476</v>
+        <v>7911445</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,13 +12542,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -12557,40 +12557,40 @@
         <v>41</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L136">
+        <v>3.1</v>
+      </c>
+      <c r="M136">
+        <v>2.3</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136">
         <v>3.2</v>
       </c>
-      <c r="M136">
-        <v>2.4</v>
-      </c>
-      <c r="N136">
-        <v>2.9</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
       <c r="P136">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
+        <v>2.05</v>
+      </c>
+      <c r="S136">
         <v>1.75</v>
       </c>
-      <c r="S136">
-        <v>2.05</v>
-      </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12599,19 +12599,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7911445</v>
+        <v>7911446</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,49 +12631,49 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
         <v>1.9</v>
@@ -12685,22 +12685,22 @@
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y137">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>45360.5625</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
@@ -12809,7 +12809,7 @@
         <v>45361.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
         <v>37</v>
@@ -12903,6 +12903,15 @@
       <c r="G140" t="s">
         <v>32</v>
       </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>43</v>
+      </c>
       <c r="K140">
         <v>2.05</v>
       </c>
@@ -12913,46 +12922,52 @@
         <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
         <v>3.3</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12960,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7911423</v>
+        <v>7911447</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12972,61 +12987,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="L141">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Y141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13034,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7911447</v>
+        <v>7911448</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13046,61 +13076,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142" t="s">
+        <v>41</v>
       </c>
       <c r="K142">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N142">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O142">
         <v>4.2</v>
       </c>
       <c r="P142">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
+        <v>2.025</v>
+      </c>
+      <c r="S142">
+        <v>1.775</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
         <v>1.9</v>
       </c>
-      <c r="S142">
+      <c r="V142">
         <v>1.9</v>
       </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
-      <c r="U142">
-        <v>1.85</v>
-      </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
       <c r="W142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB142">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC142">
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13108,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7911448</v>
+        <v>7911423</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13120,61 +13165,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143" t="s">
+        <v>41</v>
       </c>
       <c r="K143">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
+        <v>3.8</v>
+      </c>
+      <c r="M143">
         <v>4</v>
       </c>
-      <c r="M143">
-        <v>7</v>
-      </c>
       <c r="N143">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O143">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P143">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13197,7 +13257,16 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>43</v>
       </c>
       <c r="K144">
         <v>1.75</v>
@@ -13209,46 +13278,52 @@
         <v>4.5</v>
       </c>
       <c r="N144">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q144">
         <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
         <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.825</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -13268,10 +13343,10 @@
         <v>45368.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K145">
         <v>1.444</v>
@@ -13283,31 +13358,31 @@
         <v>7</v>
       </c>
       <c r="N145">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R145">
+        <v>1.85</v>
+      </c>
+      <c r="S145">
         <v>1.95</v>
       </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
         <v>0</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Dukla Banska Bystrica</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>MFK Skalica</t>
   </si>
   <si>
-    <t>MFK Skalica</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
     <t>FC Kosice</t>
@@ -124,13 +124,13 @@
     <t>MFK Ruzomberok</t>
   </si>
   <si>
-    <t>Slovan Bratislava</t>
-  </si>
-  <si>
     <t>Dunajska Streda</t>
   </si>
   <si>
     <t>AS Trencin</t>
+  </si>
+  <si>
+    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>FC Vion Zlate Moravce</t>
@@ -142,10 +142,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -720,34 +720,34 @@
         <v>42</v>
       </c>
       <c r="K3">
+        <v>1.909</v>
+      </c>
+      <c r="L3">
         <v>3.4</v>
       </c>
-      <c r="L3">
-        <v>3.3</v>
-      </c>
       <c r="M3">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
         <v>1.85</v>
@@ -756,25 +756,25 @@
         <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -809,34 +809,34 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -845,25 +845,25 @@
         <v>1.95</v>
       </c>
       <c r="W4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>2.3</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6831641</v>
+        <v>6832797</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,10 +1242,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -1254,58 +1254,58 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832797</v>
+        <v>6832796</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,55 +1331,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L10">
+        <v>3.6</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.571</v>
+      </c>
+      <c r="O10">
         <v>4.333</v>
       </c>
-      <c r="M10">
-        <v>6.5</v>
-      </c>
-      <c r="N10">
-        <v>1.5</v>
-      </c>
-      <c r="O10">
-        <v>4.5</v>
-      </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832796</v>
+        <v>6831641</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,37 +1420,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>43</v>
       </c>
       <c r="K11">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P11">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R11">
         <v>1.95</v>
@@ -1459,34 +1459,34 @@
         <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>4.333</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832801</v>
+        <v>6831642</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O15">
         <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q15">
         <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832800</v>
+        <v>6831731</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,58 +1862,58 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
+        <v>1.8</v>
+      </c>
+      <c r="L16">
+        <v>3.6</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>1.65</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>5.25</v>
+      </c>
+      <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>1.95</v>
       </c>
-      <c r="L16">
-        <v>3.5</v>
-      </c>
-      <c r="M16">
-        <v>3.5</v>
-      </c>
-      <c r="N16">
-        <v>2.3</v>
-      </c>
-      <c r="O16">
-        <v>3.75</v>
-      </c>
-      <c r="P16">
-        <v>2.875</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>1.8</v>
-      </c>
-      <c r="T16">
-        <v>3.25</v>
-      </c>
-      <c r="U16">
-        <v>1.975</v>
-      </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1922,16 +1922,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6831642</v>
+        <v>6832800</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,73 +1951,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L17">
         <v>3.5</v>
       </c>
       <c r="M17">
+        <v>3.5</v>
+      </c>
+      <c r="N17">
+        <v>2.3</v>
+      </c>
+      <c r="O17">
+        <v>3.75</v>
+      </c>
+      <c r="P17">
+        <v>2.875</v>
+      </c>
+      <c r="Q17">
+        <v>-0.25</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
         <v>1.8</v>
       </c>
-      <c r="N17">
-        <v>4.2</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
-      <c r="P17">
-        <v>1.909</v>
-      </c>
-      <c r="Q17">
-        <v>0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.925</v>
-      </c>
-      <c r="S17">
-        <v>1.875</v>
-      </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6831731</v>
+        <v>6832801</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832803</v>
+        <v>6832804</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832804</v>
+        <v>6832803</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>1.727</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832810</v>
+        <v>6832809</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>1.4</v>
+      </c>
+      <c r="L25">
+        <v>4.5</v>
+      </c>
+      <c r="M25">
+        <v>6.5</v>
+      </c>
+      <c r="N25">
+        <v>1.6</v>
+      </c>
+      <c r="O25">
+        <v>4.333</v>
+      </c>
+      <c r="P25">
+        <v>5.25</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
+        <v>1.825</v>
+      </c>
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>1.6</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <v>1.7</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="P25">
-        <v>4.75</v>
-      </c>
-      <c r="Q25">
-        <v>-0.75</v>
-      </c>
-      <c r="R25">
-        <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z25">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832809</v>
+        <v>6831733</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
         <v>37</v>
       </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L26">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N26">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.825</v>
+      </c>
+      <c r="V26">
         <v>1.975</v>
       </c>
-      <c r="S26">
-        <v>1.825</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.825</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y26">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
+        <v>0.5</v>
+      </c>
+      <c r="AB26">
         <v>0.825</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6831733</v>
+        <v>6832810</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,13 +2841,13 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2856,58 +2856,58 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X27">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.4375</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.5</v>
-      </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>45165.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>3.25</v>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832814</v>
+        <v>6832813</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,58 +3197,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N31">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3257,16 +3257,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832813</v>
+        <v>6832814</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,16 +3346,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>1.571</v>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>2.15</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867404</v>
+        <v>6867400</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -3746,40 +3746,40 @@
         <v>41</v>
       </c>
       <c r="K37">
+        <v>1.909</v>
+      </c>
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
         <v>3.4</v>
       </c>
-      <c r="L37">
-        <v>3.3</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
       <c r="N37">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,16 +3788,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.615</v>
+        <v>2.4</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867400</v>
+        <v>6867404</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>4</v>
@@ -3835,58 +3835,58 @@
         <v>41</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q38">
+        <v>0.75</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>1.8</v>
+      </c>
+      <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
+        <v>1.75</v>
+      </c>
+      <c r="V38">
+        <v>1.95</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>0.615</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.9</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>2.4</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3909,10 +3909,10 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6867408</v>
+        <v>6867406</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,76 +4176,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N42">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6867406</v>
+        <v>6867407</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,52 +4268,52 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N43">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4322,19 +4322,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6867407</v>
+        <v>6867408</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
+        <v>1.7</v>
+      </c>
+      <c r="O44">
         <v>4</v>
       </c>
-      <c r="O44">
-        <v>3.6</v>
-      </c>
       <c r="P44">
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <v>-0.75</v>
+      </c>
+      <c r="R44">
         <v>1.85</v>
       </c>
-      <c r="Q44">
-        <v>0.5</v>
-      </c>
-      <c r="R44">
+      <c r="S44">
         <v>1.95</v>
       </c>
-      <c r="S44">
+      <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
         <v>1.85</v>
       </c>
-      <c r="T44">
-        <v>2.5</v>
-      </c>
-      <c r="U44">
-        <v>1.975</v>
-      </c>
-      <c r="V44">
-        <v>1.825</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
+        <v>0.95</v>
+      </c>
+      <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z44">
-        <v>-1</v>
-      </c>
-      <c r="AA44">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
-      <c r="AC44">
-        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4802,7 +4802,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>1.727</v>
@@ -4888,7 +4888,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>1.615</v>
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5158,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>34</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>1.727</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6867419</v>
+        <v>6867422</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,64 +5425,64 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>42</v>
       </c>
       <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
         <v>3.3</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>3.4</v>
       </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
       <c r="N56">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>1.75</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.875</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.925</v>
       </c>
-      <c r="T56">
-        <v>2.75</v>
-      </c>
-      <c r="U56">
-        <v>1.825</v>
-      </c>
-      <c r="V56">
-        <v>1.975</v>
-      </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5491,7 +5491,7 @@
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6867422</v>
+        <v>6867419</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,64 +5514,64 @@
         <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>43</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O57">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5580,7 +5580,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5778,10 +5778,10 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5870,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867424</v>
+        <v>6867425</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,73 +5956,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>1.85</v>
+      </c>
+      <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>3.8</v>
+      </c>
+      <c r="N62">
+        <v>1.6</v>
+      </c>
+      <c r="O62">
         <v>4</v>
       </c>
-      <c r="J62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62">
-        <v>2.5</v>
-      </c>
-      <c r="L62">
-        <v>3.4</v>
-      </c>
-      <c r="M62">
-        <v>2.6</v>
-      </c>
-      <c r="N62">
-        <v>2.5</v>
-      </c>
-      <c r="O62">
-        <v>3.6</v>
-      </c>
       <c r="P62">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
+        <v>1.975</v>
+      </c>
+      <c r="V62">
         <v>1.825</v>
       </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867425</v>
+        <v>6867427</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,13 +6045,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6060,61 +6060,61 @@
         <v>43</v>
       </c>
       <c r="K63">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867427</v>
+        <v>6867424</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,46 +6223,46 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N65">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O65">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
         <v>2.5</v>
@@ -6277,22 +6277,22 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB65">
         <v>0.825</v>
       </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
       <c r="AC65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>1.9</v>
@@ -6490,10 +6490,10 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6867430</v>
+        <v>6867431</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,55 +6579,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
+        <v>2.5</v>
+      </c>
+      <c r="L69">
+        <v>3.2</v>
+      </c>
+      <c r="M69">
+        <v>2.6</v>
+      </c>
+      <c r="N69">
+        <v>2.3</v>
+      </c>
+      <c r="O69">
+        <v>3.25</v>
+      </c>
+      <c r="P69">
+        <v>3.2</v>
+      </c>
+      <c r="Q69">
+        <v>-0.25</v>
+      </c>
+      <c r="R69">
+        <v>2.025</v>
+      </c>
+      <c r="S69">
+        <v>1.775</v>
+      </c>
+      <c r="T69">
         <v>2.25</v>
       </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>2.8</v>
-      </c>
-      <c r="N69">
-        <v>2.875</v>
-      </c>
-      <c r="O69">
-        <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>2.45</v>
-      </c>
-      <c r="Q69">
-        <v>0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.725</v>
-      </c>
-      <c r="S69">
+      <c r="U69">
         <v>1.975</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.75</v>
-      </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6636,19 +6636,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6867431</v>
+        <v>6867430</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,55 +6668,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6725,19 +6725,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>45228.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6846,7 +6846,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.25</v>
@@ -6935,10 +6935,10 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>1.2</v>
@@ -7027,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867439</v>
+        <v>6867436</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7128,31 +7128,31 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L75">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="N75">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O75">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
@@ -7164,19 +7164,19 @@
         <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867436</v>
+        <v>6867440</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,10 +7205,10 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7217,52 +7217,52 @@
         <v>42</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N76">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O76">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X76">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867440</v>
+        <v>6867441</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="N77">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
         <v>1.85</v>
@@ -7333,34 +7333,34 @@
         <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867441</v>
+        <v>6867439</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N78">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P78">
-        <v>1.727</v>
+        <v>9</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7558,7 +7558,7 @@
         <v>45240.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7650,7 +7650,7 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>1.6</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867447</v>
+        <v>6867445</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N82">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M83">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N83">
+        <v>1.55</v>
+      </c>
+      <c r="O83">
         <v>4.2</v>
       </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
       <c r="P83">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,10 +7914,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -8181,10 +8181,10 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>1.285</v>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6867450</v>
+        <v>6867452</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L89">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O89">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.55</v>
+        <v>0.825</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6867452</v>
+        <v>6867450</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K90">
+        <v>1.4</v>
+      </c>
+      <c r="L90">
+        <v>4.75</v>
+      </c>
+      <c r="M90">
+        <v>6</v>
+      </c>
+      <c r="N90">
+        <v>1.333</v>
+      </c>
+      <c r="O90">
+        <v>5.5</v>
+      </c>
+      <c r="P90">
+        <v>7</v>
+      </c>
+      <c r="Q90">
+        <v>-1.25</v>
+      </c>
+      <c r="R90">
+        <v>1.7</v>
+      </c>
+      <c r="S90">
+        <v>2.1</v>
+      </c>
+      <c r="T90">
         <v>3</v>
       </c>
-      <c r="J90" t="s">
-        <v>41</v>
-      </c>
-      <c r="K90">
-        <v>2.45</v>
-      </c>
-      <c r="L90">
-        <v>3.3</v>
-      </c>
-      <c r="M90">
-        <v>2.625</v>
-      </c>
-      <c r="N90">
-        <v>2.625</v>
-      </c>
-      <c r="O90">
-        <v>3.4</v>
-      </c>
-      <c r="P90">
-        <v>2.55</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.975</v>
-      </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.55</v>
       </c>
       <c r="AB90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8715,7 +8715,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6867456</v>
+        <v>6867454</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N94">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
         <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z94">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
+        <v>0.475</v>
+      </c>
+      <c r="AB94">
+        <v>0.4375</v>
+      </c>
+      <c r="AC94">
         <v>-0.5</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
-      <c r="AC94">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6867454</v>
+        <v>6867456</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N95">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0.45</v>
+      </c>
+      <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z95">
-        <v>-0.5</v>
-      </c>
-      <c r="AA95">
-        <v>0.475</v>
-      </c>
-      <c r="AB95">
-        <v>0.4375</v>
-      </c>
-      <c r="AC95">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9071,7 +9071,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>1.285</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>2.4</v>
@@ -9252,7 +9252,7 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867460</v>
+        <v>6867464</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9350,64 +9350,64 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
+        <v>2.5</v>
+      </c>
+      <c r="L100">
+        <v>3.2</v>
+      </c>
+      <c r="M100">
+        <v>2.7</v>
+      </c>
+      <c r="N100">
+        <v>2.375</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
+        <v>3.1</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
+        <v>1.825</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
+        <v>1.775</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>2.3</v>
       </c>
-      <c r="L100">
-        <v>3.3</v>
-      </c>
-      <c r="M100">
-        <v>2.875</v>
-      </c>
-      <c r="N100">
-        <v>2.75</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
-        <v>2.75</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.875</v>
-      </c>
-      <c r="S100">
-        <v>1.925</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.1</v>
-      </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867464</v>
+        <v>6867460</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,10 +9427,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9439,64 +9439,64 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N101">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9605,11 +9605,11 @@
         <v>45270.5625</v>
       </c>
       <c r="F103" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" t="s">
         <v>37</v>
       </c>
-      <c r="G103" t="s">
-        <v>38</v>
-      </c>
       <c r="H103">
         <v>0</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9694,7 +9694,7 @@
         <v>45275.5625</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>3.8</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N105">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q105">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.8</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.95</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>0.8</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6867470</v>
+        <v>6867467</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,73 +9872,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>42</v>
       </c>
       <c r="K106">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
+        <v>7</v>
+      </c>
+      <c r="N106">
+        <v>1.333</v>
+      </c>
+      <c r="O106">
+        <v>5</v>
+      </c>
+      <c r="P106">
+        <v>9</v>
+      </c>
+      <c r="Q106">
+        <v>-1.5</v>
+      </c>
+      <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
+        <v>1.85</v>
+      </c>
+      <c r="T106">
         <v>2.75</v>
       </c>
-      <c r="N106">
-        <v>2.55</v>
-      </c>
-      <c r="O106">
-        <v>3.2</v>
-      </c>
-      <c r="P106">
-        <v>2.875</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>1.775</v>
-      </c>
-      <c r="S106">
-        <v>2.025</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6867471</v>
+        <v>6867470</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,73 +9961,73 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N107">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10053,7 +10053,7 @@
         <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>1.285</v>
@@ -10139,10 +10139,10 @@
         <v>45277.5625</v>
       </c>
       <c r="F109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109" t="s">
         <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>1.666</v>
@@ -10231,7 +10231,7 @@
         <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10320,7 +10320,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
         <v>1.444</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867475</v>
+        <v>6867474</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,19 +10406,19 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>3.25</v>
@@ -10430,52 +10430,52 @@
         <v>2.1</v>
       </c>
       <c r="N112">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
+        <v>1.825</v>
+      </c>
+      <c r="V112">
         <v>1.975</v>
       </c>
-      <c r="V112">
-        <v>1.725</v>
-      </c>
       <c r="W112">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867473</v>
+        <v>6867475</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,10 +10495,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10507,46 +10507,46 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K113">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N113">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
         <v>1.975</v>
       </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10555,16 +10555,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6867474</v>
+        <v>6867473</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M114">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P114">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K115">
         <v>1.4</v>
@@ -10765,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867479</v>
+        <v>6867482</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,19 +10851,19 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10875,52 +10875,52 @@
         <v>2.25</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
+        <v>2.875</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
         <v>1.8</v>
       </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.95</v>
-      </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867481</v>
+        <v>6867479</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
+        <v>2.25</v>
+      </c>
+      <c r="N118">
+        <v>4.2</v>
+      </c>
+      <c r="O118">
+        <v>3.8</v>
+      </c>
+      <c r="P118">
+        <v>1.8</v>
+      </c>
+      <c r="Q118">
+        <v>0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
         <v>3</v>
       </c>
-      <c r="N118">
-        <v>2.1</v>
-      </c>
-      <c r="O118">
-        <v>3.3</v>
-      </c>
-      <c r="P118">
-        <v>3.75</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.775</v>
-      </c>
-      <c r="S118">
-        <v>2.025</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y118">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867482</v>
+        <v>6867481</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,37 +11032,37 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O119">
         <v>3.3</v>
       </c>
       <c r="P119">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
         <v>1.775</v>
@@ -11074,31 +11074,31 @@
         <v>2.25</v>
       </c>
       <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
         <v>1.8</v>
       </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
         <v>1.142</v>
@@ -11210,7 +11210,7 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11299,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>2.375</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
         <v>1.666</v>
@@ -11477,7 +11477,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>1.45</v>
@@ -11652,10 +11652,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
         <v>38</v>
-      </c>
-      <c r="G126" t="s">
-        <v>36</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>2.3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867494</v>
+        <v>6867493</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,49 +11830,49 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>42</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L128">
+        <v>3.3</v>
+      </c>
+      <c r="M128">
+        <v>2.2</v>
+      </c>
+      <c r="N128">
+        <v>2.9</v>
+      </c>
+      <c r="O128">
         <v>3.4</v>
       </c>
-      <c r="M128">
+      <c r="P128">
+        <v>2.4</v>
+      </c>
+      <c r="Q128">
+        <v>0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.75</v>
+      </c>
+      <c r="S128">
         <v>2.05</v>
       </c>
-      <c r="N128">
-        <v>5.25</v>
-      </c>
-      <c r="O128">
-        <v>3.75</v>
-      </c>
-      <c r="P128">
-        <v>1.666</v>
-      </c>
-      <c r="Q128">
-        <v>0.75</v>
-      </c>
-      <c r="R128">
-        <v>1.95</v>
-      </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.9</v>
@@ -11881,25 +11881,25 @@
         <v>1.9</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867493</v>
+        <v>6867494</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,49 +11919,49 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N129">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
         <v>1.9</v>
@@ -11970,25 +11970,25 @@
         <v>1.9</v>
       </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC129">
-        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867492</v>
+        <v>6867495</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,58 +12008,58 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>42</v>
+      </c>
+      <c r="K130">
+        <v>1.615</v>
+      </c>
+      <c r="L130">
+        <v>3.8</v>
+      </c>
+      <c r="M130">
+        <v>5.25</v>
+      </c>
+      <c r="N130">
+        <v>1.615</v>
+      </c>
+      <c r="O130">
         <v>4</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
-        <v>43</v>
-      </c>
-      <c r="K130">
-        <v>2.05</v>
-      </c>
-      <c r="L130">
-        <v>3.4</v>
-      </c>
-      <c r="M130">
-        <v>3.6</v>
-      </c>
-      <c r="N130">
-        <v>1.833</v>
-      </c>
-      <c r="O130">
-        <v>3.75</v>
-      </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="V130">
-        <v>1.85</v>
-      </c>
       <c r="W130">
-        <v>0.833</v>
+        <v>0.615</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12068,16 +12068,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.95</v>
-      </c>
-      <c r="AC130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867495</v>
+        <v>6867492</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,58 +12097,58 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L131">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N131">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
         <v>1.85</v>
       </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>0.615</v>
+        <v>0.833</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12157,16 +12157,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867490</v>
+        <v>6867491</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,10 +12186,10 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12198,25 +12198,25 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M132">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N132">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
         <v>-1</v>
@@ -12228,19 +12228,19 @@
         <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12255,7 +12255,7 @@
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867491</v>
+        <v>6867490</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,10 +12275,10 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12287,25 +12287,25 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N133">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q133">
         <v>-1</v>
@@ -12317,19 +12317,19 @@
         <v>1.9</v>
       </c>
       <c r="T133">
+        <v>2.5</v>
+      </c>
+      <c r="U133">
+        <v>1.825</v>
+      </c>
+      <c r="V133">
+        <v>1.975</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
         <v>3</v>
-      </c>
-      <c r="U133">
-        <v>2</v>
-      </c>
-      <c r="V133">
-        <v>1.8</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>3.2</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12344,7 +12344,7 @@
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7911476</v>
+        <v>7911445</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12453,13 +12453,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12468,40 +12468,40 @@
         <v>41</v>
       </c>
       <c r="K135">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L135">
+        <v>3.1</v>
+      </c>
+      <c r="M135">
+        <v>2.3</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135">
         <v>3.2</v>
       </c>
-      <c r="M135">
-        <v>2.4</v>
-      </c>
-      <c r="N135">
-        <v>2.9</v>
-      </c>
-      <c r="O135">
-        <v>3.4</v>
-      </c>
       <c r="P135">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
         <v>1.75</v>
       </c>
-      <c r="S135">
-        <v>2.05</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12510,19 +12510,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7911445</v>
+        <v>7911476</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,13 +12542,13 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F136" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136" t="s">
         <v>31</v>
       </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -12557,40 +12557,40 @@
         <v>41</v>
       </c>
       <c r="K136">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
+        <v>1.75</v>
+      </c>
+      <c r="S136">
         <v>2.05</v>
       </c>
-      <c r="S136">
-        <v>1.75</v>
-      </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12599,19 +12599,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12643,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K137">
         <v>4.2</v>
@@ -12732,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K138">
         <v>1.95</v>
@@ -12812,7 +12812,7 @@
         <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>1.95</v>
@@ -12898,7 +12898,7 @@
         <v>45366.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
         <v>2.05</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7911447</v>
+        <v>7911423</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K141">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7911448</v>
+        <v>7911447</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
         <v>1.45</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q142">
         <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y142">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7911423</v>
+        <v>7911448</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,55 +13165,55 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>41</v>
       </c>
       <c r="K143">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L143">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N143">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P143">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
         <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13222,19 +13222,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>45367.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K144">
         <v>1.75</v>
@@ -13326,7 +13326,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -13343,11 +13343,20 @@
         <v>45368.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
       </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>41</v>
+      </c>
       <c r="K145">
         <v>1.444</v>
       </c>
@@ -13358,45 +13367,495 @@
         <v>7</v>
       </c>
       <c r="N145">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q145">
         <v>-0.75</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
+        <v>1.85</v>
+      </c>
+      <c r="V145">
+        <v>1.95</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>4</v>
+      </c>
+      <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB145">
+        <v>-0.5</v>
+      </c>
+      <c r="AC145">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7911425</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45380.5625</v>
+      </c>
+      <c r="F146" t="s">
+        <v>35</v>
+      </c>
+      <c r="G146" t="s">
+        <v>36</v>
+      </c>
+      <c r="K146">
+        <v>2.9</v>
+      </c>
+      <c r="L146">
+        <v>3.3</v>
+      </c>
+      <c r="M146">
+        <v>2.4</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146">
+        <v>3.2</v>
+      </c>
+      <c r="P146">
+        <v>2.375</v>
+      </c>
+      <c r="Q146">
+        <v>0.25</v>
+      </c>
+      <c r="R146">
+        <v>1.75</v>
+      </c>
+      <c r="S146">
+        <v>2.05</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>1.8</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7911449</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147" t="s">
+        <v>37</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
+        <v>3.3</v>
+      </c>
+      <c r="M147">
+        <v>2.8</v>
+      </c>
+      <c r="N147">
+        <v>2.8</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>2.5</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
+        <v>1.975</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7911450</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148">
+        <v>2.3</v>
+      </c>
+      <c r="L148">
+        <v>3.25</v>
+      </c>
+      <c r="M148">
+        <v>3.1</v>
+      </c>
+      <c r="N148">
+        <v>2.25</v>
+      </c>
+      <c r="O148">
+        <v>3.3</v>
+      </c>
+      <c r="P148">
+        <v>3.2</v>
+      </c>
+      <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
+        <v>1.85</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7911478</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F149" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" t="s">
+        <v>32</v>
+      </c>
+      <c r="K149">
+        <v>2.5</v>
+      </c>
+      <c r="L149">
+        <v>3.2</v>
+      </c>
+      <c r="M149">
+        <v>2.8</v>
+      </c>
+      <c r="N149">
+        <v>2.6</v>
+      </c>
+      <c r="O149">
+        <v>3.2</v>
+      </c>
+      <c r="P149">
+        <v>2.7</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
+        <v>1.95</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>2.025</v>
+      </c>
+      <c r="V149">
         <v>1.775</v>
       </c>
-      <c r="V145">
-        <v>2.025</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7911426</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F150" t="s">
+        <v>38</v>
+      </c>
+      <c r="G150" t="s">
+        <v>40</v>
+      </c>
+      <c r="K150">
+        <v>1.363</v>
+      </c>
+      <c r="L150">
+        <v>5</v>
+      </c>
+      <c r="M150">
+        <v>7.5</v>
+      </c>
+      <c r="N150">
+        <v>1.363</v>
+      </c>
+      <c r="O150">
+        <v>5</v>
+      </c>
+      <c r="P150">
+        <v>7.5</v>
+      </c>
+      <c r="Q150">
+        <v>-1.5</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>3</v>
+      </c>
+      <c r="U150">
+        <v>1.8</v>
+      </c>
+      <c r="V150">
+        <v>2</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7911427</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45382.52083333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" t="s">
+        <v>33</v>
+      </c>
+      <c r="K151">
+        <v>1.909</v>
+      </c>
+      <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
+        <v>4</v>
+      </c>
+      <c r="N151">
+        <v>1.533</v>
+      </c>
+      <c r="O151">
+        <v>4</v>
+      </c>
+      <c r="P151">
+        <v>6.5</v>
+      </c>
+      <c r="Q151">
+        <v>-1</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.95</v>
+      </c>
+      <c r="V151">
+        <v>1.85</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -106,31 +106,31 @@
     <t>Dukla Banska Bystrica</t>
   </si>
   <si>
-    <t>MFK Skalica</t>
+    <t>MFK Zemplin Michalovce</t>
   </si>
   <si>
-    <t>MFK Zemplin Michalovce</t>
+    <t>MFK Skalica</t>
   </si>
   <si>
     <t>FC Kosice</t>
   </si>
   <si>
+    <t>FC Spartak Trnava</t>
+  </si>
+  <si>
     <t>MSK Zilina</t>
   </si>
   <si>
-    <t>FC Spartak Trnava</t>
+    <t>MFK Ruzomberok</t>
   </si>
   <si>
-    <t>MFK Ruzomberok</t>
+    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>Dunajska Streda</t>
   </si>
   <si>
     <t>AS Trencin</t>
-  </si>
-  <si>
-    <t>Slovan Bratislava</t>
   </si>
   <si>
     <t>FC Vion Zlate Moravce</t>
@@ -142,10 +142,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6832791</v>
+        <v>6832793</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -720,34 +720,34 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>1.85</v>
@@ -756,25 +756,25 @@
         <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6832793</v>
+        <v>6832791</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -809,34 +809,34 @@
         <v>43</v>
       </c>
       <c r="K4">
+        <v>1.909</v>
+      </c>
+      <c r="L4">
         <v>3.4</v>
       </c>
-      <c r="L4">
-        <v>3.3</v>
-      </c>
       <c r="M4">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -845,25 +845,25 @@
         <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X4">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
       <c r="W6">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z6">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6832797</v>
+        <v>6831641</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,10 +1242,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -1254,58 +1254,58 @@
         <v>42</v>
       </c>
       <c r="K9">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O9">
+        <v>5.5</v>
+      </c>
+      <c r="P9">
+        <v>7.5</v>
+      </c>
+      <c r="Q9">
+        <v>-1.5</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.85</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1.925</v>
+      </c>
+      <c r="V9">
+        <v>1.875</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
         <v>4.5</v>
       </c>
-      <c r="P9">
-        <v>6.5</v>
-      </c>
-      <c r="Q9">
-        <v>-1.25</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.8</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>0.5</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832796</v>
+        <v>6832797</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,55 +1331,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N10">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6831641</v>
+        <v>6832796</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,37 +1420,37 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>43</v>
       </c>
       <c r="K11">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="L11">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P11">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q11">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>1.95</v>
@@ -1459,34 +1459,34 @@
         <v>1.85</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X11">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>4.333</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1773,10 +1773,10 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>1.8</v>
@@ -1951,10 +1951,10 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -1963,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>1.95</v>
@@ -2043,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
         <v>3.2</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>2.05</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832804</v>
+        <v>6832803</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832803</v>
+        <v>6832804</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>1.727</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832809</v>
+        <v>6832810</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L25">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA25">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6831733</v>
+        <v>6832809</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M26">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.825</v>
       </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832810</v>
+        <v>6831733</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,13 +2841,13 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2856,58 +2856,58 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2930,10 +2930,10 @@
         <v>45165.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>3.25</v>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3197,10 +3197,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
         <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.8</v>
@@ -3286,10 +3286,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
         <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>3.1</v>
@@ -3375,10 +3375,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
         <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>1.571</v>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>1.75</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6867405</v>
+        <v>6867404</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
         <v>1.8</v>
       </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867404</v>
+        <v>6867405</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
+        <v>2.15</v>
+      </c>
+      <c r="L38">
+        <v>3.2</v>
+      </c>
+      <c r="M38">
+        <v>3.1</v>
+      </c>
+      <c r="N38">
+        <v>2.15</v>
+      </c>
+      <c r="O38">
         <v>3.4</v>
       </c>
-      <c r="L38">
-        <v>3.3</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38">
-        <v>5.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>2.5</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
         <v>1.8</v>
       </c>
-      <c r="T38">
-        <v>2.25</v>
-      </c>
-      <c r="U38">
-        <v>1.75</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,10 +3909,10 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
         <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6867406</v>
+        <v>6867408</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,76 +4176,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,10 +4265,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6867408</v>
+        <v>6867406</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,10 +4443,10 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4532,7 +4532,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>1.727</v>
@@ -4624,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>1.727</v>
@@ -4799,10 +4799,10 @@
         <v>45198.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4811,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>1.727</v>
@@ -4888,7 +4888,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
         <v>1.615</v>
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N53">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
         <v>36</v>
       </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>1.727</v>
@@ -5422,7 +5422,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5511,10 +5511,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
         <v>3.3</v>
@@ -5600,7 +5600,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6867421</v>
+        <v>6867418</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="N59">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6867418</v>
+        <v>6867421</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N60">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867425</v>
+        <v>6867424</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,73 +5956,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>2.6</v>
+      </c>
+      <c r="N62">
+        <v>2.5</v>
+      </c>
+      <c r="O62">
         <v>3.6</v>
       </c>
-      <c r="M62">
-        <v>3.8</v>
-      </c>
-      <c r="N62">
-        <v>1.6</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>1.975</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867427</v>
+        <v>6867425</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,13 +6045,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6060,61 +6060,61 @@
         <v>43</v>
       </c>
       <c r="K63">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>3.8</v>
+      </c>
+      <c r="N63">
+        <v>1.6</v>
+      </c>
+      <c r="O63">
         <v>4</v>
       </c>
-      <c r="M63">
-        <v>5.5</v>
-      </c>
-      <c r="N63">
-        <v>1.4</v>
-      </c>
-      <c r="O63">
-        <v>4.333</v>
-      </c>
       <c r="P63">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
+        <v>2.025</v>
+      </c>
+      <c r="S63">
+        <v>1.775</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
         <v>1.975</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X63">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6867429</v>
+        <v>6867427</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
       </c>
       <c r="K64">
+        <v>1.55</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>5.5</v>
+      </c>
+      <c r="N64">
+        <v>1.4</v>
+      </c>
+      <c r="O64">
+        <v>4.333</v>
+      </c>
+      <c r="P64">
+        <v>8.5</v>
+      </c>
+      <c r="Q64">
+        <v>-1.25</v>
+      </c>
+      <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
+        <v>1.825</v>
+      </c>
+      <c r="T64">
         <v>2.5</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
-      <c r="M64">
-        <v>2.7</v>
-      </c>
-      <c r="N64">
-        <v>2.7</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>2.55</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>1.95</v>
-      </c>
-      <c r="S64">
-        <v>1.85</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
       <c r="U64">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867424</v>
+        <v>6867429</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,73 +6223,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>2.5</v>
       </c>
       <c r="L65">
+        <v>3.25</v>
+      </c>
+      <c r="M65">
+        <v>2.7</v>
+      </c>
+      <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
         <v>3.4</v>
       </c>
-      <c r="M65">
-        <v>2.6</v>
-      </c>
-      <c r="N65">
-        <v>2.5</v>
-      </c>
-      <c r="O65">
-        <v>3.6</v>
-      </c>
       <c r="P65">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6312,10 +6312,10 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>1.9</v>
@@ -6490,10 +6490,10 @@
         <v>45227.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>1.333</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6867431</v>
+        <v>6867430</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,55 +6579,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6636,19 +6636,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6867430</v>
+        <v>6867431</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,55 +6668,55 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
+        <v>2.5</v>
+      </c>
+      <c r="L70">
+        <v>3.2</v>
+      </c>
+      <c r="M70">
+        <v>2.6</v>
+      </c>
+      <c r="N70">
+        <v>2.3</v>
+      </c>
+      <c r="O70">
+        <v>3.25</v>
+      </c>
+      <c r="P70">
+        <v>3.2</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>2.025</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
         <v>2.25</v>
       </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>2.8</v>
-      </c>
-      <c r="N70">
-        <v>2.875</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
-      <c r="P70">
-        <v>2.45</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.725</v>
-      </c>
-      <c r="S70">
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.75</v>
-      </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6725,19 +6725,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,10 +6757,10 @@
         <v>45228.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6846,7 +6846,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.25</v>
@@ -6935,10 +6935,10 @@
         <v>45231.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>1.2</v>
@@ -7027,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7113,10 +7113,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
         <v>3.75</v>
@@ -7202,7 +7202,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>35</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>2.375</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867441</v>
+        <v>6867439</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N77">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="O77">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P77">
-        <v>1.727</v>
+        <v>9</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867439</v>
+        <v>6867441</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L78">
+        <v>3.75</v>
+      </c>
+      <c r="M78">
+        <v>1.727</v>
+      </c>
+      <c r="N78">
         <v>4.5</v>
       </c>
-      <c r="M78">
-        <v>8</v>
-      </c>
-      <c r="N78">
-        <v>1.333</v>
-      </c>
       <c r="O78">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
+        <v>1.85</v>
+      </c>
+      <c r="S78">
         <v>1.95</v>
       </c>
-      <c r="S78">
-        <v>1.85</v>
-      </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7558,10 +7558,10 @@
         <v>45240.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867443</v>
+        <v>6867445</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="N81">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N82">
+        <v>1.55</v>
+      </c>
+      <c r="O82">
         <v>4.2</v>
       </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6867447</v>
+        <v>6867443</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,13 +7825,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -7840,61 +7840,61 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L83">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N83">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O83">
         <v>4.2</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q83">
         <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,10 +7914,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.285</v>
@@ -8006,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6867451</v>
+        <v>6867448</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="L87">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>1.444</v>
+        <v>8.5</v>
       </c>
       <c r="N87">
+        <v>1.333</v>
+      </c>
+      <c r="O87">
+        <v>5.5</v>
+      </c>
+      <c r="P87">
         <v>7.5</v>
       </c>
-      <c r="O87">
-        <v>4.75</v>
-      </c>
-      <c r="P87">
-        <v>1.4</v>
-      </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R87">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
         <v>3</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6867448</v>
+        <v>6867450</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,28 +8270,28 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M88">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="N88">
         <v>1.333</v>
@@ -8300,25 +8300,25 @@
         <v>5.5</v>
       </c>
       <c r="P88">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q88">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="W88">
         <v>0.333</v>
@@ -8330,16 +8330,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>29</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6867450</v>
+        <v>6867451</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
+        <v>6</v>
+      </c>
+      <c r="L90">
+        <v>4.5</v>
+      </c>
+      <c r="M90">
+        <v>1.444</v>
+      </c>
+      <c r="N90">
+        <v>7.5</v>
+      </c>
+      <c r="O90">
+        <v>4.75</v>
+      </c>
+      <c r="P90">
         <v>1.4</v>
       </c>
-      <c r="L90">
-        <v>4.75</v>
-      </c>
-      <c r="M90">
-        <v>6</v>
-      </c>
-      <c r="N90">
-        <v>1.333</v>
-      </c>
-      <c r="O90">
-        <v>5.5</v>
-      </c>
-      <c r="P90">
-        <v>7</v>
-      </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R90">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>1.85</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7528661</v>
+        <v>6867454</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,10 +8715,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8730,40 +8730,40 @@
         <v>41</v>
       </c>
       <c r="K93">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N93">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
+        <v>1.75</v>
+      </c>
+      <c r="S93">
         <v>1.95</v>
       </c>
-      <c r="S93">
-        <v>1.85</v>
-      </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8772,19 +8772,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6867454</v>
+        <v>7528661</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,10 +8804,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8819,41 +8819,41 @@
         <v>41</v>
       </c>
       <c r="K94">
+        <v>2.15</v>
+      </c>
+      <c r="L94">
+        <v>3.5</v>
+      </c>
+      <c r="M94">
+        <v>2.875</v>
+      </c>
+      <c r="N94">
+        <v>2.2</v>
+      </c>
+      <c r="O94">
         <v>3.6</v>
       </c>
-      <c r="L94">
-        <v>3.6</v>
-      </c>
-      <c r="M94">
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>-0.25</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
         <v>1.85</v>
       </c>
-      <c r="N94">
-        <v>3.75</v>
-      </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
-      <c r="P94">
-        <v>1.85</v>
-      </c>
-      <c r="Q94">
-        <v>0.75</v>
-      </c>
-      <c r="R94">
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
         <v>1.75</v>
       </c>
-      <c r="S94">
-        <v>1.95</v>
-      </c>
-      <c r="T94">
-        <v>2.75</v>
-      </c>
-      <c r="U94">
-        <v>1.875</v>
-      </c>
-      <c r="V94">
-        <v>1.925</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
@@ -8861,19 +8861,19 @@
         <v>-1</v>
       </c>
       <c r="Y94">
+        <v>2</v>
+      </c>
+      <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z94">
-        <v>-0.5</v>
-      </c>
-      <c r="AA94">
-        <v>0.475</v>
-      </c>
       <c r="AB94">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8896,7 +8896,7 @@
         <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>3.1</v>
@@ -8982,10 +8982,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9071,7 +9071,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.285</v>
@@ -9160,10 +9160,10 @@
         <v>45268.5625</v>
       </c>
       <c r="F98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
         <v>33</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>2.4</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6867461</v>
+        <v>6867464</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N99">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB99">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6867464</v>
+        <v>6867460</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,10 +9338,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9350,64 +9350,64 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N100">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867460</v>
+        <v>6867461</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>3.25</v>
+      </c>
+      <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3.5</v>
+      </c>
+      <c r="O101">
+        <v>3.75</v>
+      </c>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.95</v>
+      </c>
+      <c r="V101">
+        <v>1.85</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>1</v>
       </c>
-      <c r="I101">
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>2.3</v>
-      </c>
-      <c r="L101">
-        <v>3.3</v>
-      </c>
-      <c r="M101">
-        <v>2.875</v>
-      </c>
-      <c r="N101">
-        <v>2.75</v>
-      </c>
-      <c r="O101">
-        <v>3.1</v>
-      </c>
-      <c r="P101">
-        <v>2.75</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.1</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
-      <c r="Z101">
-        <v>0</v>
-      </c>
-      <c r="AA101">
-        <v>-0</v>
-      </c>
       <c r="AB101">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9605,10 +9605,10 @@
         <v>45270.5625</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>1.7</v>
@@ -9694,7 +9694,7 @@
         <v>45275.5625</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.8</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6867471</v>
+        <v>6867467</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N105">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P105">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.95</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>0.8</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6867467</v>
+        <v>6867471</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N106">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q106">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.333</v>
+        <v>1.9</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.8</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
         <v>0.95</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>0.8</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9973,7 +9973,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
         <v>2.625</v>
@@ -10050,10 +10050,10 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>1.285</v>
@@ -10139,10 +10139,10 @@
         <v>45277.5625</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>1.666</v>
@@ -10228,10 +10228,10 @@
         <v>45331.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867477</v>
+        <v>6867474</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N111">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O111">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q111">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867474</v>
+        <v>6867477</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M112">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N112">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P112">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10498,7 +10498,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>3.25</v>
@@ -10584,10 +10584,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>1.533</v>
@@ -10673,7 +10673,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.4</v>
@@ -10765,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867482</v>
+        <v>6867479</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,19 +10851,19 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10875,52 +10875,52 @@
         <v>2.25</v>
       </c>
       <c r="N117">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P117">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867479</v>
+        <v>6867481</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>2.1</v>
+      </c>
+      <c r="O118">
+        <v>3.3</v>
+      </c>
+      <c r="P118">
+        <v>3.75</v>
+      </c>
+      <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>1.775</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
         <v>2.25</v>
       </c>
-      <c r="N118">
-        <v>4.2</v>
-      </c>
-      <c r="O118">
-        <v>3.8</v>
-      </c>
-      <c r="P118">
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="Q118">
-        <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>1.95</v>
-      </c>
-      <c r="V118">
-        <v>1.85</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867481</v>
+        <v>6867482</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,37 +11032,37 @@
         <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O119">
         <v>3.3</v>
       </c>
       <c r="P119">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
         <v>1.775</v>
@@ -11074,31 +11074,31 @@
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y119">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>1.142</v>
@@ -11207,10 +11207,10 @@
         <v>45340.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11299,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.375</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6867489</v>
+        <v>6867487</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K123">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.825</v>
       </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
       <c r="W123">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6867488</v>
+        <v>6867489</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,73 +11477,73 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>43</v>
       </c>
       <c r="K124">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="O124">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X124">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6867487</v>
+        <v>6867488</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N125">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P125">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,10 +11652,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11744,7 +11744,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>2.3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6867493</v>
+        <v>6867494</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,49 +11830,49 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>42</v>
       </c>
       <c r="K128">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N128">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
         <v>1.9</v>
@@ -11881,25 +11881,25 @@
         <v>1.9</v>
       </c>
       <c r="W128">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6867494</v>
+        <v>6867495</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,61 +11934,61 @@
         <v>43</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M129">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>1.775</v>
+      </c>
+      <c r="S129">
+        <v>2.025</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
         <v>1.95</v>
       </c>
-      <c r="S129">
-        <v>1.85</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
-      <c r="V129">
-        <v>1.9</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X129">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>0.95</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
-      <c r="AC129">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6867495</v>
+        <v>6867491</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
         <v>5.25</v>
       </c>
       <c r="N130">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
         <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W130">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6867492</v>
+        <v>6867490</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12112,61 +12112,61 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6867491</v>
+        <v>6867493</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,13 +12186,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -12201,61 +12201,61 @@
         <v>43</v>
       </c>
       <c r="K132">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N132">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
+        <v>1.75</v>
+      </c>
+      <c r="S132">
+        <v>2.05</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
         <v>1.9</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.9</v>
       </c>
-      <c r="T132">
-        <v>3</v>
-      </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-      <c r="V132">
-        <v>1.8</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X132">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6867490</v>
+        <v>6867492</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,13 +12275,13 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -12290,61 +12290,61 @@
         <v>43</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L133">
+        <v>3.4</v>
+      </c>
+      <c r="M133">
+        <v>3.6</v>
+      </c>
+      <c r="N133">
+        <v>1.833</v>
+      </c>
+      <c r="O133">
         <v>3.75</v>
       </c>
-      <c r="M133">
-        <v>4.5</v>
-      </c>
-      <c r="N133">
-        <v>1.533</v>
-      </c>
-      <c r="O133">
-        <v>4</v>
-      </c>
       <c r="P133">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X133">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7911476</v>
+        <v>7911446</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,76 +12542,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="N136">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R136">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y136">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7911446</v>
+        <v>7911476</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K137">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="N137">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q137">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>45360.5625</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
@@ -12732,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
         <v>1.95</v>
@@ -12809,10 +12809,10 @@
         <v>45361.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>1.95</v>
@@ -12898,7 +12898,7 @@
         <v>45366.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K140">
         <v>2.05</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7911423</v>
+        <v>7911447</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="L141">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O141">
+        <v>4.75</v>
+      </c>
+      <c r="P141">
+        <v>7</v>
+      </c>
+      <c r="Q141">
+        <v>-1.25</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.9</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
+        <v>1.925</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>3.75</v>
       </c>
-      <c r="P141">
-        <v>4.5</v>
-      </c>
-      <c r="Q141">
-        <v>-0.75</v>
-      </c>
-      <c r="R141">
-        <v>1.975</v>
-      </c>
-      <c r="S141">
-        <v>1.825</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.825</v>
-      </c>
-      <c r="V141">
-        <v>1.975</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7911447</v>
+        <v>7911423</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K142">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,10 +13165,10 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13254,10 +13254,10 @@
         <v>45367.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K144">
         <v>1.75</v>
@@ -13343,10 +13343,10 @@
         <v>45368.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13435,7 +13435,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K146">
         <v>2.9</v>
@@ -13447,13 +13447,13 @@
         <v>2.4</v>
       </c>
       <c r="N146">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q146">
         <v>0.25</v>
@@ -13509,7 +13509,7 @@
         <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K147">
         <v>2.5</v>
@@ -13521,22 +13521,22 @@
         <v>2.8</v>
       </c>
       <c r="N147">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O147">
         <v>3.3</v>
       </c>
       <c r="P147">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q147">
         <v>0</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
         <v>2.5</v>
@@ -13580,10 +13580,10 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
         <v>30</v>
-      </c>
-      <c r="G148" t="s">
-        <v>31</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13595,13 +13595,13 @@
         <v>3.1</v>
       </c>
       <c r="N148">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O148">
         <v>3.3</v>
       </c>
       <c r="P148">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q148">
         <v>-0.25</v>
@@ -13669,31 +13669,31 @@
         <v>2.8</v>
       </c>
       <c r="N149">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O149">
         <v>3.2</v>
       </c>
       <c r="P149">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q149">
         <v>0</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13728,7 +13728,7 @@
         <v>45381.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13743,7 +13743,7 @@
         <v>7.5</v>
       </c>
       <c r="N150">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O150">
         <v>5</v>
@@ -13755,19 +13755,19 @@
         <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
         <v>3</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13802,10 +13802,10 @@
         <v>45382.52083333334</v>
       </c>
       <c r="F151" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" t="s">
         <v>34</v>
-      </c>
-      <c r="G151" t="s">
-        <v>33</v>
       </c>
       <c r="K151">
         <v>1.909</v>
@@ -13817,13 +13817,13 @@
         <v>4</v>
       </c>
       <c r="N151">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q151">
         <v>-1</v>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832803</v>
+        <v>6832804</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832804</v>
+        <v>6832803</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832813</v>
+        <v>6832814</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,58 +3197,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>43</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3257,16 +3257,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832814</v>
+        <v>6832813</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>1.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,16 +3346,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6867404</v>
+        <v>6867405</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K36">
+        <v>2.15</v>
+      </c>
+      <c r="L36">
+        <v>3.2</v>
+      </c>
+      <c r="M36">
+        <v>3.1</v>
+      </c>
+      <c r="N36">
+        <v>2.15</v>
+      </c>
+      <c r="O36">
         <v>3.4</v>
       </c>
-      <c r="L36">
-        <v>3.3</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-      <c r="N36">
-        <v>5.5</v>
-      </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
       <c r="P36">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.8</v>
       </c>
-      <c r="T36">
-        <v>2.25</v>
-      </c>
-      <c r="U36">
-        <v>1.75</v>
-      </c>
-      <c r="V36">
-        <v>1.95</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867400</v>
+        <v>6867404</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -3746,58 +3746,58 @@
         <v>41</v>
       </c>
       <c r="K37">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q37">
+        <v>0.75</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1.8</v>
+      </c>
+      <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>1.75</v>
+      </c>
+      <c r="V37">
+        <v>1.95</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>0.615</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.975</v>
-      </c>
-      <c r="S37">
-        <v>1.825</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>2.4</v>
-      </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867405</v>
+        <v>6867400</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
         <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N54">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867424</v>
+        <v>6867425</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,73 +5956,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62">
+        <v>1.85</v>
+      </c>
+      <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>3.8</v>
+      </c>
+      <c r="N62">
+        <v>1.6</v>
+      </c>
+      <c r="O62">
         <v>4</v>
       </c>
-      <c r="J62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62">
-        <v>2.5</v>
-      </c>
-      <c r="L62">
-        <v>3.4</v>
-      </c>
-      <c r="M62">
-        <v>2.6</v>
-      </c>
-      <c r="N62">
-        <v>2.5</v>
-      </c>
-      <c r="O62">
-        <v>3.6</v>
-      </c>
       <c r="P62">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
+        <v>1.975</v>
+      </c>
+      <c r="V62">
         <v>1.825</v>
       </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867425</v>
+        <v>6867424</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,73 +6045,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K63">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
+        <v>2.6</v>
+      </c>
+      <c r="N63">
+        <v>2.5</v>
+      </c>
+      <c r="O63">
         <v>3.6</v>
       </c>
-      <c r="M63">
-        <v>3.8</v>
-      </c>
-      <c r="N63">
-        <v>1.6</v>
-      </c>
-      <c r="O63">
-        <v>4</v>
-      </c>
       <c r="P63">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867436</v>
+        <v>6867439</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,46 +7113,46 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N75">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2.75</v>
@@ -7164,19 +7164,19 @@
         <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867440</v>
+        <v>6867436</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,67 +7202,67 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
+        <v>1.909</v>
+      </c>
+      <c r="N76">
+        <v>4.75</v>
+      </c>
+      <c r="O76">
+        <v>3.75</v>
+      </c>
+      <c r="P76">
+        <v>1.75</v>
+      </c>
+      <c r="Q76">
+        <v>0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.875</v>
+      </c>
+      <c r="S76">
+        <v>1.925</v>
+      </c>
+      <c r="T76">
         <v>2.75</v>
       </c>
-      <c r="N76">
-        <v>2.7</v>
-      </c>
-      <c r="O76">
-        <v>3.1</v>
-      </c>
-      <c r="P76">
+      <c r="U76">
+        <v>1.875</v>
+      </c>
+      <c r="V76">
+        <v>1.925</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>2.75</v>
       </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>1.85</v>
-      </c>
-      <c r="S76">
-        <v>1.95</v>
-      </c>
-      <c r="T76">
-        <v>2</v>
-      </c>
-      <c r="U76">
-        <v>1.775</v>
-      </c>
-      <c r="V76">
-        <v>2.025</v>
-      </c>
-      <c r="W76">
-        <v>1.7</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867439</v>
+        <v>6867440</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,10 +7291,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7306,43 +7306,43 @@
         <v>43</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L77">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N77">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O77">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R77">
+        <v>1.85</v>
+      </c>
+      <c r="S77">
         <v>1.95</v>
       </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7351,16 +7351,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7528661</v>
+        <v>6867456</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2.1</v>
+      </c>
+      <c r="N94">
+        <v>3.1</v>
+      </c>
+      <c r="O94">
         <v>3.5</v>
       </c>
-      <c r="M94">
-        <v>2.875</v>
-      </c>
-      <c r="N94">
+      <c r="P94">
         <v>2.2</v>
       </c>
-      <c r="O94">
-        <v>3.6</v>
-      </c>
-      <c r="P94">
-        <v>3</v>
-      </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
         <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y94">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94">
-        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6867456</v>
+        <v>7528661</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N95">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z95">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6867464</v>
+        <v>6867461</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="J99" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99">
+        <v>3.25</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>3.5</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
+        <v>1.85</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>1</v>
       </c>
-      <c r="I99">
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
         <v>1</v>
       </c>
-      <c r="J99" t="s">
-        <v>42</v>
-      </c>
-      <c r="K99">
-        <v>2.5</v>
-      </c>
-      <c r="L99">
-        <v>3.2</v>
-      </c>
-      <c r="M99">
-        <v>2.7</v>
-      </c>
-      <c r="N99">
-        <v>2.375</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
-      <c r="P99">
-        <v>3.1</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>2.025</v>
-      </c>
-      <c r="V99">
-        <v>1.775</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.3</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>-0.5</v>
-      </c>
-      <c r="AA99">
-        <v>0.4125</v>
-      </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867461</v>
+        <v>6867464</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N101">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6867474</v>
+        <v>6867477</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M111">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N111">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P111">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q111">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867477</v>
+        <v>6867474</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L112">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N112">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6867479</v>
+        <v>6867482</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,16 +10851,16 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>42</v>
@@ -10875,52 +10875,52 @@
         <v>2.25</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
+        <v>2.875</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
         <v>1.8</v>
       </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.95</v>
-      </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6867481</v>
+        <v>6867479</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
+        <v>2.25</v>
+      </c>
+      <c r="N118">
+        <v>4.2</v>
+      </c>
+      <c r="O118">
+        <v>3.8</v>
+      </c>
+      <c r="P118">
+        <v>1.8</v>
+      </c>
+      <c r="Q118">
+        <v>0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
         <v>3</v>
       </c>
-      <c r="N118">
-        <v>2.1</v>
-      </c>
-      <c r="O118">
-        <v>3.3</v>
-      </c>
-      <c r="P118">
-        <v>3.75</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.775</v>
-      </c>
-      <c r="S118">
-        <v>2.025</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y118">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6867482</v>
+        <v>6867481</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,40 +11029,40 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O119">
         <v>3.3</v>
       </c>
       <c r="P119">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
         <v>1.775</v>
@@ -11074,31 +11074,31 @@
         <v>2.25</v>
       </c>
       <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
         <v>1.8</v>
       </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7911425</v>
+        <v>7911478</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,49 +13429,49 @@
         <v>28</v>
       </c>
       <c r="E146" s="2">
-        <v>45380.5625</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K146">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N146">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O146">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P146">
+        <v>2.875</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>1.775</v>
+      </c>
+      <c r="S146">
+        <v>2.025</v>
+      </c>
+      <c r="T146">
         <v>2.5</v>
       </c>
-      <c r="Q146">
-        <v>0.25</v>
-      </c>
-      <c r="R146">
-        <v>1.75</v>
-      </c>
-      <c r="S146">
-        <v>2.05</v>
-      </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
       <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.8</v>
-      </c>
-      <c r="V146">
-        <v>2</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13494,7 +13494,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7911449</v>
+        <v>7911450</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13506,46 +13506,46 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N147">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
         <v>3.3</v>
       </c>
       <c r="P147">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13568,7 +13568,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7911450</v>
+        <v>7911449</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13580,46 +13580,46 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M148">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N148">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O148">
         <v>3.3</v>
       </c>
       <c r="P148">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13642,7 +13642,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7911478</v>
+        <v>7911426</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13651,49 +13651,49 @@
         <v>28</v>
       </c>
       <c r="E149" s="2">
-        <v>45381.45833333334</v>
+        <v>45381.5625</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K149">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P149">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7911426</v>
+        <v>7911427</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13725,34 +13725,34 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45381.5625</v>
+        <v>45382.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K150">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L150">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O150">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R150">
         <v>1.975</v>
@@ -13761,13 +13761,13 @@
         <v>1.825</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13782,80 +13782,6 @@
         <v>0</v>
       </c>
       <c r="AA150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>7911427</v>
-      </c>
-      <c r="C151" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="2">
-        <v>45382.52083333334</v>
-      </c>
-      <c r="F151" t="s">
-        <v>33</v>
-      </c>
-      <c r="G151" t="s">
-        <v>34</v>
-      </c>
-      <c r="K151">
-        <v>1.909</v>
-      </c>
-      <c r="L151">
-        <v>3.4</v>
-      </c>
-      <c r="M151">
-        <v>4</v>
-      </c>
-      <c r="N151">
-        <v>1.571</v>
-      </c>
-      <c r="O151">
-        <v>3.8</v>
-      </c>
-      <c r="P151">
-        <v>5.75</v>
-      </c>
-      <c r="Q151">
-        <v>-1</v>
-      </c>
-      <c r="R151">
-        <v>1.975</v>
-      </c>
-      <c r="S151">
-        <v>1.825</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC150"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6831642</v>
+        <v>6832800</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
         <v>3.5</v>
       </c>
       <c r="M15">
+        <v>3.5</v>
+      </c>
+      <c r="N15">
+        <v>2.3</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
+        <v>2.875</v>
+      </c>
+      <c r="Q15">
+        <v>-0.25</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
         <v>1.8</v>
       </c>
-      <c r="N15">
-        <v>4.2</v>
-      </c>
-      <c r="O15">
-        <v>3.5</v>
-      </c>
-      <c r="P15">
-        <v>1.909</v>
-      </c>
-      <c r="Q15">
-        <v>0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.925</v>
-      </c>
-      <c r="S15">
-        <v>1.875</v>
-      </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6831731</v>
+        <v>6831642</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,49 +1862,49 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16">
+        <v>4.2</v>
+      </c>
+      <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
         <v>1.8</v>
       </c>
-      <c r="L16">
-        <v>3.6</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
       <c r="N16">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
         <v>1.95</v>
@@ -1913,25 +1913,25 @@
         <v>1.85</v>
       </c>
       <c r="W16">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832800</v>
+        <v>6831731</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
+        <v>1.8</v>
+      </c>
+      <c r="L17">
+        <v>3.6</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>1.65</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>5.25</v>
+      </c>
+      <c r="Q17">
+        <v>-0.75</v>
+      </c>
+      <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>1.95</v>
       </c>
-      <c r="L17">
-        <v>3.5</v>
-      </c>
-      <c r="M17">
-        <v>3.5</v>
-      </c>
-      <c r="N17">
-        <v>2.3</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
-      <c r="P17">
-        <v>2.875</v>
-      </c>
-      <c r="Q17">
-        <v>-0.25</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>1.8</v>
-      </c>
-      <c r="T17">
-        <v>3.25</v>
-      </c>
-      <c r="U17">
-        <v>1.975</v>
-      </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832804</v>
+        <v>6832803</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832803</v>
+        <v>6832804</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6867405</v>
+        <v>6867404</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
         <v>1.8</v>
       </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867404</v>
+        <v>6867400</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -3746,40 +3746,40 @@
         <v>41</v>
       </c>
       <c r="K37">
+        <v>1.909</v>
+      </c>
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
         <v>3.4</v>
       </c>
-      <c r="L37">
-        <v>3.3</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
       <c r="N37">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,16 +3788,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.615</v>
+        <v>2.4</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6867400</v>
+        <v>6867405</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
+        <v>3.1</v>
+      </c>
+      <c r="N38">
+        <v>2.15</v>
+      </c>
+      <c r="O38">
         <v>3.4</v>
-      </c>
-      <c r="N38">
-        <v>2.05</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
       </c>
       <c r="P38">
         <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N53">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867425</v>
+        <v>6867424</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,73 +5956,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62">
+        <v>2.5</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>2.6</v>
+      </c>
+      <c r="N62">
+        <v>2.5</v>
+      </c>
+      <c r="O62">
+        <v>3.6</v>
+      </c>
+      <c r="P62">
+        <v>2.625</v>
+      </c>
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>43</v>
-      </c>
-      <c r="K62">
-        <v>1.85</v>
-      </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>3.8</v>
-      </c>
-      <c r="N62">
-        <v>1.6</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
-      <c r="P62">
-        <v>5.75</v>
-      </c>
-      <c r="Q62">
-        <v>-1</v>
-      </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>1.975</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6867424</v>
+        <v>6867425</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,73 +6045,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63">
+        <v>1.85</v>
+      </c>
+      <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>3.8</v>
+      </c>
+      <c r="N63">
+        <v>1.6</v>
+      </c>
+      <c r="O63">
         <v>4</v>
       </c>
-      <c r="J63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63">
-        <v>2.5</v>
-      </c>
-      <c r="L63">
-        <v>3.4</v>
-      </c>
-      <c r="M63">
-        <v>2.6</v>
-      </c>
-      <c r="N63">
-        <v>2.5</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
       <c r="P63">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867439</v>
+        <v>6867436</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,46 +7113,46 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L75">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="N75">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="O75">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
@@ -7164,19 +7164,19 @@
         <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6867436</v>
+        <v>6867440</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,67 +7202,67 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N76">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O76">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X76">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867440</v>
+        <v>6867439</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,10 +7291,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7306,43 +7306,43 @@
         <v>43</v>
       </c>
       <c r="K77">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
+        <v>8</v>
+      </c>
+      <c r="N77">
+        <v>1.333</v>
+      </c>
+      <c r="O77">
+        <v>5.25</v>
+      </c>
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <v>-1.5</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.75</v>
       </c>
-      <c r="N77">
-        <v>2.7</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
-        <v>2.75</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>1.85</v>
-      </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
-      <c r="T77">
-        <v>2</v>
-      </c>
       <c r="U77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7351,16 +7351,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6867445</v>
+        <v>6867447</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K81">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M81">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N81">
+        <v>1.55</v>
+      </c>
+      <c r="O81">
         <v>4.2</v>
       </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6867447</v>
+        <v>6867445</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N82">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6867456</v>
+        <v>7528661</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N94">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
         <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z94">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7528661</v>
+        <v>6867456</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>2.1</v>
+      </c>
+      <c r="N95">
+        <v>3.1</v>
+      </c>
+      <c r="O95">
         <v>3.5</v>
       </c>
-      <c r="M95">
-        <v>2.875</v>
-      </c>
-      <c r="N95">
+      <c r="P95">
         <v>2.2</v>
       </c>
-      <c r="O95">
-        <v>3.6</v>
-      </c>
-      <c r="P95">
-        <v>3</v>
-      </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y95">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
-      <c r="AC95">
-        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6867461</v>
+        <v>6867464</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N99">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB99">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6867464</v>
+        <v>6867461</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
+        <v>3.25</v>
+      </c>
+      <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3.5</v>
+      </c>
+      <c r="O101">
+        <v>3.75</v>
+      </c>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.95</v>
+      </c>
+      <c r="V101">
+        <v>1.85</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>1</v>
       </c>
-      <c r="I101">
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>42</v>
-      </c>
-      <c r="K101">
-        <v>2.5</v>
-      </c>
-      <c r="L101">
-        <v>3.2</v>
-      </c>
-      <c r="M101">
-        <v>2.7</v>
-      </c>
-      <c r="N101">
-        <v>2.375</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>3.1</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.975</v>
-      </c>
-      <c r="S101">
-        <v>1.825</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
-      <c r="V101">
-        <v>1.775</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.3</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
-      <c r="Z101">
-        <v>-0.5</v>
-      </c>
-      <c r="AA101">
-        <v>0.4125</v>
-      </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6867474</v>
+        <v>6867475</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,19 +10406,19 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>3.25</v>
@@ -10430,52 +10430,52 @@
         <v>2.1</v>
       </c>
       <c r="N112">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6867475</v>
+        <v>6867474</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,19 +10495,19 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>3.25</v>
@@ -10519,52 +10519,52 @@
         <v>2.1</v>
       </c>
       <c r="N113">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
+        <v>1.825</v>
+      </c>
+      <c r="V113">
         <v>1.975</v>
       </c>
-      <c r="V113">
-        <v>1.725</v>
-      </c>
       <c r="W113">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7911478</v>
+        <v>7911427</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,49 +13429,49 @@
         <v>28</v>
       </c>
       <c r="E146" s="2">
-        <v>45381.45833333334</v>
+        <v>45382.52083333334</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R146">
+        <v>2.025</v>
+      </c>
+      <c r="S146">
         <v>1.775</v>
-      </c>
-      <c r="S146">
-        <v>2.025</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13486,302 +13486,6 @@
         <v>0</v>
       </c>
       <c r="AA146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:29">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>7911450</v>
-      </c>
-      <c r="C147" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" t="s">
-        <v>28</v>
-      </c>
-      <c r="E147" s="2">
-        <v>45381.45833333334</v>
-      </c>
-      <c r="F147" t="s">
-        <v>31</v>
-      </c>
-      <c r="G147" t="s">
-        <v>30</v>
-      </c>
-      <c r="K147">
-        <v>2.3</v>
-      </c>
-      <c r="L147">
-        <v>3.25</v>
-      </c>
-      <c r="M147">
-        <v>3.1</v>
-      </c>
-      <c r="N147">
-        <v>2.2</v>
-      </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
-      <c r="P147">
-        <v>3.3</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-      <c r="X147">
-        <v>0</v>
-      </c>
-      <c r="Y147">
-        <v>0</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>7911449</v>
-      </c>
-      <c r="C148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" t="s">
-        <v>28</v>
-      </c>
-      <c r="E148" s="2">
-        <v>45381.45833333334</v>
-      </c>
-      <c r="F148" t="s">
-        <v>29</v>
-      </c>
-      <c r="G148" t="s">
-        <v>38</v>
-      </c>
-      <c r="K148">
-        <v>2.5</v>
-      </c>
-      <c r="L148">
-        <v>3.3</v>
-      </c>
-      <c r="M148">
-        <v>2.8</v>
-      </c>
-      <c r="N148">
-        <v>2.75</v>
-      </c>
-      <c r="O148">
-        <v>3.3</v>
-      </c>
-      <c r="P148">
-        <v>2.6</v>
-      </c>
-      <c r="Q148">
-        <v>0</v>
-      </c>
-      <c r="R148">
-        <v>2</v>
-      </c>
-      <c r="S148">
-        <v>1.8</v>
-      </c>
-      <c r="T148">
-        <v>2.5</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="X148">
-        <v>0</v>
-      </c>
-      <c r="Y148">
-        <v>0</v>
-      </c>
-      <c r="Z148">
-        <v>0</v>
-      </c>
-      <c r="AA148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>7911426</v>
-      </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="2">
-        <v>45381.5625</v>
-      </c>
-      <c r="F149" t="s">
-        <v>36</v>
-      </c>
-      <c r="G149" t="s">
-        <v>40</v>
-      </c>
-      <c r="K149">
-        <v>1.363</v>
-      </c>
-      <c r="L149">
-        <v>5</v>
-      </c>
-      <c r="M149">
-        <v>7.5</v>
-      </c>
-      <c r="N149">
-        <v>1.4</v>
-      </c>
-      <c r="O149">
-        <v>5</v>
-      </c>
-      <c r="P149">
-        <v>7.5</v>
-      </c>
-      <c r="Q149">
-        <v>-1.5</v>
-      </c>
-      <c r="R149">
-        <v>1.975</v>
-      </c>
-      <c r="S149">
-        <v>1.825</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>7911427</v>
-      </c>
-      <c r="C150" t="s">
-        <v>28</v>
-      </c>
-      <c r="D150" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="2">
-        <v>45382.52083333334</v>
-      </c>
-      <c r="F150" t="s">
-        <v>33</v>
-      </c>
-      <c r="G150" t="s">
-        <v>34</v>
-      </c>
-      <c r="K150">
-        <v>1.909</v>
-      </c>
-      <c r="L150">
-        <v>3.4</v>
-      </c>
-      <c r="M150">
-        <v>4</v>
-      </c>
-      <c r="N150">
-        <v>1.571</v>
-      </c>
-      <c r="O150">
-        <v>3.8</v>
-      </c>
-      <c r="P150">
-        <v>5.75</v>
-      </c>
-      <c r="Q150">
-        <v>-1</v>
-      </c>
-      <c r="R150">
-        <v>1.975</v>
-      </c>
-      <c r="S150">
-        <v>1.825</v>
-      </c>
-      <c r="T150">
-        <v>2.5</v>
-      </c>
-      <c r="U150">
-        <v>1.95</v>
-      </c>
-      <c r="V150">
-        <v>1.85</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
-        <v>0</v>
-      </c>
-      <c r="Z150">
-        <v>0</v>
-      </c>
-      <c r="AA150">
         <v>0</v>
       </c>
     </row>

--- a/Slovakia Super Liga/Slovakia Super Liga.xlsx
+++ b/Slovakia Super Liga/Slovakia Super Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>FC Kosice</t>
   </si>
   <si>
-    <t>FC Spartak Trnava</t>
+    <t>MSK Zilina</t>
   </si>
   <si>
-    <t>MSK Zilina</t>
+    <t>FC Spartak Trnava</t>
   </si>
   <si>
     <t>MFK Ruzomberok</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6832794</v>
+        <v>6832792</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N6">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6832792</v>
+        <v>6832794</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,73 +1064,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.85</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832800</v>
+        <v>6831642</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L15">
         <v>3.5</v>
       </c>
       <c r="M15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>4.2</v>
+      </c>
+      <c r="O15">
         <v>3.5</v>
       </c>
-      <c r="N15">
-        <v>2.3</v>
-      </c>
-      <c r="O15">
-        <v>3.75</v>
-      </c>
       <c r="P15">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6831642</v>
+        <v>6832800</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L16">
         <v>3.5</v>
       </c>
       <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16">
+        <v>2.3</v>
+      </c>
+      <c r="O16">
+        <v>3.75</v>
+      </c>
+      <c r="P16">
+        <v>2.875</v>
+      </c>
+      <c r="Q16">
+        <v>-0.25</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
         <v>1.8</v>
       </c>
-      <c r="N16">
-        <v>4.2</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>1.909</v>
-      </c>
-      <c r="Q16">
-        <v>0.5</v>
-      </c>
-      <c r="R16">
-        <v>1.925</v>
-      </c>
-      <c r="S16">
-        <v>1.875</v>
-      </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6831731</v>
+        <v>6832801</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832801</v>
+        <v>6831731</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.95</v>
+      </c>
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="S18">
-        <v>1.95</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>0.4</v>
+      </c>
+      <c r="AA18">
+        <v>-0.5</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832803</v>
+        <v>6832804</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832804</v>
+        <v>6832803</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832810</v>
+        <v>6831733</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,73 +2663,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6831733</v>
+        <v>6832810</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X27">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.4375</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.5</v>
-      </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2933,7 +2933,7 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3375,10 +3375,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6867404</v>
+        <v>6867400</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,13 +3642,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -3657,40 +3657,40 @@
         <v>41</v>
       </c>
       <c r="K36">
+        <v>1.909</v>
+      </c>
+      <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
         <v>3.4</v>
       </c>
-      <c r="L36">
-        <v>3.3</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
       <c r="N36">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3699,16 +3699,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.615</v>
+        <v>2.4</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6867400</v>
+        <v>6867404</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
         <v>34</v>
       </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -3746,58 +3746,58 @@
         <v>41</v>
       </c>
       <c r="K37">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q37">
+        <v>0.75</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1.8</v>
+      </c>
+      <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>1.75</v>
+      </c>
+      <c r="V37">
+        <v>1.95</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>0.615</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.975</v>
-      </c>
-      <c r="S37">
-        <v>1.825</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>2.4</v>
-      </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -4446,7 +4446,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4710,7 +4710,7 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4799,7 +4799,7 @@
         <v>45198.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6867413</v>
+        <v>6867416</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N50">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6867416</v>
+        <v>6867413</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N51">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X51">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6867414</v>
+        <v>6867417</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,40 +5155,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5197,13 +5197,13 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5221,10 +5221,10 @@
         <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6867417</v>
+        <v>6867414</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N54">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -5286,13 +5286,13 @@
         <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,7 +5301,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.5329999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5310,10 +5310,10 @@
         <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6867418</v>
+        <v>6867421</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="N59">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6867421</v>
+        <v>6867418</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="N60">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6867424</v>
+        <v>6867427</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,46 +5956,46 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>1.55</v>
+      </c>
+      <c r="L62">
         <v>4</v>
       </c>
-      <c r="J62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62">
-        <v>2.5</v>
-      </c>
-      <c r="L62">
-        <v>3.4</v>
-      </c>
       <c r="M62">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N62">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P62">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.5</v>
@@ -6010,22 +6010,22 @@
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y62">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6867427</v>
+        <v>6867429</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,76 +6134,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N64">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O64">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6867429</v>
+        <v>6867424</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,73 +6223,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K65">
         <v>2.5</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6312,7 +6312,7 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
@@ -6582,7 +6582,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6867436</v>
+        <v>6867439</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,46 +7113,46 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N75">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2.75</v>
@@ -7164,19 +7164,19 @@
         <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6867439</v>
+        <v>6867441</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L77">
+        <v>3.75</v>
+      </c>
+      <c r="M77">
+        <v>1.727</v>
+      </c>
+      <c r="N77">
         <v>4.5</v>
       </c>
-      <c r="M77">
-        <v>8</v>
-      </c>
-      <c r="N77">
-        <v>1.333</v>
-      </c>
       <c r="O77">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
+        <v>1.85</v>
+      </c>
+      <c r="S77">
         <v>1.95</v>
       </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6867441</v>
+        <v>6867436</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
+        <v>3.3</v>
+      </c>
+      <c r="M78">
+        <v>1.909</v>
+      </c>
+      <c r="N78">
+        <v>4.75</v>
+      </c>
+      <c r="O78">
         <v>3.75</v>
       </c>
-      <c r="M78">
-        <v>1.727</v>
-      </c>
-      <c r="N78">
-        <v>4.5</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
       <c r="P78">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q78">
         <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y78">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>